--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="818">
   <si>
     <t>target</t>
   </si>
@@ -2354,16 +2354,85 @@
     <t>${heading.auditLogs}</t>
   </si>
   <si>
+    <t xml:space="preserve">Search Functionality </t>
+  </si>
+  <si>
     <t xml:space="preserve">Validate the Search box </t>
   </si>
   <si>
     <t>${searchBox.Logs}</t>
   </si>
   <si>
+    <t xml:space="preserve">Enter anything to search </t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Filter Functionality</t>
+  </si>
+  <si>
     <t xml:space="preserve">validate the filter option </t>
   </si>
   <si>
     <t>${filter.Logs}</t>
+  </si>
+  <si>
+    <t>Click on Filter option</t>
+  </si>
+  <si>
+    <t>validate From date in Date Range</t>
+  </si>
+  <si>
+    <t>${from.Date}</t>
+  </si>
+  <si>
+    <t>validate To date in Date Range</t>
+  </si>
+  <si>
+    <t>${to.Date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate submit button </t>
+  </si>
+  <si>
+    <t>${Filter.Submit}</t>
+  </si>
+  <si>
+    <t>validate clear button</t>
+  </si>
+  <si>
+    <t>${Fiter.Clear}</t>
+  </si>
+  <si>
+    <t>Clear Functionality in Filter</t>
+  </si>
+  <si>
+    <t>Validate Date range Heading</t>
+  </si>
+  <si>
+    <t>${Filter.DateRange}</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>Enter From Date in date field</t>
+  </si>
+  <si>
+    <t>${From.DateValues}</t>
+  </si>
+  <si>
+    <t>Enter To date in date field</t>
+  </si>
+  <si>
+    <t>${To.DateValues}</t>
+  </si>
+  <si>
+    <t>click on submit button</t>
+  </si>
+  <si>
+    <t>Submit Functionality in Filter</t>
   </si>
   <si>
     <t>Velidate the Activity Heading</t>
@@ -3177,7 +3246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3277,6 +3346,10 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6473,14 +6546,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="37"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6494,12 +6567,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6511,7 +6584,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="40"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6546,10 +6619,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="42" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6564,84 +6637,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="50" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="53"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6653,7 +6726,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="47"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6670,7 +6743,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="47"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6687,7 +6760,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="47"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6704,7 +6777,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="47"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6721,7 +6794,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="47"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6738,7 +6811,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="47"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6755,7 +6828,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="47"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6764,7 +6837,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="59"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6772,7 +6845,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -6789,7 +6862,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -6806,7 +6879,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="47"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -6823,7 +6896,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="47"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -6840,7 +6913,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="47"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -6857,7 +6930,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="47"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -6874,7 +6947,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="47"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -6891,7 +6964,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="47"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -6908,7 +6981,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="47"/>
+      <c r="J24" s="48"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -6925,7 +6998,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="47"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -6942,7 +7015,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="47"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -6959,7 +7032,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="47"/>
+      <c r="J27" s="48"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -6976,7 +7049,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="47"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -6993,7 +7066,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="47"/>
+      <c r="J29" s="48"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7010,7 +7083,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="47"/>
+      <c r="J30" s="48"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7027,7 +7100,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="47"/>
+      <c r="J31" s="48"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7044,7 +7117,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="47"/>
+      <c r="J32" s="48"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7061,7 +7134,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="47"/>
+      <c r="J33" s="48"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7078,7 +7151,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="47"/>
+      <c r="J34" s="48"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7095,7 +7168,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="47"/>
+      <c r="J35" s="48"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7112,7 +7185,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="47"/>
+      <c r="J36" s="48"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7129,7 +7202,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="47"/>
+      <c r="J37" s="48"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7146,7 +7219,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="47"/>
+      <c r="J38" s="48"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7163,7 +7236,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="47"/>
+      <c r="J39" s="48"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7180,7 +7253,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="47"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7197,7 +7270,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="47"/>
+      <c r="J41" s="48"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7214,7 +7287,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="47"/>
+      <c r="J42" s="48"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7231,7 +7304,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="47"/>
+      <c r="J43" s="48"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7248,7 +7321,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="47"/>
+      <c r="J44" s="48"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7265,7 +7338,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="47"/>
+      <c r="J45" s="48"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7282,7 +7355,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="47"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7299,7 +7372,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="47"/>
+      <c r="J47" s="48"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7316,7 +7389,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="47"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7333,7 +7406,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="47"/>
+      <c r="J49" s="48"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7350,7 +7423,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="47"/>
+      <c r="J50" s="48"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7367,7 +7440,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="47"/>
+      <c r="J51" s="48"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7384,7 +7457,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="47"/>
+      <c r="J52" s="48"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7401,7 +7474,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="47"/>
+      <c r="J53" s="48"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7418,7 +7491,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="47"/>
+      <c r="J54" s="48"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7435,7 +7508,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="47"/>
+      <c r="J55" s="48"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7452,7 +7525,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="47"/>
+      <c r="J56" s="48"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7469,7 +7542,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="47"/>
+      <c r="J57" s="48"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7486,7 +7559,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="47"/>
+      <c r="J58" s="48"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7503,7 +7576,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="47"/>
+      <c r="J59" s="48"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7520,7 +7593,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="47"/>
+      <c r="J60" s="48"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7537,7 +7610,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="47"/>
+      <c r="J61" s="48"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7554,7 +7627,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="47"/>
+      <c r="J62" s="48"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7571,7 +7644,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="47"/>
+      <c r="J63" s="48"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7588,7 +7661,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="47"/>
+      <c r="J64" s="48"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7605,7 +7678,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="47"/>
+      <c r="J65" s="48"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7622,7 +7695,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="47"/>
+      <c r="J66" s="48"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7639,7 +7712,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="47"/>
+      <c r="J67" s="48"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7656,7 +7729,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="47"/>
+      <c r="J68" s="48"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7673,7 +7746,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="47"/>
+      <c r="J69" s="48"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7690,7 +7763,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="47"/>
+      <c r="J70" s="48"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7707,7 +7780,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="47"/>
+      <c r="J71" s="48"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7724,7 +7797,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="47"/>
+      <c r="J72" s="48"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7741,7 +7814,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="47"/>
+      <c r="J73" s="48"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7758,7 +7831,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="47"/>
+      <c r="J74" s="48"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7775,7 +7848,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="47"/>
+      <c r="J75" s="48"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -7792,7 +7865,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="47"/>
+      <c r="J76" s="48"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -7809,7 +7882,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="47"/>
+      <c r="J77" s="48"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -7826,7 +7899,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="47"/>
+      <c r="J78" s="48"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -7843,7 +7916,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="47"/>
+      <c r="J79" s="48"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -7860,7 +7933,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="47"/>
+      <c r="J80" s="48"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -7877,7 +7950,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="47"/>
+      <c r="J81" s="48"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -7894,7 +7967,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="47"/>
+      <c r="J82" s="48"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -7911,7 +7984,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="47"/>
+      <c r="J83" s="48"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -7928,7 +8001,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="47"/>
+      <c r="J84" s="48"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -7945,7 +8018,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="47"/>
+      <c r="J85" s="48"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -7962,7 +8035,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="47"/>
+      <c r="J86" s="48"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -7979,7 +8052,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="47"/>
+      <c r="J87" s="48"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -7996,7 +8069,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="47"/>
+      <c r="J88" s="48"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8013,7 +8086,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="47"/>
+      <c r="J89" s="48"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8030,7 +8103,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="47"/>
+      <c r="J90" s="48"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8047,7 +8120,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="47"/>
+      <c r="J91" s="48"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8064,7 +8137,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="47"/>
+      <c r="J92" s="48"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8081,7 +8154,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="47"/>
+      <c r="J93" s="48"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8098,7 +8171,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="47"/>
+      <c r="J94" s="48"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8115,7 +8188,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="47"/>
+      <c r="J95" s="48"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8132,7 +8205,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="47"/>
+      <c r="J96" s="48"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8149,7 +8222,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="47"/>
+      <c r="J97" s="48"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8166,7 +8239,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="47"/>
+      <c r="J98" s="48"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8183,7 +8256,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="47"/>
+      <c r="J99" s="48"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8200,7 +8273,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="47"/>
+      <c r="J100" s="48"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8217,7 +8290,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="47"/>
+      <c r="J101" s="48"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8234,7 +8307,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="47"/>
+      <c r="J102" s="48"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8251,7 +8324,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="47"/>
+      <c r="J103" s="48"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8268,7 +8341,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="47"/>
+      <c r="J104" s="48"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8285,7 +8358,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="47"/>
+      <c r="J105" s="48"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8302,7 +8375,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="47"/>
+      <c r="J106" s="48"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8319,7 +8392,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="47"/>
+      <c r="J107" s="48"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8336,7 +8409,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="47"/>
+      <c r="J108" s="48"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8353,7 +8426,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="47"/>
+      <c r="J109" s="48"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8370,7 +8443,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="47"/>
+      <c r="J110" s="48"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8387,7 +8460,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="47"/>
+      <c r="J111" s="48"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8404,7 +8477,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="47"/>
+      <c r="J112" s="48"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8421,7 +8494,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="47"/>
+      <c r="J113" s="48"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8438,7 +8511,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="47"/>
+      <c r="J114" s="48"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8455,7 +8528,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="47"/>
+      <c r="J115" s="48"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8472,7 +8545,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="47"/>
+      <c r="J116" s="48"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8489,7 +8562,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="47"/>
+      <c r="J117" s="48"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8506,7 +8579,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="47"/>
+      <c r="J118" s="48"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8523,7 +8596,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="47"/>
+      <c r="J119" s="48"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8540,7 +8613,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="47"/>
+      <c r="J120" s="48"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8557,7 +8630,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="47"/>
+      <c r="J121" s="48"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8574,7 +8647,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="47"/>
+      <c r="J122" s="48"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8591,7 +8664,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="47"/>
+      <c r="J123" s="48"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8608,7 +8681,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="47"/>
+      <c r="J124" s="48"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8625,7 +8698,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="47"/>
+      <c r="J125" s="48"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8642,7 +8715,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="47"/>
+      <c r="J126" s="48"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8659,7 +8732,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="47"/>
+      <c r="J127" s="48"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8676,7 +8749,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="47"/>
+      <c r="J128" s="48"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8693,7 +8766,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="47"/>
+      <c r="J129" s="48"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8710,7 +8783,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="47"/>
+      <c r="J130" s="48"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8727,7 +8800,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="47"/>
+      <c r="J131" s="48"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8744,7 +8817,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="47"/>
+      <c r="J132" s="48"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8761,7 +8834,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="47"/>
+      <c r="J133" s="48"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8778,7 +8851,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="47"/>
+      <c r="J134" s="48"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -8795,7 +8868,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="47"/>
+      <c r="J135" s="48"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -8812,7 +8885,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="47"/>
+      <c r="J136" s="48"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -8829,7 +8902,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="47"/>
+      <c r="J137" s="48"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -8846,7 +8919,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="47"/>
+      <c r="J138" s="48"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -8863,7 +8936,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="47"/>
+      <c r="J139" s="48"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -8880,7 +8953,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="47"/>
+      <c r="J140" s="48"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -8897,7 +8970,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="47"/>
+      <c r="J141" s="48"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -8914,7 +8987,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="47"/>
+      <c r="J142" s="48"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -8931,7 +9004,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="47"/>
+      <c r="J143" s="48"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -8948,7 +9021,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="47"/>
+      <c r="J144" s="48"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -8965,7 +9038,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="47"/>
+      <c r="J145" s="48"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -8982,7 +9055,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="47"/>
+      <c r="J146" s="48"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -8999,7 +9072,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="47"/>
+      <c r="J147" s="48"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9016,7 +9089,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="47"/>
+      <c r="J148" s="48"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9033,7 +9106,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="47"/>
+      <c r="J149" s="48"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9050,7 +9123,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="47"/>
+      <c r="J150" s="48"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9067,7 +9140,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="47"/>
+      <c r="J151" s="48"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9084,7 +9157,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="47"/>
+      <c r="J152" s="48"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9101,7 +9174,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="47"/>
+      <c r="J153" s="48"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9118,7 +9191,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="47"/>
+      <c r="J154" s="48"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9135,7 +9208,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="47"/>
+      <c r="J155" s="48"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9152,7 +9225,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="47"/>
+      <c r="J156" s="48"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9169,7 +9242,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="47"/>
+      <c r="J157" s="48"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9186,7 +9259,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="47"/>
+      <c r="J158" s="48"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9203,7 +9276,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="47"/>
+      <c r="J159" s="48"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9220,7 +9293,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="47"/>
+      <c r="J160" s="48"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9237,7 +9310,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="47"/>
+      <c r="J161" s="48"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9254,7 +9327,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="47"/>
+      <c r="J162" s="48"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9271,7 +9344,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="47"/>
+      <c r="J163" s="48"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9288,7 +9361,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="47"/>
+      <c r="J164" s="48"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9305,7 +9378,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="47"/>
+      <c r="J165" s="48"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9322,7 +9395,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="47"/>
+      <c r="J166" s="48"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9339,7 +9412,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="47"/>
+      <c r="J167" s="48"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9356,7 +9429,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="47"/>
+      <c r="J168" s="48"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9373,7 +9446,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="47"/>
+      <c r="J169" s="48"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9390,7 +9463,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="47"/>
+      <c r="J170" s="48"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9407,7 +9480,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="47"/>
+      <c r="J171" s="48"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9424,7 +9497,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="47"/>
+      <c r="J172" s="48"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9441,7 +9514,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="47"/>
+      <c r="J173" s="48"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9458,7 +9531,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="47"/>
+      <c r="J174" s="48"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9475,7 +9548,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="47"/>
+      <c r="J175" s="48"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9492,7 +9565,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="47"/>
+      <c r="J176" s="48"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9509,7 +9582,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="47"/>
+      <c r="J177" s="48"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9526,7 +9599,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="47"/>
+      <c r="J178" s="48"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9543,7 +9616,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="47"/>
+      <c r="J179" s="48"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9560,7 +9633,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="47"/>
+      <c r="J180" s="48"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9577,7 +9650,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="47"/>
+      <c r="J181" s="48"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9594,7 +9667,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="47"/>
+      <c r="J182" s="48"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9611,7 +9684,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="47"/>
+      <c r="J183" s="48"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9628,7 +9701,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="47"/>
+      <c r="J184" s="48"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9645,7 +9718,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="47"/>
+      <c r="J185" s="48"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9662,7 +9735,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="47"/>
+      <c r="J186" s="48"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9679,7 +9752,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="47"/>
+      <c r="J187" s="48"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9696,7 +9769,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="47"/>
+      <c r="J188" s="48"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9759,10 +9832,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O188"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9806,14 +9879,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="37"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9827,12 +9900,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9844,7 +9917,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="40"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9879,10 +9952,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="42" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -9918,12 +9991,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -9943,12 +10016,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -9970,7 +10043,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="47"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -9995,7 +10068,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="47"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10020,7 +10093,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="47"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10028,9 +10101,11 @@
       <c r="O9" s="22"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>763</v>
+      </c>
       <c r="B10" s="30" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
@@ -10039,13 +10114,13 @@
         <v>253</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="47"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10055,22 +10130,24 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F11" s="28"/>
+        <v>765</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>767</v>
+      </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="47"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10078,26 +10155,26 @@
       <c r="O11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="19" t="s">
+        <v>768</v>
+      </c>
       <c r="B12" s="30" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>769</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F12" s="28"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="47"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10107,24 +10184,22 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>772</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F13" s="28"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="47"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10134,24 +10209,22 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>775</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="F14" s="28"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="47"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10161,24 +10234,22 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>483</v>
+        <v>253</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>777</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>778</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="F15" s="28"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="47"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10188,24 +10259,22 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>781</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="F16" s="28"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10214,23 +10283,23 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>783</v>
-      </c>
+      <c r="B17" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F17" s="28"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10238,24 +10307,28 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>784</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>785</v>
+      <c r="A18" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>783</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="47"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10264,23 +10337,25 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>784</v>
+      </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>493</v>
+        <v>707</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>786</v>
+        <v>773</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>785</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="47"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10289,23 +10364,25 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E20" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="F20" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>788</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="47"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10314,23 +10391,25 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>789</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>790</v>
+        <v>576</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F21" s="28">
+        <v>5000</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="47"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10338,24 +10417,26 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>786</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>791</v>
-      </c>
+      <c r="D22" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="F22" s="28"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="47"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10364,23 +10445,25 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>788</v>
+      <c r="E23" s="27" t="s">
+        <v>782</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="47"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10389,23 +10472,25 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>790</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>793</v>
+      <c r="D24" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>785</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="47"/>
+      <c r="J24" s="48"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10415,24 +10500,24 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>781</v>
+        <v>786</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>787</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="47"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10441,15 +10526,25 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="B26" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="F26" s="28">
+        <v>3000</v>
+      </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="47"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10458,15 +10553,25 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>792</v>
+      </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="47"/>
+      <c r="J27" s="48"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10475,15 +10580,25 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
+      <c r="B28" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>795</v>
+      </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="47"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10492,15 +10607,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
+      <c r="B29" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>798</v>
+      </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="47"/>
+      <c r="J29" s="48"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10509,15 +10634,25 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>801</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="47"/>
+      <c r="J30" s="48"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10526,15 +10661,25 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="B31" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>804</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="47"/>
+      <c r="J31" s="48"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10544,14 +10689,22 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="C32" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>805</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>806</v>
+      </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="47"/>
+      <c r="J32" s="48"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10560,15 +10713,23 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>808</v>
+      </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="47"/>
+      <c r="J33" s="48"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10577,15 +10738,23 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>809</v>
+      </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="47"/>
+      <c r="J34" s="48"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10594,15 +10763,23 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>811</v>
+      </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="47"/>
+      <c r="J35" s="48"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10611,15 +10788,23 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>813</v>
+      </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="47"/>
+      <c r="J36" s="48"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10628,15 +10813,23 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>814</v>
+      </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="47"/>
+      <c r="J37" s="48"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10645,15 +10838,23 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>815</v>
+      </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="47"/>
+      <c r="J38" s="48"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10662,15 +10863,23 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>816</v>
+      </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="47"/>
+      <c r="J39" s="48"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10679,15 +10888,25 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="B40" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>804</v>
+      </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="47"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10696,15 +10915,15 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="47"/>
+      <c r="J41" s="48"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10713,15 +10932,15 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="26"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="47"/>
+      <c r="J42" s="48"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10730,15 +10949,15 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="26"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="47"/>
+      <c r="J43" s="48"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -10747,15 +10966,15 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="26"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="47"/>
+      <c r="J44" s="48"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -10764,15 +10983,15 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="47"/>
+      <c r="J45" s="48"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -10781,15 +11000,15 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="47"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -10798,15 +11017,15 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="47"/>
+      <c r="J47" s="48"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -10823,7 +11042,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="47"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -10840,7 +11059,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="47"/>
+      <c r="J49" s="48"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -10857,7 +11076,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="47"/>
+      <c r="J50" s="48"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -10874,7 +11093,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="47"/>
+      <c r="J51" s="48"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -10891,7 +11110,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="47"/>
+      <c r="J52" s="48"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -10908,7 +11127,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="47"/>
+      <c r="J53" s="48"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -10925,7 +11144,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="47"/>
+      <c r="J54" s="48"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -10942,7 +11161,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="47"/>
+      <c r="J55" s="48"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -10959,7 +11178,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="47"/>
+      <c r="J56" s="48"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -10976,7 +11195,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="47"/>
+      <c r="J57" s="48"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -10993,7 +11212,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="47"/>
+      <c r="J58" s="48"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11010,7 +11229,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="47"/>
+      <c r="J59" s="48"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11027,7 +11246,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="47"/>
+      <c r="J60" s="48"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11044,7 +11263,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="47"/>
+      <c r="J61" s="48"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11061,7 +11280,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="47"/>
+      <c r="J62" s="48"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11078,7 +11297,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="47"/>
+      <c r="J63" s="48"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11095,7 +11314,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="47"/>
+      <c r="J64" s="48"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11112,7 +11331,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="47"/>
+      <c r="J65" s="48"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11129,7 +11348,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="47"/>
+      <c r="J66" s="48"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11146,7 +11365,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="47"/>
+      <c r="J67" s="48"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11163,7 +11382,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="47"/>
+      <c r="J68" s="48"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11180,7 +11399,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="47"/>
+      <c r="J69" s="48"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11197,7 +11416,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="47"/>
+      <c r="J70" s="48"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11214,7 +11433,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="47"/>
+      <c r="J71" s="48"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11231,7 +11450,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="47"/>
+      <c r="J72" s="48"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11248,7 +11467,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="47"/>
+      <c r="J73" s="48"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11265,7 +11484,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="47"/>
+      <c r="J74" s="48"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11282,7 +11501,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="47"/>
+      <c r="J75" s="48"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11299,7 +11518,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="47"/>
+      <c r="J76" s="48"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11316,7 +11535,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="47"/>
+      <c r="J77" s="48"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11333,7 +11552,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="47"/>
+      <c r="J78" s="48"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11350,7 +11569,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="47"/>
+      <c r="J79" s="48"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11367,7 +11586,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="47"/>
+      <c r="J80" s="48"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11384,7 +11603,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="47"/>
+      <c r="J81" s="48"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11401,7 +11620,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="47"/>
+      <c r="J82" s="48"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11418,7 +11637,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="47"/>
+      <c r="J83" s="48"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11435,7 +11654,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="47"/>
+      <c r="J84" s="48"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11452,7 +11671,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="47"/>
+      <c r="J85" s="48"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11469,7 +11688,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="47"/>
+      <c r="J86" s="48"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11486,7 +11705,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="47"/>
+      <c r="J87" s="48"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11503,7 +11722,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="47"/>
+      <c r="J88" s="48"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11520,7 +11739,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="47"/>
+      <c r="J89" s="48"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11537,7 +11756,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="47"/>
+      <c r="J90" s="48"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11554,7 +11773,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="47"/>
+      <c r="J91" s="48"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11571,7 +11790,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="47"/>
+      <c r="J92" s="48"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11588,7 +11807,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="47"/>
+      <c r="J93" s="48"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -11605,7 +11824,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="47"/>
+      <c r="J94" s="48"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -11622,7 +11841,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="47"/>
+      <c r="J95" s="48"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -11639,7 +11858,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="47"/>
+      <c r="J96" s="48"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -11656,7 +11875,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="47"/>
+      <c r="J97" s="48"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -11673,7 +11892,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="47"/>
+      <c r="J98" s="48"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -11690,7 +11909,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="47"/>
+      <c r="J99" s="48"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -11707,7 +11926,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="47"/>
+      <c r="J100" s="48"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -11724,7 +11943,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="47"/>
+      <c r="J101" s="48"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -11741,7 +11960,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="47"/>
+      <c r="J102" s="48"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -11758,7 +11977,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="47"/>
+      <c r="J103" s="48"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -11775,7 +11994,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="47"/>
+      <c r="J104" s="48"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -11792,7 +12011,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="47"/>
+      <c r="J105" s="48"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -11809,7 +12028,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="47"/>
+      <c r="J106" s="48"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -11826,7 +12045,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="47"/>
+      <c r="J107" s="48"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -11843,7 +12062,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="47"/>
+      <c r="J108" s="48"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -11860,7 +12079,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="47"/>
+      <c r="J109" s="48"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -11877,7 +12096,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="47"/>
+      <c r="J110" s="48"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -11894,7 +12113,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="47"/>
+      <c r="J111" s="48"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -11911,7 +12130,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="47"/>
+      <c r="J112" s="48"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -11928,7 +12147,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="47"/>
+      <c r="J113" s="48"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -11945,7 +12164,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="47"/>
+      <c r="J114" s="48"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -11962,7 +12181,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="47"/>
+      <c r="J115" s="48"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -11979,7 +12198,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="47"/>
+      <c r="J116" s="48"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -11996,7 +12215,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="47"/>
+      <c r="J117" s="48"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12013,7 +12232,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="47"/>
+      <c r="J118" s="48"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12030,7 +12249,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="47"/>
+      <c r="J119" s="48"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12047,7 +12266,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="47"/>
+      <c r="J120" s="48"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12064,7 +12283,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="47"/>
+      <c r="J121" s="48"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12081,7 +12300,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="47"/>
+      <c r="J122" s="48"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12098,7 +12317,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="47"/>
+      <c r="J123" s="48"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12115,7 +12334,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="47"/>
+      <c r="J124" s="48"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12132,7 +12351,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="47"/>
+      <c r="J125" s="48"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12149,7 +12368,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="47"/>
+      <c r="J126" s="48"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12166,7 +12385,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="47"/>
+      <c r="J127" s="48"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12183,7 +12402,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="47"/>
+      <c r="J128" s="48"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12200,7 +12419,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="47"/>
+      <c r="J129" s="48"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12217,7 +12436,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="47"/>
+      <c r="J130" s="48"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12234,7 +12453,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="47"/>
+      <c r="J131" s="48"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12251,7 +12470,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="47"/>
+      <c r="J132" s="48"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12268,7 +12487,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="47"/>
+      <c r="J133" s="48"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12285,7 +12504,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="47"/>
+      <c r="J134" s="48"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12302,7 +12521,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="47"/>
+      <c r="J135" s="48"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12319,7 +12538,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="47"/>
+      <c r="J136" s="48"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12336,7 +12555,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="47"/>
+      <c r="J137" s="48"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12353,7 +12572,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="47"/>
+      <c r="J138" s="48"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12370,7 +12589,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="47"/>
+      <c r="J139" s="48"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12387,7 +12606,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="47"/>
+      <c r="J140" s="48"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12404,7 +12623,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="47"/>
+      <c r="J141" s="48"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12421,7 +12640,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="47"/>
+      <c r="J142" s="48"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12438,7 +12657,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="47"/>
+      <c r="J143" s="48"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12455,7 +12674,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="47"/>
+      <c r="J144" s="48"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12472,7 +12691,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="47"/>
+      <c r="J145" s="48"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12489,7 +12708,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="47"/>
+      <c r="J146" s="48"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12506,7 +12725,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="47"/>
+      <c r="J147" s="48"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12523,7 +12742,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="47"/>
+      <c r="J148" s="48"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12540,7 +12759,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="47"/>
+      <c r="J149" s="48"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12557,7 +12776,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="47"/>
+      <c r="J150" s="48"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12574,7 +12793,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="47"/>
+      <c r="J151" s="48"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12591,7 +12810,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="47"/>
+      <c r="J152" s="48"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -12608,7 +12827,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="47"/>
+      <c r="J153" s="48"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -12625,7 +12844,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="47"/>
+      <c r="J154" s="48"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -12642,7 +12861,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="47"/>
+      <c r="J155" s="48"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -12659,7 +12878,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="47"/>
+      <c r="J156" s="48"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -12676,7 +12895,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="47"/>
+      <c r="J157" s="48"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -12693,7 +12912,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="47"/>
+      <c r="J158" s="48"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -12710,7 +12929,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="47"/>
+      <c r="J159" s="48"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -12727,7 +12946,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="47"/>
+      <c r="J160" s="48"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -12744,7 +12963,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="47"/>
+      <c r="J161" s="48"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -12761,7 +12980,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="47"/>
+      <c r="J162" s="48"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -12778,7 +12997,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="47"/>
+      <c r="J163" s="48"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -12795,7 +13014,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="47"/>
+      <c r="J164" s="48"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -12812,7 +13031,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="47"/>
+      <c r="J165" s="48"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -12829,7 +13048,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="47"/>
+      <c r="J166" s="48"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -12846,7 +13065,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="47"/>
+      <c r="J167" s="48"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -12863,7 +13082,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="47"/>
+      <c r="J168" s="48"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -12880,7 +13099,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="47"/>
+      <c r="J169" s="48"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -12897,7 +13116,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="47"/>
+      <c r="J170" s="48"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -12914,7 +13133,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="47"/>
+      <c r="J171" s="48"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -12931,7 +13150,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="47"/>
+      <c r="J172" s="48"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -12948,7 +13167,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="47"/>
+      <c r="J173" s="48"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -12965,7 +13184,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="47"/>
+      <c r="J174" s="48"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -12982,7 +13201,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="47"/>
+      <c r="J175" s="48"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -12999,7 +13218,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="47"/>
+      <c r="J176" s="48"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13016,7 +13235,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="47"/>
+      <c r="J177" s="48"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13033,7 +13252,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="47"/>
+      <c r="J178" s="48"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13050,7 +13269,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="47"/>
+      <c r="J179" s="48"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13067,7 +13286,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="47"/>
+      <c r="J180" s="48"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13084,7 +13303,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="47"/>
+      <c r="J181" s="48"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13101,7 +13320,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="47"/>
+      <c r="J182" s="48"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13118,7 +13337,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="47"/>
+      <c r="J183" s="48"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13135,7 +13354,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="47"/>
+      <c r="J184" s="48"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -13152,7 +13371,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="47"/>
+      <c r="J185" s="48"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -13169,7 +13388,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="47"/>
+      <c r="J186" s="48"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -13186,7 +13405,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="47"/>
+      <c r="J187" s="48"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -13203,12 +13422,267 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="47"/>
+      <c r="J188" s="48"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
       <c r="N188" s="23"/>
       <c r="O188" s="22"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="48"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="23"/>
+      <c r="M189" s="21"/>
+      <c r="N189" s="23"/>
+      <c r="O189" s="22"/>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="48"/>
+      <c r="K190" s="22"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="21"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="22"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="48"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="23"/>
+      <c r="M191" s="21"/>
+      <c r="N191" s="23"/>
+      <c r="O191" s="22"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="48"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="23"/>
+      <c r="M192" s="21"/>
+      <c r="N192" s="23"/>
+      <c r="O192" s="22"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="48"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="23"/>
+      <c r="O193" s="22"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="21"/>
+      <c r="N194" s="23"/>
+      <c r="O194" s="22"/>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="48"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="22"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="48"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="21"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="22"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="48"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="21"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="22"/>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="48"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="23"/>
+      <c r="M198" s="21"/>
+      <c r="N198" s="23"/>
+      <c r="O198" s="22"/>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="48"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="23"/>
+      <c r="M199" s="21"/>
+      <c r="N199" s="23"/>
+      <c r="O199" s="22"/>
+    </row>
+    <row r="200" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="48"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="23"/>
+      <c r="M200" s="21"/>
+      <c r="N200" s="23"/>
+      <c r="O200" s="22"/>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="48"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="23"/>
+      <c r="M201" s="21"/>
+      <c r="N201" s="23"/>
+      <c r="O201" s="22"/>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="48"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="23"/>
+      <c r="M202" s="21"/>
+      <c r="N202" s="23"/>
+      <c r="O202" s="22"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A203" s="19"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="48"/>
+      <c r="K203" s="22"/>
+      <c r="L203" s="23"/>
+      <c r="M203" s="21"/>
+      <c r="N203" s="23"/>
+      <c r="O203" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13217,18 +13691,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N89:N188">
+  <conditionalFormatting sqref="N104:N203">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N89,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N104,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N89,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N104,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N89,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N104,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N88">
+  <conditionalFormatting sqref="N1 N3:N103">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13240,10 +13714,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C12 C15 C16 C19 C20 C21 C22 C23 C24 C25 C33 C7:C8 C9:C11 C13:C14 C17:C18 C26:C32 C34:C188">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C13 C17 C18 C22 C23 C27 C30 C31 C34 C35 C36 C37 C38 C39 C40 C48 C7:C8 C9:C10 C14:C16 C19:C21 C24:C26 C28:C29 C32:C33 C41:C47 C49:C203">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D12 D15 D16 D19 D20 D21 D22 D23 D24 D25 D33 D7:D8 D9:D11 D13:D14 D17:D18 D26:D32 D34:D188">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D13 D17 D18 D22 D23 D27 D30 D31 D34 D35 D36 D37 D38 D39 D40 D48 D7:D8 D9:D10 D14:D16 D19:D21 D24:D26 D28:D29 D32:D33 D41:D47 D49:D203">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="819">
   <si>
     <t>target</t>
   </si>
@@ -2316,6 +2316,9 @@
   <si>
     <t>username=${username}
 password=${password}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Audit Logs </t>
   </si>
   <si>
     <t>Navigating to AuditLogs page</t>
@@ -9834,8 +9837,8 @@
   <sheetPr/>
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9890,7 +9893,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -9971,10 +9974,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="19" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>30</v>
@@ -9983,7 +9986,7 @@
         <v>576</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F5" s="28">
         <v>1500</v>
@@ -10001,7 +10004,7 @@
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
       <c r="B6" s="30" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>30</v>
@@ -10010,7 +10013,7 @@
         <v>363</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="29"/>
@@ -10026,7 +10029,7 @@
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
       <c r="B7" s="30" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>30</v>
@@ -10035,10 +10038,10 @@
         <v>576</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -10053,7 +10056,7 @@
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
@@ -10062,7 +10065,7 @@
         <v>363</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -10078,7 +10081,7 @@
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
       <c r="B9" s="30" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
@@ -10087,7 +10090,7 @@
         <v>253</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
@@ -10102,10 +10105,10 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
@@ -10114,7 +10117,7 @@
         <v>253</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
@@ -10130,7 +10133,7 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
@@ -10139,10 +10142,10 @@
         <v>707</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10156,10 +10159,10 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -10168,7 +10171,7 @@
         <v>253</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="27"/>
@@ -10184,7 +10187,7 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -10193,7 +10196,7 @@
         <v>363</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
@@ -10209,7 +10212,7 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
@@ -10218,7 +10221,7 @@
         <v>253</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
@@ -10234,7 +10237,7 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
@@ -10243,7 +10246,7 @@
         <v>253</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="27"/>
@@ -10259,7 +10262,7 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
@@ -10268,7 +10271,7 @@
         <v>253</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="27"/>
@@ -10284,7 +10287,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>30</v>
@@ -10293,7 +10296,7 @@
         <v>253</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="27"/>
@@ -10308,10 +10311,10 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10320,10 +10323,10 @@
         <v>530</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -10338,7 +10341,7 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="30" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
@@ -10347,10 +10350,10 @@
         <v>707</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10365,7 +10368,7 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
@@ -10374,10 +10377,10 @@
         <v>707</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -10392,7 +10395,7 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
@@ -10401,7 +10404,7 @@
         <v>576</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F21" s="28">
         <v>5000</v>
@@ -10418,10 +10421,10 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10430,7 +10433,7 @@
         <v>363</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="27"/>
@@ -10446,7 +10449,7 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10455,10 +10458,10 @@
         <v>530</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -10473,7 +10476,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
@@ -10482,10 +10485,10 @@
         <v>707</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -10500,7 +10503,7 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>30</v>
@@ -10509,10 +10512,10 @@
         <v>707</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10527,7 +10530,7 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="30" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
@@ -10536,7 +10539,7 @@
         <v>576</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F26" s="28">
         <v>3000</v>
@@ -10554,7 +10557,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10563,10 +10566,10 @@
         <v>530</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -10581,7 +10584,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
@@ -10590,10 +10593,10 @@
         <v>530</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -10608,7 +10611,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10617,10 +10620,10 @@
         <v>530</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -10635,7 +10638,7 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10644,10 +10647,10 @@
         <v>483</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10662,7 +10665,7 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>5</v>
@@ -10671,10 +10674,10 @@
         <v>471</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -10696,10 +10699,10 @@
         <v>465</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -10721,10 +10724,10 @@
         <v>49</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -10749,7 +10752,7 @@
         <v>734</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -10771,10 +10774,10 @@
         <v>493</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -10796,10 +10799,10 @@
         <v>493</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -10821,10 +10824,10 @@
         <v>530</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -10846,10 +10849,10 @@
         <v>530</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -10871,10 +10874,10 @@
         <v>530</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -10889,7 +10892,7 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="30" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>20</v>
@@ -10898,10 +10901,10 @@
         <v>302</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="817">
   <si>
     <t>target</t>
   </si>
@@ -2318,9 +2318,6 @@
 password=${password}</t>
   </si>
   <si>
-    <t xml:space="preserve">Verifying Audit Logs </t>
-  </si>
-  <si>
     <t>Navigating to AuditLogs page</t>
   </si>
   <si>
@@ -2355,9 +2352,6 @@
   </si>
   <si>
     <t>${heading.auditLogs}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Functionality </t>
   </si>
   <si>
     <t xml:space="preserve">Validate the Search box </t>
@@ -9837,8 +9831,8 @@
   <sheetPr/>
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9893,7 +9887,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -9974,10 +9968,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>752</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>753</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>30</v>
@@ -9986,7 +9980,7 @@
         <v>576</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F5" s="28">
         <v>1500</v>
@@ -10004,7 +9998,7 @@
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
       <c r="B6" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>30</v>
@@ -10013,7 +10007,7 @@
         <v>363</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="29"/>
@@ -10029,7 +10023,7 @@
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
       <c r="B7" s="30" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>30</v>
@@ -10038,10 +10032,10 @@
         <v>576</v>
       </c>
       <c r="E7" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>758</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>759</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -10056,7 +10050,7 @@
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
@@ -10065,7 +10059,7 @@
         <v>363</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -10081,7 +10075,7 @@
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
       <c r="B9" s="30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
@@ -10090,7 +10084,7 @@
         <v>253</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
@@ -10104,11 +10098,9 @@
       <c r="O9" s="22"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="19" t="s">
-        <v>764</v>
-      </c>
+      <c r="A10" s="19"/>
       <c r="B10" s="30" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
@@ -10117,7 +10109,7 @@
         <v>253</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
@@ -10133,7 +10125,7 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
@@ -10142,10 +10134,10 @@
         <v>707</v>
       </c>
       <c r="E11" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>766</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>768</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10159,10 +10151,10 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -10171,7 +10163,7 @@
         <v>253</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="27"/>
@@ -10187,7 +10179,7 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -10196,7 +10188,7 @@
         <v>363</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
@@ -10212,7 +10204,7 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
@@ -10221,7 +10213,7 @@
         <v>253</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
@@ -10237,7 +10229,7 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
@@ -10246,7 +10238,7 @@
         <v>253</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="27"/>
@@ -10262,7 +10254,7 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
@@ -10271,7 +10263,7 @@
         <v>253</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="27"/>
@@ -10287,7 +10279,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>30</v>
@@ -10296,7 +10288,7 @@
         <v>253</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="27"/>
@@ -10311,10 +10303,10 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10323,10 +10315,10 @@
         <v>530</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -10341,7 +10333,7 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
@@ -10350,10 +10342,10 @@
         <v>707</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10368,7 +10360,7 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
@@ -10377,10 +10369,10 @@
         <v>707</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -10395,7 +10387,7 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
@@ -10404,7 +10396,7 @@
         <v>576</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F21" s="28">
         <v>5000</v>
@@ -10421,10 +10413,10 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10433,7 +10425,7 @@
         <v>363</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="27"/>
@@ -10449,7 +10441,7 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10458,10 +10450,10 @@
         <v>530</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -10476,7 +10468,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
@@ -10485,10 +10477,10 @@
         <v>707</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -10503,7 +10495,7 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>30</v>
@@ -10512,10 +10504,10 @@
         <v>707</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10530,7 +10522,7 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
@@ -10539,7 +10531,7 @@
         <v>576</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F26" s="28">
         <v>3000</v>
@@ -10557,7 +10549,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10566,10 +10558,10 @@
         <v>530</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -10584,7 +10576,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
@@ -10593,10 +10585,10 @@
         <v>530</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -10611,7 +10603,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10620,10 +10612,10 @@
         <v>530</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -10638,7 +10630,7 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10647,10 +10639,10 @@
         <v>483</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10665,7 +10657,7 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>5</v>
@@ -10674,10 +10666,10 @@
         <v>471</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -10699,10 +10691,10 @@
         <v>465</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -10724,10 +10716,10 @@
         <v>49</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -10752,7 +10744,7 @@
         <v>734</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -10774,10 +10766,10 @@
         <v>493</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -10799,10 +10791,10 @@
         <v>493</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -10824,10 +10816,10 @@
         <v>530</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -10849,10 +10841,10 @@
         <v>530</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -10874,10 +10866,10 @@
         <v>530</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -10892,7 +10884,7 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>20</v>
@@ -10901,10 +10893,10 @@
         <v>302</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="819">
   <si>
     <t>target</t>
   </si>
@@ -2363,7 +2363,82 @@
     <t xml:space="preserve">Enter anything to search </t>
   </si>
   <si>
-    <t>Invoice</t>
+    <t>Category tax for TestCategory created</t>
+  </si>
+  <si>
+    <t>Velidate the Activity Heading</t>
+  </si>
+  <si>
+    <t>${al.Activity}</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Validate Date and Time Field</t>
+  </si>
+  <si>
+    <t>${al.dateTime}</t>
+  </si>
+  <si>
+    <t>Date / Time</t>
+  </si>
+  <si>
+    <t>Validate User Field</t>
+  </si>
+  <si>
+    <t>${al.User}</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the rowcount </t>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}</t>
+  </si>
+  <si>
+    <t>Save counter values</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${al.Activity.Values}</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${al.dateTime.Values}</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${al.User.Values}</t>
   </si>
   <si>
     <t>Filter Functionality</t>
@@ -2432,76 +2507,10 @@
     <t>Submit Functionality in Filter</t>
   </si>
   <si>
-    <t>Velidate the Activity Heading</t>
-  </si>
-  <si>
-    <t>${al.Activity}</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Validate Date and Time Field</t>
-  </si>
-  <si>
-    <t>${al.dateTime}</t>
-  </si>
-  <si>
-    <t>Date / Time</t>
-  </si>
-  <si>
-    <t>Validate User Field</t>
-  </si>
-  <si>
-    <t>${al.User}</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save the rowcount </t>
-  </si>
-  <si>
-    <t>rowcount</t>
-  </si>
-  <si>
-    <t>${la.table.row.xpath}</t>
-  </si>
-  <si>
-    <t>Save counter values</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>${counter}</t>
-  </si>
-  <si>
-    <t>${rowcount}</t>
-  </si>
-  <si>
-    <t>${la.table.row.xpath}[${counter}]${al.Activity.Values}</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>${la.table.row.xpath}[${counter}]${al.dateTime.Values}</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>${la.table.row.xpath}[${counter}]${al.User.Values}</t>
+    <t>Increase the count</t>
   </si>
   <si>
     <t>${activity}</t>
@@ -2511,9 +2520,6 @@
   </si>
   <si>
     <t>${user}</t>
-  </si>
-  <si>
-    <t>Increase the count</t>
   </si>
 </sst>
 </file>
@@ -3345,10 +3351,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3367,6 +3369,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6640,13 +6646,13 @@
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>749</v>
       </c>
       <c r="F5" s="50" t="s">
@@ -9829,10 +9835,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O203"/>
+  <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10150,22 +10156,22 @@
       <c r="O11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="30" t="s">
         <v>767</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>768</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E12" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>769</v>
       </c>
-      <c r="F12" s="28"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -10185,12 +10191,14 @@
         <v>30</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>769</v>
-      </c>
-      <c r="F13" s="28"/>
+        <v>771</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>772</v>
+      </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -10204,18 +10212,20 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F14" s="28"/>
+        <v>774</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>775</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -10229,18 +10239,20 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F15" s="28"/>
+        <v>777</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>778</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -10254,18 +10266,20 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>776</v>
-      </c>
-      <c r="F16" s="28"/>
+        <v>779</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>781</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -10278,19 +10292,19 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>783</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -10302,23 +10316,19 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>780</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>782</v>
+      <c r="A18" s="19"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>785</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -10332,20 +10342,18 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
-      <c r="B19" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>784</v>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>786</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10359,20 +10367,18 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
-      <c r="B20" s="30" t="s">
-        <v>785</v>
-      </c>
+      <c r="B20" s="30"/>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>707</v>
+        <v>493</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>786</v>
+        <v>734</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -10386,20 +10392,18 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F21" s="28">
-        <v>5000</v>
+        <v>493</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>788</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>789</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -10412,22 +10416,20 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="19" t="s">
-        <v>788</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>769</v>
-      </c>
-      <c r="F22" s="28"/>
+        <v>493</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>790</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>791</v>
+      </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -10439,21 +10441,20 @@
       <c r="O22" s="22"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="19" t="s">
+        <v>792</v>
+      </c>
       <c r="B23" s="30" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -10468,20 +10469,18 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>784</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="F24" s="28"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -10495,20 +10494,18 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>786</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="F25" s="28"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -10522,20 +10519,18 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="30" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>776</v>
-      </c>
-      <c r="F26" s="28">
-        <v>3000</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F26" s="28"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -10549,20 +10544,18 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>791</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="F27" s="28"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -10576,20 +10569,18 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>794</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="F28" s="28"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -10601,9 +10592,11 @@
       <c r="O28" s="22"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="19"/>
+      <c r="A29" s="19" t="s">
+        <v>804</v>
+      </c>
       <c r="B29" s="30" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10612,10 +10605,10 @@
         <v>530</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -10630,19 +10623,19 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>483</v>
+        <v>707</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>800</v>
+        <v>797</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>809</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10657,19 +10650,19 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>802</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>803</v>
+        <v>810</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>811</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -10683,18 +10676,20 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>805</v>
+      <c r="B32" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="F32" s="28">
+        <v>5000</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -10707,20 +10702,22 @@
       <c r="O32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>806</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>807</v>
-      </c>
+      <c r="A33" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -10733,18 +10730,20 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="30" t="s">
+        <v>805</v>
+      </c>
       <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>734</v>
+        <v>806</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -10758,18 +10757,20 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E35" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="F35" s="36" t="s">
         <v>809</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>810</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -10783,18 +10784,20 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="32" t="s">
+      <c r="B36" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E36" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="F36" s="36" t="s">
         <v>811</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>812</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -10808,18 +10811,20 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="32" t="s">
+      <c r="B37" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>808</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>813</v>
+      <c r="D37" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="F37" s="28">
+        <v>3000</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -10833,18 +10838,20 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>810</v>
+      <c r="E38" s="27" t="s">
+        <v>768</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>814</v>
+        <v>769</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -10858,18 +10865,20 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>812</v>
+      <c r="E39" s="27" t="s">
+        <v>771</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>815</v>
+        <v>772</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -10884,19 +10893,19 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>802</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>803</v>
+        <v>773</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>775</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -10910,11 +10919,21 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
+      <c r="B41" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>778</v>
+      </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -10927,11 +10946,21 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
+      <c r="B42" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>786</v>
+      </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
@@ -10945,10 +10974,18 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
+      <c r="C43" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>783</v>
+      </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
@@ -10962,10 +10999,18 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
+      <c r="C44" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>785</v>
+      </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -10978,11 +11023,21 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
+      <c r="B45" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>786</v>
+      </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -10996,10 +11051,18 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
+      <c r="C46" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>787</v>
+      </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -11013,10 +11076,18 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
+      <c r="C47" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>788</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>789</v>
+      </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -11029,11 +11100,19 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>790</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>791</v>
+      </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -11046,11 +11125,19 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>787</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>816</v>
+      </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -11063,11 +11150,19 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>817</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -11080,11 +11175,19 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>791</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>818</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -11097,11 +11200,7 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
+      <c r="B52" s="30"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -11114,11 +11213,11 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -11131,11 +11230,11 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -11148,11 +11247,11 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="26"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -11165,11 +11264,11 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
@@ -11182,11 +11281,11 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="26"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -11199,11 +11298,11 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="26"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
@@ -11216,11 +11315,11 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="26"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
@@ -13679,6 +13778,210 @@
       <c r="N203" s="23"/>
       <c r="O203" s="22"/>
     </row>
+    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="48"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="23"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="23"/>
+      <c r="O204" s="22"/>
+    </row>
+    <row r="205" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="48"/>
+      <c r="K205" s="22"/>
+      <c r="L205" s="23"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="23"/>
+      <c r="O205" s="22"/>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="22"/>
+      <c r="L206" s="23"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="23"/>
+      <c r="O206" s="22"/>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="22"/>
+      <c r="L207" s="23"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="23"/>
+      <c r="O207" s="22"/>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="22"/>
+      <c r="L208" s="23"/>
+      <c r="M208" s="21"/>
+      <c r="N208" s="23"/>
+      <c r="O208" s="22"/>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="22"/>
+      <c r="L209" s="23"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="23"/>
+      <c r="O209" s="22"/>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A210" s="19"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="48"/>
+      <c r="K210" s="22"/>
+      <c r="L210" s="23"/>
+      <c r="M210" s="21"/>
+      <c r="N210" s="23"/>
+      <c r="O210" s="22"/>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A211" s="19"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="48"/>
+      <c r="K211" s="22"/>
+      <c r="L211" s="23"/>
+      <c r="M211" s="21"/>
+      <c r="N211" s="23"/>
+      <c r="O211" s="22"/>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="27"/>
+      <c r="J212" s="48"/>
+      <c r="K212" s="22"/>
+      <c r="L212" s="23"/>
+      <c r="M212" s="21"/>
+      <c r="N212" s="23"/>
+      <c r="O212" s="22"/>
+    </row>
+    <row r="213" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="48"/>
+      <c r="K213" s="22"/>
+      <c r="L213" s="23"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="23"/>
+      <c r="O213" s="22"/>
+    </row>
+    <row r="214" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="48"/>
+      <c r="K214" s="22"/>
+      <c r="L214" s="23"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="23"/>
+      <c r="O214" s="22"/>
+    </row>
+    <row r="215" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A215" s="19"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="48"/>
+      <c r="K215" s="22"/>
+      <c r="L215" s="23"/>
+      <c r="M215" s="21"/>
+      <c r="N215" s="23"/>
+      <c r="O215" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -13686,18 +13989,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N104:N203">
+  <conditionalFormatting sqref="N116:N215">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N104,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N116,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N104,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N116,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N104,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N116,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N103">
+  <conditionalFormatting sqref="N1 N3:N115">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13709,10 +14012,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C13 C17 C18 C22 C23 C27 C30 C31 C34 C35 C36 C37 C38 C39 C40 C48 C7:C8 C9:C10 C14:C16 C19:C21 C24:C26 C28:C29 C32:C33 C41:C47 C49:C203">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C15 C16 C19 C20 C21 C22 C23 C24 C28 C29 C33 C34 C38 C41 C42 C45 C46 C47 C48 C49 C50 C51 C60 C7:C8 C9:C10 C13:C14 C17:C18 C25:C27 C30:C32 C35:C37 C39:C40 C43:C44 C53:C59 C61:C215">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D13 D17 D18 D22 D23 D27 D30 D31 D34 D35 D36 D37 D38 D39 D40 D48 D7:D8 D9:D10 D14:D16 D19:D21 D24:D26 D28:D29 D32:D33 D41:D47 D49:D203">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D15 D16 D19 D20 D21 D22 D23 D24 D28 D29 D33 D34 D38 D41 D42 D45 D46 D47 D48 D49 D50 D51 D60 D7:D8 D9:D10 D13:D14 D17:D18 D25:D27 D30:D32 D35:D37 D39:D40 D43:D44 D53:D59 D61:D215">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="826">
   <si>
     <t>target</t>
   </si>
@@ -2360,12 +2360,102 @@
     <t>${searchBox.Logs}</t>
   </si>
   <si>
+    <t>Search Functionality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter anything to search </t>
   </si>
   <si>
     <t>Category tax for TestCategory created</t>
   </si>
   <si>
+    <t>Filter Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate the filter option </t>
+  </si>
+  <si>
+    <t>${filter.Logs}</t>
+  </si>
+  <si>
+    <t>Click on Filter option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate submit button </t>
+  </si>
+  <si>
+    <t>${Filter.Submit}</t>
+  </si>
+  <si>
+    <t>validate clear button</t>
+  </si>
+  <si>
+    <t>${Fiter.Clear}</t>
+  </si>
+  <si>
+    <t>Clear Functionality in Filter</t>
+  </si>
+  <si>
+    <t>Validate Date range Heading</t>
+  </si>
+  <si>
+    <t>${Filter.DateRange}</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>Enter From Date in date field</t>
+  </si>
+  <si>
+    <t>${from.Date}</t>
+  </si>
+  <si>
+    <t>${From.DateValues}</t>
+  </si>
+  <si>
+    <t>Enter To date in date field</t>
+  </si>
+  <si>
+    <t>${to.Date}</t>
+  </si>
+  <si>
+    <t>${To.DateValues}</t>
+  </si>
+  <si>
+    <t>click on clear button</t>
+  </si>
+  <si>
+    <t>Checking Non Financial year</t>
+  </si>
+  <si>
+    <t>${NonFin.From.Date}</t>
+  </si>
+  <si>
+    <t>Verify the Message</t>
+  </si>
+  <si>
+    <t>${DataInvalid.Fromdate}</t>
+  </si>
+  <si>
+    <t>${NonFin.To.Date}</t>
+  </si>
+  <si>
+    <t>Verify the Invalid message</t>
+  </si>
+  <si>
+    <t>${DateInvalid.Todate}</t>
+  </si>
+  <si>
+    <t>Submit Functionality in Filter</t>
+  </si>
+  <si>
+    <t>click on submit button</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
     <t>Velidate the Activity Heading</t>
   </si>
   <si>
@@ -2411,7 +2501,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>5</t>
+    <t>8</t>
   </si>
   <si>
     <t>-1</t>
@@ -2423,6 +2513,9 @@
     <t>${rowcount}</t>
   </si>
   <si>
+    <t>Increase the count</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -2439,78 +2532,6 @@
   </si>
   <si>
     <t>${la.table.row.xpath}[${counter}]${al.User.Values}</t>
-  </si>
-  <si>
-    <t>Filter Functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate the filter option </t>
-  </si>
-  <si>
-    <t>${filter.Logs}</t>
-  </si>
-  <si>
-    <t>Click on Filter option</t>
-  </si>
-  <si>
-    <t>validate From date in Date Range</t>
-  </si>
-  <si>
-    <t>${from.Date}</t>
-  </si>
-  <si>
-    <t>validate To date in Date Range</t>
-  </si>
-  <si>
-    <t>${to.Date}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate submit button </t>
-  </si>
-  <si>
-    <t>${Filter.Submit}</t>
-  </si>
-  <si>
-    <t>validate clear button</t>
-  </si>
-  <si>
-    <t>${Fiter.Clear}</t>
-  </si>
-  <si>
-    <t>Clear Functionality in Filter</t>
-  </si>
-  <si>
-    <t>Validate Date range Heading</t>
-  </si>
-  <si>
-    <t>${Filter.DateRange}</t>
-  </si>
-  <si>
-    <t>Date Range</t>
-  </si>
-  <si>
-    <t>Enter From Date in date field</t>
-  </si>
-  <si>
-    <t>${From.DateValues}</t>
-  </si>
-  <si>
-    <t>Enter To date in date field</t>
-  </si>
-  <si>
-    <t>${To.DateValues}</t>
-  </si>
-  <si>
-    <t>click on submit button</t>
-  </si>
-  <si>
-    <t>Submit Functionality in Filter</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Increase the count</t>
   </si>
   <si>
     <t>${activity}</t>
@@ -3351,6 +3372,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3369,10 +3394,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6646,13 +6667,13 @@
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>749</v>
       </c>
       <c r="F5" s="50" t="s">
@@ -9835,10 +9856,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O215"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9851,10 +9872,10 @@
     <col min="6" max="6" width="75.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="7" customWidth="1"/>
     <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12" style="10" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="46.8833333333333" style="8" customWidth="1"/>
+    <col min="11" max="11" width="46.8833333333333" style="9" customWidth="1"/>
+    <col min="12" max="12" width="31.1083333333333" style="10" customWidth="1"/>
+    <col min="13" max="13" width="31.1083333333333" style="11" customWidth="1"/>
     <col min="14" max="14" width="19" style="10" customWidth="1"/>
     <col min="15" max="15" width="49.8333333333333" style="9" customWidth="1"/>
     <col min="16" max="16384" width="10.8333333333333" style="1"/>
@@ -10129,9 +10150,11 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="19" t="s">
+        <v>765</v>
+      </c>
       <c r="B11" s="30" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
@@ -10143,7 +10166,7 @@
         <v>764</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10156,21 +10179,20 @@
       <c r="O11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="19" t="s">
+        <v>768</v>
+      </c>
       <c r="B12" s="30" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10185,20 +10207,18 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>772</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F13" s="28"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -10212,20 +10232,18 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>775</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="F14" s="28"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -10239,20 +10257,18 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>483</v>
+        <v>253</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>777</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>778</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="F15" s="28"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -10264,21 +10280,23 @@
       <c r="O15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="19"/>
+      <c r="A16" s="19" t="s">
+        <v>776</v>
+      </c>
       <c r="B16" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>779</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>781</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10292,18 +10310,20 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="B17" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>783</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -10317,17 +10337,19 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="B18" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="31" t="s">
         <v>785</v>
       </c>
       <c r="G18" s="27"/>
@@ -10342,18 +10364,20 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>786</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="F19" s="28">
+        <v>5000</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10366,20 +10390,22 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>771</v>
+      </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>493</v>
+        <v>363</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>787</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F20" s="28"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -10392,18 +10418,20 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E21" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>788</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>789</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -10417,19 +10445,19 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E22" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>790</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>791</v>
-      </c>
+      <c r="F22" s="31"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -10441,20 +10469,21 @@
       <c r="O22" s="22"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="19" t="s">
-        <v>792</v>
-      </c>
+      <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>794</v>
+        <v>784</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>791</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -10469,16 +10498,16 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="27"/>
@@ -10494,18 +10523,20 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="F25" s="28"/>
+        <v>775</v>
+      </c>
+      <c r="F25" s="28">
+        <v>5000</v>
+      </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -10517,18 +10548,20 @@
       <c r="O25" s="22"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="19"/>
+      <c r="A26" s="19" t="s">
+        <v>794</v>
+      </c>
       <c r="B26" s="30" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
@@ -10544,18 +10577,20 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>801</v>
-      </c>
-      <c r="F27" s="28"/>
+        <v>781</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>782</v>
+      </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -10569,18 +10604,20 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="F28" s="28"/>
+        <v>784</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>785</v>
+      </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -10592,23 +10629,21 @@
       <c r="O28" s="22"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="19" t="s">
-        <v>804</v>
-      </c>
+      <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>806</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>807</v>
+        <v>773</v>
+      </c>
+      <c r="F29" s="28">
+        <v>3000</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -10623,7 +10658,7 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10632,10 +10667,10 @@
         <v>707</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>809</v>
+        <v>764</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>796</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10650,19 +10685,19 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="E31" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>799</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>811</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -10677,19 +10712,19 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>576</v>
+        <v>530</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="F32" s="28">
-        <v>5000</v>
+        <v>801</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>802</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -10702,22 +10737,22 @@
       <c r="O32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19" t="s">
-        <v>813</v>
-      </c>
+      <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="F33" s="28"/>
+        <v>804</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>805</v>
+      </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -10731,19 +10766,19 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -10758,19 +10793,19 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="F35" s="36" t="s">
         <v>809</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>810</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>811</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -10784,20 +10819,18 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>811</v>
+      <c r="B36" s="30"/>
+      <c r="C36" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>812</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>813</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -10811,20 +10844,18 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>801</v>
-      </c>
-      <c r="F37" s="28">
-        <v>3000</v>
+      <c r="B37" s="30"/>
+      <c r="C37" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>815</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -10839,19 +10870,19 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>769</v>
+        <v>816</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>810</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>817</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -10865,20 +10896,18 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="30" t="s">
-        <v>770</v>
-      </c>
+      <c r="B39" s="30"/>
       <c r="C39" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>771</v>
+        <v>734</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>772</v>
+        <v>818</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -10892,20 +10921,18 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30" t="s">
-        <v>773</v>
-      </c>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>774</v>
+        <v>493</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>819</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -10919,20 +10946,18 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>777</v>
+        <v>493</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>821</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>778</v>
+        <v>822</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -10946,20 +10971,18 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>786</v>
+      <c r="B42" s="30"/>
+      <c r="C42" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>823</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -10974,17 +10997,17 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>783</v>
+      <c r="C43" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>824</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -10999,17 +11022,17 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30"/>
-      <c r="C44" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>784</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>785</v>
+      <c r="C44" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -11023,21 +11046,11 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>786</v>
-      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -11050,19 +11063,11 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>787</v>
-      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -11075,19 +11080,11 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>788</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>789</v>
-      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -11100,19 +11097,11 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>790</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>791</v>
-      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -11125,19 +11114,11 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>787</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>816</v>
-      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -11150,19 +11131,11 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>817</v>
-      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -11175,19 +11148,11 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>818</v>
-      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -11200,7 +11165,11 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="30"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -11213,11 +11182,11 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="30"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -11230,11 +11199,11 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -11247,11 +11216,11 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="30"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="26"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -11264,11 +11233,11 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="30"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
@@ -11281,11 +11250,11 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="30"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="26"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -11298,11 +11267,11 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="30"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="26"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
@@ -11315,11 +11284,11 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="30"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="26"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
@@ -13472,516 +13441,6 @@
       <c r="N185" s="23"/>
       <c r="O185" s="22"/>
     </row>
-    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="48"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="23"/>
-      <c r="O186" s="22"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="48"/>
-      <c r="K187" s="22"/>
-      <c r="L187" s="23"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="23"/>
-      <c r="O187" s="22"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="48"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="23"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="22"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="48"/>
-      <c r="K189" s="22"/>
-      <c r="L189" s="23"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="22"/>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="48"/>
-      <c r="K190" s="22"/>
-      <c r="L190" s="23"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="22"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="48"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="23"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="22"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="48"/>
-      <c r="K192" s="22"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="48"/>
-      <c r="K193" s="22"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="48"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="22"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="48"/>
-      <c r="K195" s="22"/>
-      <c r="L195" s="23"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="23"/>
-      <c r="O195" s="22"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="48"/>
-      <c r="K196" s="22"/>
-      <c r="L196" s="23"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="23"/>
-      <c r="O196" s="22"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="48"/>
-      <c r="K197" s="22"/>
-      <c r="L197" s="23"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="23"/>
-      <c r="O197" s="22"/>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="48"/>
-      <c r="K198" s="22"/>
-      <c r="L198" s="23"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="23"/>
-      <c r="O198" s="22"/>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="48"/>
-      <c r="K199" s="22"/>
-      <c r="L199" s="23"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="23"/>
-      <c r="O199" s="22"/>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="48"/>
-      <c r="K200" s="22"/>
-      <c r="L200" s="23"/>
-      <c r="M200" s="21"/>
-      <c r="N200" s="23"/>
-      <c r="O200" s="22"/>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A201" s="19"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="48"/>
-      <c r="K201" s="22"/>
-      <c r="L201" s="23"/>
-      <c r="M201" s="21"/>
-      <c r="N201" s="23"/>
-      <c r="O201" s="22"/>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A202" s="19"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="48"/>
-      <c r="K202" s="22"/>
-      <c r="L202" s="23"/>
-      <c r="M202" s="21"/>
-      <c r="N202" s="23"/>
-      <c r="O202" s="22"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A203" s="19"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27"/>
-      <c r="J203" s="48"/>
-      <c r="K203" s="22"/>
-      <c r="L203" s="23"/>
-      <c r="M203" s="21"/>
-      <c r="N203" s="23"/>
-      <c r="O203" s="22"/>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A204" s="19"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="48"/>
-      <c r="K204" s="22"/>
-      <c r="L204" s="23"/>
-      <c r="M204" s="21"/>
-      <c r="N204" s="23"/>
-      <c r="O204" s="22"/>
-    </row>
-    <row r="205" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A205" s="19"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-      <c r="J205" s="48"/>
-      <c r="K205" s="22"/>
-      <c r="L205" s="23"/>
-      <c r="M205" s="21"/>
-      <c r="N205" s="23"/>
-      <c r="O205" s="22"/>
-    </row>
-    <row r="206" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A206" s="19"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
-      <c r="F206" s="27"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="27"/>
-      <c r="J206" s="48"/>
-      <c r="K206" s="22"/>
-      <c r="L206" s="23"/>
-      <c r="M206" s="21"/>
-      <c r="N206" s="23"/>
-      <c r="O206" s="22"/>
-    </row>
-    <row r="207" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A207" s="19"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="27"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="27"/>
-      <c r="J207" s="48"/>
-      <c r="K207" s="22"/>
-      <c r="L207" s="23"/>
-      <c r="M207" s="21"/>
-      <c r="N207" s="23"/>
-      <c r="O207" s="22"/>
-    </row>
-    <row r="208" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A208" s="19"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="27"/>
-      <c r="J208" s="48"/>
-      <c r="K208" s="22"/>
-      <c r="L208" s="23"/>
-      <c r="M208" s="21"/>
-      <c r="N208" s="23"/>
-      <c r="O208" s="22"/>
-    </row>
-    <row r="209" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A209" s="19"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="27"/>
-      <c r="E209" s="27"/>
-      <c r="F209" s="27"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="27"/>
-      <c r="J209" s="48"/>
-      <c r="K209" s="22"/>
-      <c r="L209" s="23"/>
-      <c r="M209" s="21"/>
-      <c r="N209" s="23"/>
-      <c r="O209" s="22"/>
-    </row>
-    <row r="210" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A210" s="19"/>
-      <c r="B210" s="20"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
-      <c r="I210" s="27"/>
-      <c r="J210" s="48"/>
-      <c r="K210" s="22"/>
-      <c r="L210" s="23"/>
-      <c r="M210" s="21"/>
-      <c r="N210" s="23"/>
-      <c r="O210" s="22"/>
-    </row>
-    <row r="211" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A211" s="19"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="27"/>
-      <c r="G211" s="27"/>
-      <c r="H211" s="27"/>
-      <c r="I211" s="27"/>
-      <c r="J211" s="48"/>
-      <c r="K211" s="22"/>
-      <c r="L211" s="23"/>
-      <c r="M211" s="21"/>
-      <c r="N211" s="23"/>
-      <c r="O211" s="22"/>
-    </row>
-    <row r="212" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A212" s="19"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
-      <c r="F212" s="27"/>
-      <c r="G212" s="27"/>
-      <c r="H212" s="27"/>
-      <c r="I212" s="27"/>
-      <c r="J212" s="48"/>
-      <c r="K212" s="22"/>
-      <c r="L212" s="23"/>
-      <c r="M212" s="21"/>
-      <c r="N212" s="23"/>
-      <c r="O212" s="22"/>
-    </row>
-    <row r="213" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A213" s="19"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="27"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="48"/>
-      <c r="K213" s="22"/>
-      <c r="L213" s="23"/>
-      <c r="M213" s="21"/>
-      <c r="N213" s="23"/>
-      <c r="O213" s="22"/>
-    </row>
-    <row r="214" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A214" s="19"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="27"/>
-      <c r="E214" s="27"/>
-      <c r="F214" s="27"/>
-      <c r="G214" s="27"/>
-      <c r="H214" s="27"/>
-      <c r="I214" s="27"/>
-      <c r="J214" s="48"/>
-      <c r="K214" s="22"/>
-      <c r="L214" s="23"/>
-      <c r="M214" s="21"/>
-      <c r="N214" s="23"/>
-      <c r="O214" s="22"/>
-    </row>
-    <row r="215" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A215" s="19"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="27"/>
-      <c r="E215" s="27"/>
-      <c r="F215" s="27"/>
-      <c r="G215" s="27"/>
-      <c r="H215" s="27"/>
-      <c r="I215" s="27"/>
-      <c r="J215" s="48"/>
-      <c r="K215" s="22"/>
-      <c r="L215" s="23"/>
-      <c r="M215" s="21"/>
-      <c r="N215" s="23"/>
-      <c r="O215" s="22"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -13989,18 +13448,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N116:N215">
+  <conditionalFormatting sqref="N86:N185">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N116,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N116,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N116,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N115">
+  <conditionalFormatting sqref="N1 N3:N85">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -14012,10 +13471,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C15 C16 C19 C20 C21 C22 C23 C24 C28 C29 C33 C34 C38 C41 C42 C45 C46 C47 C48 C49 C50 C51 C60 C7:C8 C9:C10 C13:C14 C17:C18 C25:C27 C30:C32 C35:C37 C39:C40 C43:C44 C53:C59 C61:C215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C13 C14 C15 C16 C20 C21 C22 C23 C24 C25 C26 C30 C31 C34 C35 C38 C39 C40 C41 C42 C43 C44 C7:C8 C9:C10 C17:C19 C27:C29 C32:C33 C36:C37 C45:C185">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D15 D16 D19 D20 D21 D22 D23 D24 D28 D29 D33 D34 D38 D41 D42 D45 D46 D47 D48 D49 D50 D51 D60 D7:D8 D9:D10 D13:D14 D17:D18 D25:D27 D30:D32 D35:D37 D39:D40 D43:D44 D53:D59 D61:D215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D13 D14 D15 D16 D20 D21 D22 D23 D24 D25 D26 D30 D31 D34 D35 D38 D39 D40 D41 D42 D43 D44 D7:D8 D9:D10 D17:D19 D27:D29 D32:D33 D36:D37 D45:D185">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="825">
   <si>
     <t>target</t>
   </si>
@@ -2333,106 +2333,163 @@
     <t>${org.hamburger}</t>
   </si>
   <si>
+    <t>3000</t>
+  </si>
+  <si>
     <t>click on Administration</t>
   </si>
   <si>
     <t>${click.administration}</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
     <t>click on Audit Logs in Administration</t>
   </si>
   <si>
     <t>${click.AuditLogs}</t>
   </si>
   <si>
+    <t>verify Organisation name</t>
+  </si>
+  <si>
+    <t>${Organisation.Name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the organisation Financial year </t>
+  </si>
+  <si>
+    <t>${org.Financial.Year}</t>
+  </si>
+  <si>
+    <t>${Values.Financial.Year}</t>
+  </si>
+  <si>
     <t>Verify the AuditLogs listing page Heading</t>
   </si>
   <si>
     <t>${heading.auditLogs}</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate the Search box </t>
+    <t>Search Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter anything to search </t>
   </si>
   <si>
     <t>${searchBox.Logs}</t>
   </si>
   <si>
-    <t>Search Functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter anything to search </t>
-  </si>
-  <si>
     <t>Category tax for TestCategory created</t>
   </si>
   <si>
-    <t>Filter Functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate the filter option </t>
+    <t>Saving the row count</t>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}</t>
+  </si>
+  <si>
+    <t>Assign the rew count as 0</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>Increase the count</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Verifying the activity names after Searching</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${al.Activity.Values}</t>
+  </si>
+  <si>
+    <t>Open and Close Filter Menu</t>
+  </si>
+  <si>
+    <t>Click on filter Icon to open the filter section</t>
   </si>
   <si>
     <t>${filter.Logs}</t>
   </si>
   <si>
+    <t>Validate Date range Heading</t>
+  </si>
+  <si>
+    <t>${Filter.DateRange}</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate submit button </t>
+  </si>
+  <si>
+    <t>${Filter.Submit}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again Click on Filter Icon to close the Filter menu </t>
+  </si>
+  <si>
+    <t>Clear Functionality in Filter</t>
+  </si>
+  <si>
+    <t>Click on the Filter Icon</t>
+  </si>
+  <si>
+    <t>Enter From Date in date field</t>
+  </si>
+  <si>
+    <t>${from.Date}</t>
+  </si>
+  <si>
+    <t>${From.DateValues}</t>
+  </si>
+  <si>
+    <t>Enter To date in date field</t>
+  </si>
+  <si>
+    <t>${to.Date}</t>
+  </si>
+  <si>
+    <t>${To.DateValues}</t>
+  </si>
+  <si>
+    <t>click on clear button</t>
+  </si>
+  <si>
+    <t>${Fiter.Clear}</t>
+  </si>
+  <si>
+    <t>Checking Non Financial year</t>
+  </si>
+  <si>
     <t>Click on Filter option</t>
   </si>
   <si>
-    <t xml:space="preserve">validate submit button </t>
-  </si>
-  <si>
-    <t>${Filter.Submit}</t>
-  </si>
-  <si>
-    <t>validate clear button</t>
-  </si>
-  <si>
-    <t>${Fiter.Clear}</t>
-  </si>
-  <si>
-    <t>Clear Functionality in Filter</t>
-  </si>
-  <si>
-    <t>Validate Date range Heading</t>
-  </si>
-  <si>
-    <t>${Filter.DateRange}</t>
-  </si>
-  <si>
-    <t>Date Range</t>
-  </si>
-  <si>
-    <t>Enter From Date in date field</t>
-  </si>
-  <si>
-    <t>${from.Date}</t>
-  </si>
-  <si>
-    <t>${From.DateValues}</t>
-  </si>
-  <si>
-    <t>Enter To date in date field</t>
-  </si>
-  <si>
-    <t>${to.Date}</t>
-  </si>
-  <si>
-    <t>${To.DateValues}</t>
-  </si>
-  <si>
-    <t>click on clear button</t>
-  </si>
-  <si>
-    <t>Checking Non Financial year</t>
-  </si>
-  <si>
     <t>${NonFin.From.Date}</t>
   </si>
   <si>
-    <t>Verify the Message</t>
+    <t>Verify the Invalid Message</t>
   </si>
   <si>
     <t>${DataInvalid.Fromdate}</t>
@@ -2453,94 +2510,34 @@
     <t>click on submit button</t>
   </si>
   <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Velidate the Activity Heading</t>
-  </si>
-  <si>
-    <t>${al.Activity}</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Validate Date and Time Field</t>
+    <t>Date Verification In Adit Logs Listing Table</t>
+  </si>
+  <si>
+    <t>Click on Date filed to get the dates in assending order</t>
   </si>
   <si>
     <t>${al.dateTime}</t>
   </si>
   <si>
-    <t>Date / Time</t>
-  </si>
-  <si>
-    <t>Validate User Field</t>
-  </si>
-  <si>
-    <t>${al.User}</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
     <t xml:space="preserve">Save the rowcount </t>
   </si>
   <si>
-    <t>rowcount</t>
-  </si>
-  <si>
-    <t>${la.table.row.xpath}</t>
-  </si>
-  <si>
     <t>Save counter values</t>
   </si>
   <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>${counter}</t>
-  </si>
-  <si>
-    <t>${rowcount}</t>
-  </si>
-  <si>
-    <t>Increase the count</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>${la.table.row.xpath}[${counter}]${al.Activity.Values}</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Verifying the activity names in Listing table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying the dates and time in Listing table </t>
   </si>
   <si>
     <t>dateTime</t>
   </si>
   <si>
     <t>${la.table.row.xpath}[${counter}]${al.dateTime.Values}</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>${la.table.row.xpath}[${counter}]${al.User.Values}</t>
-  </si>
-  <si>
-    <t>${activity}</t>
-  </si>
-  <si>
-    <t>${dateTime}</t>
-  </si>
-  <si>
-    <t>${user}</t>
   </si>
 </sst>
 </file>
@@ -3372,10 +3369,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3390,6 +3383,10 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6667,13 +6664,13 @@
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>749</v>
       </c>
       <c r="F5" s="50" t="s">
@@ -9858,8 +9855,8 @@
   <sheetPr/>
   <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10031,12 +10028,14 @@
         <v>30</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>755</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27" t="s">
+        <v>756</v>
+      </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -10050,7 +10049,7 @@
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
       <c r="B7" s="30" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>30</v>
@@ -10059,10 +10058,10 @@
         <v>576</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -10133,12 +10132,14 @@
         <v>30</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28" t="s">
+        <v>765</v>
+      </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -10150,9 +10151,7 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="19" t="s">
-        <v>765</v>
-      </c>
+      <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
         <v>766</v>
       </c>
@@ -10160,14 +10159,12 @@
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="F11" s="28" t="s">
         <v>767</v>
       </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -10189,10 +10186,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>770</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>771</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10207,18 +10207,20 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="F13" s="28"/>
+        <v>773</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>774</v>
+      </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -10232,18 +10234,20 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>772</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F14" s="28"/>
+        <v>775</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>777</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -10256,19 +10260,19 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
-      <c r="B15" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="F15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>779</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -10280,23 +10284,19 @@
       <c r="O15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>779</v>
+      <c r="A16" s="19"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10311,19 +10311,19 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>780</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="F17" s="31" t="s">
         <v>782</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>783</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -10338,18 +10338,18 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>707</v>
+        <v>493</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="F18" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>785</v>
       </c>
       <c r="G18" s="27"/>
@@ -10363,21 +10363,20 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="19" t="s">
+        <v>786</v>
+      </c>
       <c r="B19" s="30" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>576</v>
+        <v>363</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="F19" s="28">
-        <v>5000</v>
+        <v>788</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10390,22 +10389,22 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="19" t="s">
-        <v>787</v>
-      </c>
+      <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="F20" s="28"/>
+        <v>790</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>791</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -10419,19 +10418,16 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -10446,18 +10442,17 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
       <c r="B22" s="30" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="F22" s="31"/>
+        <v>788</v>
+      </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -10469,21 +10464,20 @@
       <c r="O22" s="22"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="19" t="s">
+        <v>795</v>
+      </c>
       <c r="B23" s="30" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -10498,18 +10492,20 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="F24" s="28"/>
+        <v>798</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>799</v>
+      </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -10523,19 +10519,19 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="F25" s="28">
-        <v>5000</v>
+        <v>801</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>802</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10547,23 +10543,22 @@
       <c r="N25" s="23"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="19" t="s">
-        <v>794</v>
-      </c>
+    <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B26" s="30" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="F26" s="28"/>
+        <v>804</v>
+      </c>
+      <c r="F26" s="28">
+        <v>5000</v>
+      </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -10575,22 +10570,22 @@
       <c r="O26" s="22"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="19"/>
+      <c r="A27" s="19" t="s">
+        <v>805</v>
+      </c>
       <c r="B27" s="30" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>782</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="F27" s="28"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -10604,7 +10599,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
@@ -10613,10 +10608,10 @@
         <v>707</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>785</v>
+        <v>798</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>807</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -10631,20 +10626,18 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F29" s="28">
-        <v>3000</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="F29" s="35"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -10658,7 +10651,7 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10667,10 +10660,10 @@
         <v>707</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>796</v>
+        <v>801</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>810</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10685,20 +10678,18 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>799</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="F31" s="28"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -10712,19 +10703,19 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>801</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>802</v>
+        <v>804</v>
+      </c>
+      <c r="F32" s="28">
+        <v>5000</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -10737,22 +10728,22 @@
       <c r="O32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19"/>
+      <c r="A33" s="19" t="s">
+        <v>813</v>
+      </c>
       <c r="B33" s="30" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>804</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>805</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -10766,19 +10757,19 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>483</v>
+        <v>707</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>807</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>808</v>
+        <v>798</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>799</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -10793,19 +10784,19 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>810</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>811</v>
+        <v>800</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>802</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -10819,18 +10810,20 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>812</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>813</v>
+      <c r="B36" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="F36" s="28">
+        <v>3000</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -10842,21 +10835,23 @@
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A37" s="19"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>814</v>
-      </c>
-      <c r="F37" s="27" t="s">
+    <row r="37" s="1" customFormat="1" ht="42" customHeight="1" spans="1:15">
+      <c r="A37" s="19" t="s">
         <v>815</v>
       </c>
+      <c r="B37" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="F37" s="28"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -10870,19 +10865,19 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>810</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>817</v>
+        <v>818</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>774</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -10896,18 +10891,20 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>818</v>
+      <c r="B39" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>777</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -10922,17 +10919,17 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="30"/>
-      <c r="C40" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>819</v>
-      </c>
-      <c r="F40" s="28" t="s">
+      <c r="C40" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>820</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>779</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -10947,17 +10944,17 @@
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
       <c r="B41" s="30"/>
-      <c r="C41" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>821</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>822</v>
+      <c r="C41" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -10971,18 +10968,20 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>823</v>
+      <c r="B42" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>783</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -10996,18 +10995,20 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>820</v>
+      <c r="D43" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>734</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>824</v>
+        <v>785</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -11021,18 +11022,20 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>822</v>
+      <c r="D44" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>823</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -13471,10 +13474,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C13 C14 C15 C16 C20 C21 C22 C23 C24 C25 C26 C30 C31 C34 C35 C38 C39 C40 C41 C42 C43 C44 C7:C8 C9:C10 C17:C19 C27:C29 C32:C33 C36:C37 C45:C185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C37 C38 C39 C42 C43 C44 C7:C8 C15:C16 C24:C26 C34:C36 C40:C41 C45:C185">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D13 D14 D15 D16 D20 D21 D22 D23 D24 D25 D26 D30 D31 D34 D35 D38 D39 D40 D41 D42 D43 D44 D7:D8 D9:D10 D17:D19 D27:D29 D32:D33 D36:D37 D45:D185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D27 D28 D29 D30 D31 D32 D33 D37 D38 D39 D42 D43 D44 D7:D8 D15:D16 D25:D26 D34:D36 D40:D41 D45:D185">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="831">
   <si>
     <t>target</t>
   </si>
@@ -2378,10 +2378,7 @@
     <t>${searchBox.Logs}</t>
   </si>
   <si>
-    <t>Category tax for TestCategory created</t>
-  </si>
-  <si>
-    <t>Saving the row count</t>
+    <t>${Search.Values}</t>
   </si>
   <si>
     <t>rowcount</t>
@@ -2399,7 +2396,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>-1</t>
@@ -2417,10 +2414,16 @@
     <t>1</t>
   </si>
   <si>
+    <t>Saving the activity names</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${al.Activity.Values}</t>
+  </si>
+  <si>
     <t>Verifying the activity names after Searching</t>
   </si>
   <si>
-    <t>${la.table.row.xpath}[${counter}]${al.Activity.Values}</t>
+    <t>${activity}</t>
   </si>
   <si>
     <t>Open and Close Filter Menu</t>
@@ -2432,76 +2435,91 @@
     <t>${filter.Logs}</t>
   </si>
   <si>
-    <t>Validate Date range Heading</t>
-  </si>
-  <si>
-    <t>${Filter.DateRange}</t>
-  </si>
-  <si>
-    <t>Date Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate submit button </t>
+    <t>Verify the Filter Pop up table</t>
+  </si>
+  <si>
+    <t>${Filter.PopUp}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click again on Filter Icon to close the Filter menu </t>
+  </si>
+  <si>
+    <t>Verify the Pop up shouldn't present after closing the Filter Pop up menu</t>
+  </si>
+  <si>
+    <t>Clear Functionality in Filter</t>
+  </si>
+  <si>
+    <t>Click on the Filter Icon</t>
+  </si>
+  <si>
+    <t>Enter From Date in date field</t>
+  </si>
+  <si>
+    <t>${from.Date}</t>
+  </si>
+  <si>
+    <t>${From.DateValues}</t>
+  </si>
+  <si>
+    <t>Enter To date in date field</t>
+  </si>
+  <si>
+    <t>${to.Date}</t>
+  </si>
+  <si>
+    <t>${To.DateValues}</t>
+  </si>
+  <si>
+    <t>click on clear button</t>
+  </si>
+  <si>
+    <t>${Fiter.Clear}</t>
+  </si>
+  <si>
+    <t>Again click on filter to see the Entered date</t>
+  </si>
+  <si>
+    <t>Verify already Entered From date</t>
+  </si>
+  <si>
+    <t>Verify already Entered To date</t>
+  </si>
+  <si>
+    <t>Click on Filter option</t>
+  </si>
+  <si>
+    <t>Checking Non Financial year</t>
+  </si>
+  <si>
+    <t>${NonFin.From.Date}</t>
+  </si>
+  <si>
+    <t>Verify the Invalid Message</t>
+  </si>
+  <si>
+    <t>${DataInvalid.Fromdate}</t>
+  </si>
+  <si>
+    <t>${NonFin.To.Date}</t>
+  </si>
+  <si>
+    <t>Verify the Invalid message</t>
+  </si>
+  <si>
+    <t>${DateInvalid.Todate}</t>
+  </si>
+  <si>
+    <t>click on submit button to check the result</t>
   </si>
   <si>
     <t>${Filter.Submit}</t>
   </si>
   <si>
-    <t xml:space="preserve">Again Click on Filter Icon to close the Filter menu </t>
-  </si>
-  <si>
-    <t>Clear Functionality in Filter</t>
-  </si>
-  <si>
-    <t>Click on the Filter Icon</t>
-  </si>
-  <si>
-    <t>Enter From Date in date field</t>
-  </si>
-  <si>
-    <t>${from.Date}</t>
-  </si>
-  <si>
-    <t>${From.DateValues}</t>
-  </si>
-  <si>
-    <t>Enter To date in date field</t>
-  </si>
-  <si>
-    <t>${to.Date}</t>
-  </si>
-  <si>
-    <t>${To.DateValues}</t>
-  </si>
-  <si>
-    <t>click on clear button</t>
-  </si>
-  <si>
-    <t>${Fiter.Clear}</t>
-  </si>
-  <si>
-    <t>Checking Non Financial year</t>
-  </si>
-  <si>
-    <t>Click on Filter option</t>
-  </si>
-  <si>
-    <t>${NonFin.From.Date}</t>
-  </si>
-  <si>
-    <t>Verify the Invalid Message</t>
-  </si>
-  <si>
-    <t>${DataInvalid.Fromdate}</t>
-  </si>
-  <si>
-    <t>${NonFin.To.Date}</t>
-  </si>
-  <si>
-    <t>Verify the Invalid message</t>
-  </si>
-  <si>
-    <t>${DateInvalid.Todate}</t>
+    <t>verify the result after selecting the filter</t>
+  </si>
+  <si>
+    <t>${Invalid.result}</t>
   </si>
   <si>
     <t>Submit Functionality in Filter</t>
@@ -2510,7 +2528,7 @@
     <t>click on submit button</t>
   </si>
   <si>
-    <t>Date Verification In Adit Logs Listing Table</t>
+    <t>Verify date after filtering the date range</t>
   </si>
   <si>
     <t>Click on Date filed to get the dates in assending order</t>
@@ -2519,25 +2537,25 @@
     <t>${al.dateTime}</t>
   </si>
   <si>
-    <t xml:space="preserve">Save the rowcount </t>
-  </si>
-  <si>
-    <t>Save counter values</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Verifying the activity names in Listing table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifying the dates and time in Listing table </t>
-  </si>
-  <si>
-    <t>dateTime</t>
+    <t>save the row count</t>
+  </si>
+  <si>
+    <t>Set counter as 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the Date values </t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>${la.table.row.xpath}[${counter}]${al.dateTime.Values}</t>
+  </si>
+  <si>
+    <t>Verifying the Date and times after submitting</t>
+  </si>
+  <si>
+    <t>${date}</t>
   </si>
 </sst>
 </file>
@@ -2608,6 +2626,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
@@ -2626,11 +2649,6 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -3385,12 +3403,13 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3414,7 +3433,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3422,15 +3441,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3445,11 +3464,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3478,7 +3497,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9853,10 +9872,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O185"/>
+  <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10206,9 +10225,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="30" t="s">
-        <v>772</v>
-      </c>
+      <c r="B13" s="30"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
@@ -10216,10 +10233,10 @@
         <v>483</v>
       </c>
       <c r="E13" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>773</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>774</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -10234,7 +10251,7 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>5</v>
@@ -10243,10 +10260,10 @@
         <v>471</v>
       </c>
       <c r="E14" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>776</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>777</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -10268,10 +10285,10 @@
         <v>465</v>
       </c>
       <c r="E15" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>778</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>779</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -10293,10 +10310,10 @@
         <v>49</v>
       </c>
       <c r="E16" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>780</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>781</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10311,7 +10328,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>20</v>
@@ -10320,10 +10337,10 @@
         <v>302</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -10338,7 +10355,7 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10350,7 +10367,7 @@
         <v>734</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -10363,20 +10380,21 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>788</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10389,21 +10407,20 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="19" t="s">
+        <v>787</v>
+      </c>
       <c r="B20" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -10418,17 +10435,18 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>793</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="F21" s="28"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -10442,7 +10460,7 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
       <c r="B22" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10451,7 +10469,7 @@
         <v>363</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -10464,20 +10482,21 @@
       <c r="O22" s="22"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="19" t="s">
-        <v>795</v>
-      </c>
+      <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>788</v>
+        <v>791</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3000</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -10490,21 +10509,20 @@
       <c r="O23" s="22"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="30" t="s">
-        <v>797</v>
+      <c r="A24" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>795</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -10518,8 +10536,8 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="30" t="s">
-        <v>800</v>
+      <c r="B25" s="35" t="s">
+        <v>796</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>30</v>
@@ -10528,10 +10546,10 @@
         <v>707</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>801</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>802</v>
+        <v>797</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>798</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10543,21 +10561,22 @@
       <c r="N25" s="23"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B26" s="30" t="s">
-        <v>803</v>
+    <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="35" t="s">
+        <v>799</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>804</v>
-      </c>
-      <c r="F26" s="28">
-        <v>5000</v>
+        <v>800</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>801</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -10569,23 +10588,22 @@
       <c r="N26" s="23"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="19" t="s">
-        <v>805</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>806</v>
+    <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B27" s="35" t="s">
+        <v>802</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="F27" s="28"/>
+        <v>803</v>
+      </c>
+      <c r="F27" s="28">
+        <v>5000</v>
+      </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -10598,21 +10616,19 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="30" t="s">
-        <v>797</v>
+      <c r="B28" s="35" t="s">
+        <v>804</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>807</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F28" s="28"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -10625,8 +10641,8 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="30" t="s">
-        <v>808</v>
+      <c r="B29" s="35" t="s">
+        <v>805</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10635,9 +10651,9 @@
         <v>253</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="F29" s="35"/>
+        <v>797</v>
+      </c>
+      <c r="F29" s="28"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -10650,21 +10666,19 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="30" t="s">
-        <v>800</v>
+      <c r="B30" s="35" t="s">
+        <v>806</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>801</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>810</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F30" s="28"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -10678,16 +10692,16 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="27"/>
@@ -10701,22 +10715,22 @@
       <c r="O31" s="22"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A32" s="19"/>
+      <c r="A32" s="19" t="s">
+        <v>808</v>
+      </c>
       <c r="B32" s="30" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>576</v>
+        <v>363</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>804</v>
-      </c>
-      <c r="F32" s="28">
-        <v>5000</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F32" s="28"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
@@ -10728,22 +10742,22 @@
       <c r="O32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19" t="s">
-        <v>813</v>
-      </c>
+      <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="F33" s="28"/>
+        <v>797</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>809</v>
+      </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -10757,20 +10771,18 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>799</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F34" s="36"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
@@ -10784,7 +10796,7 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>30</v>
@@ -10793,10 +10805,10 @@
         <v>707</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>801</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>802</v>
+        <v>800</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>812</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -10811,20 +10823,18 @@
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
       <c r="B36" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="F36" s="28">
-        <v>3000</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F36" s="28"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -10835,23 +10845,23 @@
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="42" customHeight="1" spans="1:15">
-      <c r="A37" s="19" t="s">
+    <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="30" t="s">
         <v>815</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>816</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>817</v>
-      </c>
-      <c r="F37" s="28"/>
+        <v>816</v>
+      </c>
+      <c r="F37" s="28">
+        <v>3000</v>
+      </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -10865,20 +10875,18 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>483</v>
+        <v>253</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>774</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="F38" s="28"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -10890,22 +10898,22 @@
       <c r="O38" s="22"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="19"/>
+      <c r="A39" s="19" t="s">
+        <v>819</v>
+      </c>
       <c r="B39" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>776</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>777</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="F39" s="28"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -10918,18 +10926,20 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>820</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>779</v>
+      <c r="B40" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>798</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -10943,18 +10953,20 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>781</v>
+      <c r="B41" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>801</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -10969,19 +10981,19 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>776</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>783</v>
+        <v>820</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="F42" s="28">
+        <v>3000</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -11002,14 +11014,12 @@
         <v>30</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>493</v>
+        <v>253</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>785</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="F43" s="28"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
@@ -11020,23 +11030,21 @@
       <c r="N43" s="23"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="44" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
         <v>822</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E44" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" s="27" t="s">
         <v>823</v>
       </c>
-      <c r="F44" s="28" t="s">
-        <v>824</v>
-      </c>
+      <c r="F44" s="28"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -11047,13 +11055,23 @@
       <c r="N44" s="23"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="45" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="B45" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>773</v>
+      </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -11064,13 +11082,23 @@
       <c r="N45" s="23"/>
       <c r="O45" s="22"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="46" s="1" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="B46" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>776</v>
+      </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -11081,13 +11109,21 @@
       <c r="N46" s="23"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="47" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>778</v>
+      </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -11098,13 +11134,21 @@
       <c r="N47" s="23"/>
       <c r="O47" s="22"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="48" s="1" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>780</v>
+      </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -11115,13 +11159,23 @@
       <c r="N48" s="23"/>
       <c r="O48" s="22"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="49" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="B49" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>782</v>
+      </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -11132,13 +11186,23 @@
       <c r="N49" s="23"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="50" s="1" customFormat="1" ht="16" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="B50" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>828</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -11149,13 +11213,23 @@
       <c r="N50" s="23"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="51" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="B51" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>830</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -11166,13 +11240,13 @@
       <c r="N51" s="23"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="52" s="1" customFormat="1" ht="16" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -11183,13 +11257,13 @@
       <c r="N52" s="23"/>
       <c r="O52" s="22"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="53" s="1" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -11200,13 +11274,13 @@
       <c r="N53" s="23"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -11216,23 +11290,6 @@
       <c r="M54" s="21"/>
       <c r="N54" s="23"/>
       <c r="O54" s="22"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="22"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
@@ -13444,6 +13501,193 @@
       <c r="N185" s="23"/>
       <c r="O185" s="22"/>
     </row>
+    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="48"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="23"/>
+      <c r="M186" s="21"/>
+      <c r="N186" s="23"/>
+      <c r="O186" s="22"/>
+    </row>
+    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="48"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="23"/>
+      <c r="M187" s="21"/>
+      <c r="N187" s="23"/>
+      <c r="O187" s="22"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="48"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="23"/>
+      <c r="M188" s="21"/>
+      <c r="N188" s="23"/>
+      <c r="O188" s="22"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="48"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="23"/>
+      <c r="M189" s="21"/>
+      <c r="N189" s="23"/>
+      <c r="O189" s="22"/>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="48"/>
+      <c r="K190" s="22"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="21"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="22"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="48"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="23"/>
+      <c r="M191" s="21"/>
+      <c r="N191" s="23"/>
+      <c r="O191" s="22"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="48"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="23"/>
+      <c r="M192" s="21"/>
+      <c r="N192" s="23"/>
+      <c r="O192" s="22"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="48"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="23"/>
+      <c r="O193" s="22"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="21"/>
+      <c r="N194" s="23"/>
+      <c r="O194" s="22"/>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="48"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="22"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="48"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="21"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -13451,18 +13695,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N86:N185">
+  <conditionalFormatting sqref="N97:N196">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N97,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N97,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N97,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N85">
+  <conditionalFormatting sqref="N1 N3:N54 N56:N96">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13474,10 +13718,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C37 C38 C39 C42 C43 C44 C7:C8 C15:C16 C24:C26 C34:C36 C40:C41 C45:C185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C43 C44 C45 C46 C49 C50 C51 C7:C8 C15:C16 C25:C26 C29:C30 C40:C42 C47:C48 C52:C54 C56:C196">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D27 D28 D29 D30 D31 D32 D33 D37 D38 D39 D42 D43 D44 D7:D8 D15:D16 D25:D26 D34:D36 D40:D41 D45:D185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D31 D32 D33 D34 D35 D36 D37 D38 D39 D43 D44 D45 D46 D49 D50 D51 D54 D7:D8 D15:D16 D29:D30 D40:D42 D47:D48 D52:D53 D56:D196">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Token" sheetId="6" r:id="rId2"/>
-    <sheet name="AuditLogs" sheetId="7" r:id="rId3"/>
+    <sheet name="AuditLogsPage" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -9872,10 +9872,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O196"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -11240,13 +11240,13 @@
       <c r="N51" s="23"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="16" customHeight="1" spans="1:15">
+    <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="30"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -11257,13 +11257,13 @@
       <c r="N52" s="23"/>
       <c r="O52" s="22"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="25" customHeight="1" spans="1:15">
+    <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="30"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -11274,13 +11274,13 @@
       <c r="N53" s="23"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:15">
+    <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -11290,6 +11290,23 @@
       <c r="M54" s="21"/>
       <c r="N54" s="23"/>
       <c r="O54" s="22"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="22"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
@@ -13467,227 +13484,6 @@
       <c r="N183" s="23"/>
       <c r="O183" s="22"/>
     </row>
-    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="48"/>
-      <c r="K184" s="22"/>
-      <c r="L184" s="23"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="22"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="48"/>
-      <c r="K185" s="22"/>
-      <c r="L185" s="23"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="23"/>
-      <c r="O185" s="22"/>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="48"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="23"/>
-      <c r="O186" s="22"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="48"/>
-      <c r="K187" s="22"/>
-      <c r="L187" s="23"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="23"/>
-      <c r="O187" s="22"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="48"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="23"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="22"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="48"/>
-      <c r="K189" s="22"/>
-      <c r="L189" s="23"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="22"/>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="48"/>
-      <c r="K190" s="22"/>
-      <c r="L190" s="23"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="22"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="48"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="23"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="22"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="48"/>
-      <c r="K192" s="22"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="48"/>
-      <c r="K193" s="22"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="48"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="22"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="48"/>
-      <c r="K195" s="22"/>
-      <c r="L195" s="23"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="23"/>
-      <c r="O195" s="22"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="48"/>
-      <c r="K196" s="22"/>
-      <c r="L196" s="23"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="23"/>
-      <c r="O196" s="22"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -13695,18 +13491,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N97:N196">
+  <conditionalFormatting sqref="N84:N183">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N97,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N97,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N97,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N54 N56:N96">
+  <conditionalFormatting sqref="N1 N3:N83">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13718,10 +13514,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C43 C44 C45 C46 C49 C50 C51 C7:C8 C15:C16 C25:C26 C29:C30 C40:C42 C47:C48 C52:C54 C56:C196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C43 C44 C45 C46 C49 C50 C51 C7:C8 C15:C16 C25:C26 C29:C30 C40:C42 C47:C48 C52:C183">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D31 D32 D33 D34 D35 D36 D37 D38 D39 D43 D44 D45 D46 D49 D50 D51 D54 D7:D8 D15:D16 D29:D30 D40:D42 D47:D48 D52:D53 D56:D196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D31 D32 D33 D34 D35 D36 D37 D38 D39 D43 D44 D45 D46 D49 D50 D51 D7:D8 D15:D16 D29:D30 D40:D42 D47:D48 D52:D183">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="834">
   <si>
     <t>target</t>
   </si>
@@ -2486,7 +2486,13 @@
     <t>Verify already Entered From date</t>
   </si>
   <si>
+    <t>Verify the value is not presenting in From date</t>
+  </si>
+  <si>
     <t>Verify already Entered To date</t>
+  </si>
+  <si>
+    <t>Verify the value is not presenting in To date</t>
   </si>
   <si>
     <t>Click on Filter option</t>
@@ -3314,7 +3320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3458,6 +3464,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6652,14 +6662,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="43"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="44"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -6673,12 +6683,12 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="43"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -6690,7 +6700,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="47"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -6725,10 +6735,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -6743,7 +6753,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -6758,69 +6768,69 @@
       <c r="E5" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="61" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="52"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="64"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="52"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="52"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="52"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="20"/>
@@ -6832,7 +6842,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
       <c r="M9" s="22"/>
@@ -6849,7 +6859,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
       <c r="M10" s="22"/>
@@ -6866,7 +6876,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="54"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
       <c r="M11" s="22"/>
@@ -6883,7 +6893,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
       <c r="M12" s="22"/>
@@ -6900,7 +6910,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="23"/>
       <c r="L13" s="24"/>
       <c r="M13" s="22"/>
@@ -6917,7 +6927,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
       <c r="M14" s="22"/>
@@ -6934,7 +6944,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="54"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
       <c r="M15" s="22"/>
@@ -6943,7 +6953,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="20"/>
-      <c r="B16" s="70"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -6951,7 +6961,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="54"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
       <c r="M16" s="22"/>
@@ -6968,7 +6978,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="54"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
       <c r="M17" s="22"/>
@@ -6985,7 +6995,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="54"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="23"/>
       <c r="L18" s="24"/>
       <c r="M18" s="22"/>
@@ -7002,7 +7012,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="54"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="23"/>
       <c r="L19" s="24"/>
       <c r="M19" s="22"/>
@@ -7019,7 +7029,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="54"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="23"/>
       <c r="L20" s="24"/>
       <c r="M20" s="22"/>
@@ -7036,7 +7046,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="54"/>
+      <c r="J21" s="55"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
       <c r="M21" s="22"/>
@@ -7053,7 +7063,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="54"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
       <c r="M22" s="22"/>
@@ -7070,7 +7080,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="54"/>
+      <c r="J23" s="55"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24"/>
       <c r="M23" s="22"/>
@@ -7087,7 +7097,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="54"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="22"/>
@@ -7104,7 +7114,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="54"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="23"/>
       <c r="L25" s="24"/>
       <c r="M25" s="22"/>
@@ -7121,7 +7131,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="23"/>
       <c r="L26" s="24"/>
       <c r="M26" s="22"/>
@@ -7138,7 +7148,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="54"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
       <c r="M27" s="22"/>
@@ -7155,7 +7165,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="54"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="23"/>
       <c r="L28" s="24"/>
       <c r="M28" s="22"/>
@@ -7172,7 +7182,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="54"/>
+      <c r="J29" s="55"/>
       <c r="K29" s="23"/>
       <c r="L29" s="24"/>
       <c r="M29" s="22"/>
@@ -7189,7 +7199,7 @@
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="54"/>
+      <c r="J30" s="55"/>
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
       <c r="M30" s="22"/>
@@ -7206,7 +7216,7 @@
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="54"/>
+      <c r="J31" s="55"/>
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
       <c r="M31" s="22"/>
@@ -7223,7 +7233,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="54"/>
+      <c r="J32" s="55"/>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
       <c r="M32" s="22"/>
@@ -7240,7 +7250,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="54"/>
+      <c r="J33" s="55"/>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
       <c r="M33" s="22"/>
@@ -7257,7 +7267,7 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="54"/>
+      <c r="J34" s="55"/>
       <c r="K34" s="23"/>
       <c r="L34" s="24"/>
       <c r="M34" s="22"/>
@@ -7274,7 +7284,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="54"/>
+      <c r="J35" s="55"/>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
       <c r="M35" s="22"/>
@@ -7291,7 +7301,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="54"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
       <c r="M36" s="22"/>
@@ -7308,7 +7318,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="54"/>
+      <c r="J37" s="55"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
       <c r="M37" s="22"/>
@@ -7325,7 +7335,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="54"/>
+      <c r="J38" s="55"/>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="22"/>
@@ -7342,7 +7352,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="54"/>
+      <c r="J39" s="55"/>
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
       <c r="M39" s="22"/>
@@ -7359,7 +7369,7 @@
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="55"/>
       <c r="K40" s="23"/>
       <c r="L40" s="24"/>
       <c r="M40" s="22"/>
@@ -7376,7 +7386,7 @@
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="54"/>
+      <c r="J41" s="55"/>
       <c r="K41" s="23"/>
       <c r="L41" s="24"/>
       <c r="M41" s="22"/>
@@ -7393,7 +7403,7 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="54"/>
+      <c r="J42" s="55"/>
       <c r="K42" s="23"/>
       <c r="L42" s="24"/>
       <c r="M42" s="22"/>
@@ -7410,7 +7420,7 @@
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="54"/>
+      <c r="J43" s="55"/>
       <c r="K43" s="23"/>
       <c r="L43" s="24"/>
       <c r="M43" s="22"/>
@@ -7427,7 +7437,7 @@
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="54"/>
+      <c r="J44" s="55"/>
       <c r="K44" s="23"/>
       <c r="L44" s="24"/>
       <c r="M44" s="22"/>
@@ -7444,7 +7454,7 @@
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="54"/>
+      <c r="J45" s="55"/>
       <c r="K45" s="23"/>
       <c r="L45" s="24"/>
       <c r="M45" s="22"/>
@@ -7461,7 +7471,7 @@
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="54"/>
+      <c r="J46" s="55"/>
       <c r="K46" s="23"/>
       <c r="L46" s="24"/>
       <c r="M46" s="22"/>
@@ -7478,7 +7488,7 @@
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="54"/>
+      <c r="J47" s="55"/>
       <c r="K47" s="23"/>
       <c r="L47" s="24"/>
       <c r="M47" s="22"/>
@@ -7495,7 +7505,7 @@
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="54"/>
+      <c r="J48" s="55"/>
       <c r="K48" s="23"/>
       <c r="L48" s="24"/>
       <c r="M48" s="22"/>
@@ -7512,7 +7522,7 @@
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="54"/>
+      <c r="J49" s="55"/>
       <c r="K49" s="23"/>
       <c r="L49" s="24"/>
       <c r="M49" s="22"/>
@@ -7529,7 +7539,7 @@
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="54"/>
+      <c r="J50" s="55"/>
       <c r="K50" s="23"/>
       <c r="L50" s="24"/>
       <c r="M50" s="22"/>
@@ -7546,7 +7556,7 @@
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="54"/>
+      <c r="J51" s="55"/>
       <c r="K51" s="23"/>
       <c r="L51" s="24"/>
       <c r="M51" s="22"/>
@@ -7563,7 +7573,7 @@
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="54"/>
+      <c r="J52" s="55"/>
       <c r="K52" s="23"/>
       <c r="L52" s="24"/>
       <c r="M52" s="22"/>
@@ -7580,7 +7590,7 @@
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="54"/>
+      <c r="J53" s="55"/>
       <c r="K53" s="23"/>
       <c r="L53" s="24"/>
       <c r="M53" s="22"/>
@@ -7597,7 +7607,7 @@
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="23"/>
       <c r="L54" s="24"/>
       <c r="M54" s="22"/>
@@ -7614,7 +7624,7 @@
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="54"/>
+      <c r="J55" s="55"/>
       <c r="K55" s="23"/>
       <c r="L55" s="24"/>
       <c r="M55" s="22"/>
@@ -7631,7 +7641,7 @@
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="54"/>
+      <c r="J56" s="55"/>
       <c r="K56" s="23"/>
       <c r="L56" s="24"/>
       <c r="M56" s="22"/>
@@ -7648,7 +7658,7 @@
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="54"/>
+      <c r="J57" s="55"/>
       <c r="K57" s="23"/>
       <c r="L57" s="24"/>
       <c r="M57" s="22"/>
@@ -7665,7 +7675,7 @@
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="54"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="23"/>
       <c r="L58" s="24"/>
       <c r="M58" s="22"/>
@@ -7682,7 +7692,7 @@
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
-      <c r="J59" s="54"/>
+      <c r="J59" s="55"/>
       <c r="K59" s="23"/>
       <c r="L59" s="24"/>
       <c r="M59" s="22"/>
@@ -7699,7 +7709,7 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="54"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="23"/>
       <c r="L60" s="24"/>
       <c r="M60" s="22"/>
@@ -7716,7 +7726,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
-      <c r="J61" s="54"/>
+      <c r="J61" s="55"/>
       <c r="K61" s="23"/>
       <c r="L61" s="24"/>
       <c r="M61" s="22"/>
@@ -7733,7 +7743,7 @@
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
-      <c r="J62" s="54"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="23"/>
       <c r="L62" s="24"/>
       <c r="M62" s="22"/>
@@ -7750,7 +7760,7 @@
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
-      <c r="J63" s="54"/>
+      <c r="J63" s="55"/>
       <c r="K63" s="23"/>
       <c r="L63" s="24"/>
       <c r="M63" s="22"/>
@@ -7767,7 +7777,7 @@
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
-      <c r="J64" s="54"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="23"/>
       <c r="L64" s="24"/>
       <c r="M64" s="22"/>
@@ -7784,7 +7794,7 @@
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
-      <c r="J65" s="54"/>
+      <c r="J65" s="55"/>
       <c r="K65" s="23"/>
       <c r="L65" s="24"/>
       <c r="M65" s="22"/>
@@ -7801,7 +7811,7 @@
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
-      <c r="J66" s="54"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="23"/>
       <c r="L66" s="24"/>
       <c r="M66" s="22"/>
@@ -7818,7 +7828,7 @@
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
-      <c r="J67" s="54"/>
+      <c r="J67" s="55"/>
       <c r="K67" s="23"/>
       <c r="L67" s="24"/>
       <c r="M67" s="22"/>
@@ -7835,7 +7845,7 @@
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
-      <c r="J68" s="54"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="23"/>
       <c r="L68" s="24"/>
       <c r="M68" s="22"/>
@@ -7852,7 +7862,7 @@
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
-      <c r="J69" s="54"/>
+      <c r="J69" s="55"/>
       <c r="K69" s="23"/>
       <c r="L69" s="24"/>
       <c r="M69" s="22"/>
@@ -7869,7 +7879,7 @@
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
-      <c r="J70" s="54"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="23"/>
       <c r="L70" s="24"/>
       <c r="M70" s="22"/>
@@ -7886,7 +7896,7 @@
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
-      <c r="J71" s="54"/>
+      <c r="J71" s="55"/>
       <c r="K71" s="23"/>
       <c r="L71" s="24"/>
       <c r="M71" s="22"/>
@@ -7903,7 +7913,7 @@
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
-      <c r="J72" s="54"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="23"/>
       <c r="L72" s="24"/>
       <c r="M72" s="22"/>
@@ -7920,7 +7930,7 @@
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
-      <c r="J73" s="54"/>
+      <c r="J73" s="55"/>
       <c r="K73" s="23"/>
       <c r="L73" s="24"/>
       <c r="M73" s="22"/>
@@ -7937,7 +7947,7 @@
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
-      <c r="J74" s="54"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="23"/>
       <c r="L74" s="24"/>
       <c r="M74" s="22"/>
@@ -7954,7 +7964,7 @@
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
-      <c r="J75" s="54"/>
+      <c r="J75" s="55"/>
       <c r="K75" s="23"/>
       <c r="L75" s="24"/>
       <c r="M75" s="22"/>
@@ -7971,7 +7981,7 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
-      <c r="J76" s="54"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="23"/>
       <c r="L76" s="24"/>
       <c r="M76" s="22"/>
@@ -7988,7 +7998,7 @@
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
-      <c r="J77" s="54"/>
+      <c r="J77" s="55"/>
       <c r="K77" s="23"/>
       <c r="L77" s="24"/>
       <c r="M77" s="22"/>
@@ -8005,7 +8015,7 @@
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
-      <c r="J78" s="54"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="23"/>
       <c r="L78" s="24"/>
       <c r="M78" s="22"/>
@@ -8022,7 +8032,7 @@
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
-      <c r="J79" s="54"/>
+      <c r="J79" s="55"/>
       <c r="K79" s="23"/>
       <c r="L79" s="24"/>
       <c r="M79" s="22"/>
@@ -8039,7 +8049,7 @@
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
-      <c r="J80" s="54"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="23"/>
       <c r="L80" s="24"/>
       <c r="M80" s="22"/>
@@ -8056,7 +8066,7 @@
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
-      <c r="J81" s="54"/>
+      <c r="J81" s="55"/>
       <c r="K81" s="23"/>
       <c r="L81" s="24"/>
       <c r="M81" s="22"/>
@@ -8073,7 +8083,7 @@
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="54"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="23"/>
       <c r="L82" s="24"/>
       <c r="M82" s="22"/>
@@ -8090,7 +8100,7 @@
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
-      <c r="J83" s="54"/>
+      <c r="J83" s="55"/>
       <c r="K83" s="23"/>
       <c r="L83" s="24"/>
       <c r="M83" s="22"/>
@@ -8107,7 +8117,7 @@
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
-      <c r="J84" s="54"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="23"/>
       <c r="L84" s="24"/>
       <c r="M84" s="22"/>
@@ -8124,7 +8134,7 @@
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
-      <c r="J85" s="54"/>
+      <c r="J85" s="55"/>
       <c r="K85" s="23"/>
       <c r="L85" s="24"/>
       <c r="M85" s="22"/>
@@ -8141,7 +8151,7 @@
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
-      <c r="J86" s="54"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="23"/>
       <c r="L86" s="24"/>
       <c r="M86" s="22"/>
@@ -8158,7 +8168,7 @@
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
-      <c r="J87" s="54"/>
+      <c r="J87" s="55"/>
       <c r="K87" s="23"/>
       <c r="L87" s="24"/>
       <c r="M87" s="22"/>
@@ -8175,7 +8185,7 @@
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
-      <c r="J88" s="54"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="23"/>
       <c r="L88" s="24"/>
       <c r="M88" s="22"/>
@@ -8192,7 +8202,7 @@
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
-      <c r="J89" s="54"/>
+      <c r="J89" s="55"/>
       <c r="K89" s="23"/>
       <c r="L89" s="24"/>
       <c r="M89" s="22"/>
@@ -8209,7 +8219,7 @@
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
-      <c r="J90" s="54"/>
+      <c r="J90" s="55"/>
       <c r="K90" s="23"/>
       <c r="L90" s="24"/>
       <c r="M90" s="22"/>
@@ -8226,7 +8236,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
-      <c r="J91" s="54"/>
+      <c r="J91" s="55"/>
       <c r="K91" s="23"/>
       <c r="L91" s="24"/>
       <c r="M91" s="22"/>
@@ -8243,7 +8253,7 @@
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
-      <c r="J92" s="54"/>
+      <c r="J92" s="55"/>
       <c r="K92" s="23"/>
       <c r="L92" s="24"/>
       <c r="M92" s="22"/>
@@ -8260,7 +8270,7 @@
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
-      <c r="J93" s="54"/>
+      <c r="J93" s="55"/>
       <c r="K93" s="23"/>
       <c r="L93" s="24"/>
       <c r="M93" s="22"/>
@@ -8277,7 +8287,7 @@
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
-      <c r="J94" s="54"/>
+      <c r="J94" s="55"/>
       <c r="K94" s="23"/>
       <c r="L94" s="24"/>
       <c r="M94" s="22"/>
@@ -8294,7 +8304,7 @@
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
-      <c r="J95" s="54"/>
+      <c r="J95" s="55"/>
       <c r="K95" s="23"/>
       <c r="L95" s="24"/>
       <c r="M95" s="22"/>
@@ -8311,7 +8321,7 @@
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
-      <c r="J96" s="54"/>
+      <c r="J96" s="55"/>
       <c r="K96" s="23"/>
       <c r="L96" s="24"/>
       <c r="M96" s="22"/>
@@ -8328,7 +8338,7 @@
       <c r="G97" s="28"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
-      <c r="J97" s="54"/>
+      <c r="J97" s="55"/>
       <c r="K97" s="23"/>
       <c r="L97" s="24"/>
       <c r="M97" s="22"/>
@@ -8345,7 +8355,7 @@
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
-      <c r="J98" s="54"/>
+      <c r="J98" s="55"/>
       <c r="K98" s="23"/>
       <c r="L98" s="24"/>
       <c r="M98" s="22"/>
@@ -8362,7 +8372,7 @@
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
-      <c r="J99" s="54"/>
+      <c r="J99" s="55"/>
       <c r="K99" s="23"/>
       <c r="L99" s="24"/>
       <c r="M99" s="22"/>
@@ -8379,7 +8389,7 @@
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
-      <c r="J100" s="54"/>
+      <c r="J100" s="55"/>
       <c r="K100" s="23"/>
       <c r="L100" s="24"/>
       <c r="M100" s="22"/>
@@ -8396,7 +8406,7 @@
       <c r="G101" s="28"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
-      <c r="J101" s="54"/>
+      <c r="J101" s="55"/>
       <c r="K101" s="23"/>
       <c r="L101" s="24"/>
       <c r="M101" s="22"/>
@@ -8413,7 +8423,7 @@
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
-      <c r="J102" s="54"/>
+      <c r="J102" s="55"/>
       <c r="K102" s="23"/>
       <c r="L102" s="24"/>
       <c r="M102" s="22"/>
@@ -8430,7 +8440,7 @@
       <c r="G103" s="28"/>
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
-      <c r="J103" s="54"/>
+      <c r="J103" s="55"/>
       <c r="K103" s="23"/>
       <c r="L103" s="24"/>
       <c r="M103" s="22"/>
@@ -8447,7 +8457,7 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
-      <c r="J104" s="54"/>
+      <c r="J104" s="55"/>
       <c r="K104" s="23"/>
       <c r="L104" s="24"/>
       <c r="M104" s="22"/>
@@ -8464,7 +8474,7 @@
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
-      <c r="J105" s="54"/>
+      <c r="J105" s="55"/>
       <c r="K105" s="23"/>
       <c r="L105" s="24"/>
       <c r="M105" s="22"/>
@@ -8481,7 +8491,7 @@
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
-      <c r="J106" s="54"/>
+      <c r="J106" s="55"/>
       <c r="K106" s="23"/>
       <c r="L106" s="24"/>
       <c r="M106" s="22"/>
@@ -8498,7 +8508,7 @@
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
-      <c r="J107" s="54"/>
+      <c r="J107" s="55"/>
       <c r="K107" s="23"/>
       <c r="L107" s="24"/>
       <c r="M107" s="22"/>
@@ -8515,7 +8525,7 @@
       <c r="G108" s="28"/>
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
-      <c r="J108" s="54"/>
+      <c r="J108" s="55"/>
       <c r="K108" s="23"/>
       <c r="L108" s="24"/>
       <c r="M108" s="22"/>
@@ -8532,7 +8542,7 @@
       <c r="G109" s="28"/>
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
-      <c r="J109" s="54"/>
+      <c r="J109" s="55"/>
       <c r="K109" s="23"/>
       <c r="L109" s="24"/>
       <c r="M109" s="22"/>
@@ -8549,7 +8559,7 @@
       <c r="G110" s="28"/>
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
-      <c r="J110" s="54"/>
+      <c r="J110" s="55"/>
       <c r="K110" s="23"/>
       <c r="L110" s="24"/>
       <c r="M110" s="22"/>
@@ -8566,7 +8576,7 @@
       <c r="G111" s="28"/>
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
-      <c r="J111" s="54"/>
+      <c r="J111" s="55"/>
       <c r="K111" s="23"/>
       <c r="L111" s="24"/>
       <c r="M111" s="22"/>
@@ -8583,7 +8593,7 @@
       <c r="G112" s="28"/>
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
-      <c r="J112" s="54"/>
+      <c r="J112" s="55"/>
       <c r="K112" s="23"/>
       <c r="L112" s="24"/>
       <c r="M112" s="22"/>
@@ -8600,7 +8610,7 @@
       <c r="G113" s="28"/>
       <c r="H113" s="28"/>
       <c r="I113" s="28"/>
-      <c r="J113" s="54"/>
+      <c r="J113" s="55"/>
       <c r="K113" s="23"/>
       <c r="L113" s="24"/>
       <c r="M113" s="22"/>
@@ -8617,7 +8627,7 @@
       <c r="G114" s="28"/>
       <c r="H114" s="28"/>
       <c r="I114" s="28"/>
-      <c r="J114" s="54"/>
+      <c r="J114" s="55"/>
       <c r="K114" s="23"/>
       <c r="L114" s="24"/>
       <c r="M114" s="22"/>
@@ -8634,7 +8644,7 @@
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
-      <c r="J115" s="54"/>
+      <c r="J115" s="55"/>
       <c r="K115" s="23"/>
       <c r="L115" s="24"/>
       <c r="M115" s="22"/>
@@ -8651,7 +8661,7 @@
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
-      <c r="J116" s="54"/>
+      <c r="J116" s="55"/>
       <c r="K116" s="23"/>
       <c r="L116" s="24"/>
       <c r="M116" s="22"/>
@@ -8668,7 +8678,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
       <c r="I117" s="28"/>
-      <c r="J117" s="54"/>
+      <c r="J117" s="55"/>
       <c r="K117" s="23"/>
       <c r="L117" s="24"/>
       <c r="M117" s="22"/>
@@ -8685,7 +8695,7 @@
       <c r="G118" s="28"/>
       <c r="H118" s="28"/>
       <c r="I118" s="28"/>
-      <c r="J118" s="54"/>
+      <c r="J118" s="55"/>
       <c r="K118" s="23"/>
       <c r="L118" s="24"/>
       <c r="M118" s="22"/>
@@ -8702,7 +8712,7 @@
       <c r="G119" s="28"/>
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
-      <c r="J119" s="54"/>
+      <c r="J119" s="55"/>
       <c r="K119" s="23"/>
       <c r="L119" s="24"/>
       <c r="M119" s="22"/>
@@ -8719,7 +8729,7 @@
       <c r="G120" s="28"/>
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
-      <c r="J120" s="54"/>
+      <c r="J120" s="55"/>
       <c r="K120" s="23"/>
       <c r="L120" s="24"/>
       <c r="M120" s="22"/>
@@ -8736,7 +8746,7 @@
       <c r="G121" s="28"/>
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
-      <c r="J121" s="54"/>
+      <c r="J121" s="55"/>
       <c r="K121" s="23"/>
       <c r="L121" s="24"/>
       <c r="M121" s="22"/>
@@ -8753,7 +8763,7 @@
       <c r="G122" s="28"/>
       <c r="H122" s="28"/>
       <c r="I122" s="28"/>
-      <c r="J122" s="54"/>
+      <c r="J122" s="55"/>
       <c r="K122" s="23"/>
       <c r="L122" s="24"/>
       <c r="M122" s="22"/>
@@ -8770,7 +8780,7 @@
       <c r="G123" s="28"/>
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
-      <c r="J123" s="54"/>
+      <c r="J123" s="55"/>
       <c r="K123" s="23"/>
       <c r="L123" s="24"/>
       <c r="M123" s="22"/>
@@ -8787,7 +8797,7 @@
       <c r="G124" s="28"/>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
-      <c r="J124" s="54"/>
+      <c r="J124" s="55"/>
       <c r="K124" s="23"/>
       <c r="L124" s="24"/>
       <c r="M124" s="22"/>
@@ -8804,7 +8814,7 @@
       <c r="G125" s="28"/>
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
-      <c r="J125" s="54"/>
+      <c r="J125" s="55"/>
       <c r="K125" s="23"/>
       <c r="L125" s="24"/>
       <c r="M125" s="22"/>
@@ -8821,7 +8831,7 @@
       <c r="G126" s="28"/>
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
-      <c r="J126" s="54"/>
+      <c r="J126" s="55"/>
       <c r="K126" s="23"/>
       <c r="L126" s="24"/>
       <c r="M126" s="22"/>
@@ -8838,7 +8848,7 @@
       <c r="G127" s="28"/>
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
-      <c r="J127" s="54"/>
+      <c r="J127" s="55"/>
       <c r="K127" s="23"/>
       <c r="L127" s="24"/>
       <c r="M127" s="22"/>
@@ -8855,7 +8865,7 @@
       <c r="G128" s="28"/>
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
-      <c r="J128" s="54"/>
+      <c r="J128" s="55"/>
       <c r="K128" s="23"/>
       <c r="L128" s="24"/>
       <c r="M128" s="22"/>
@@ -8872,7 +8882,7 @@
       <c r="G129" s="28"/>
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
-      <c r="J129" s="54"/>
+      <c r="J129" s="55"/>
       <c r="K129" s="23"/>
       <c r="L129" s="24"/>
       <c r="M129" s="22"/>
@@ -8889,7 +8899,7 @@
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
       <c r="I130" s="28"/>
-      <c r="J130" s="54"/>
+      <c r="J130" s="55"/>
       <c r="K130" s="23"/>
       <c r="L130" s="24"/>
       <c r="M130" s="22"/>
@@ -8906,7 +8916,7 @@
       <c r="G131" s="28"/>
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
-      <c r="J131" s="54"/>
+      <c r="J131" s="55"/>
       <c r="K131" s="23"/>
       <c r="L131" s="24"/>
       <c r="M131" s="22"/>
@@ -8923,7 +8933,7 @@
       <c r="G132" s="28"/>
       <c r="H132" s="28"/>
       <c r="I132" s="28"/>
-      <c r="J132" s="54"/>
+      <c r="J132" s="55"/>
       <c r="K132" s="23"/>
       <c r="L132" s="24"/>
       <c r="M132" s="22"/>
@@ -8940,7 +8950,7 @@
       <c r="G133" s="28"/>
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
-      <c r="J133" s="54"/>
+      <c r="J133" s="55"/>
       <c r="K133" s="23"/>
       <c r="L133" s="24"/>
       <c r="M133" s="22"/>
@@ -8957,7 +8967,7 @@
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
       <c r="I134" s="28"/>
-      <c r="J134" s="54"/>
+      <c r="J134" s="55"/>
       <c r="K134" s="23"/>
       <c r="L134" s="24"/>
       <c r="M134" s="22"/>
@@ -8974,7 +8984,7 @@
       <c r="G135" s="28"/>
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
-      <c r="J135" s="54"/>
+      <c r="J135" s="55"/>
       <c r="K135" s="23"/>
       <c r="L135" s="24"/>
       <c r="M135" s="22"/>
@@ -8991,7 +9001,7 @@
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
-      <c r="J136" s="54"/>
+      <c r="J136" s="55"/>
       <c r="K136" s="23"/>
       <c r="L136" s="24"/>
       <c r="M136" s="22"/>
@@ -9008,7 +9018,7 @@
       <c r="G137" s="28"/>
       <c r="H137" s="28"/>
       <c r="I137" s="28"/>
-      <c r="J137" s="54"/>
+      <c r="J137" s="55"/>
       <c r="K137" s="23"/>
       <c r="L137" s="24"/>
       <c r="M137" s="22"/>
@@ -9025,7 +9035,7 @@
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
       <c r="I138" s="28"/>
-      <c r="J138" s="54"/>
+      <c r="J138" s="55"/>
       <c r="K138" s="23"/>
       <c r="L138" s="24"/>
       <c r="M138" s="22"/>
@@ -9042,7 +9052,7 @@
       <c r="G139" s="28"/>
       <c r="H139" s="28"/>
       <c r="I139" s="28"/>
-      <c r="J139" s="54"/>
+      <c r="J139" s="55"/>
       <c r="K139" s="23"/>
       <c r="L139" s="24"/>
       <c r="M139" s="22"/>
@@ -9059,7 +9069,7 @@
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
       <c r="I140" s="28"/>
-      <c r="J140" s="54"/>
+      <c r="J140" s="55"/>
       <c r="K140" s="23"/>
       <c r="L140" s="24"/>
       <c r="M140" s="22"/>
@@ -9076,7 +9086,7 @@
       <c r="G141" s="28"/>
       <c r="H141" s="28"/>
       <c r="I141" s="28"/>
-      <c r="J141" s="54"/>
+      <c r="J141" s="55"/>
       <c r="K141" s="23"/>
       <c r="L141" s="24"/>
       <c r="M141" s="22"/>
@@ -9093,7 +9103,7 @@
       <c r="G142" s="28"/>
       <c r="H142" s="28"/>
       <c r="I142" s="28"/>
-      <c r="J142" s="54"/>
+      <c r="J142" s="55"/>
       <c r="K142" s="23"/>
       <c r="L142" s="24"/>
       <c r="M142" s="22"/>
@@ -9110,7 +9120,7 @@
       <c r="G143" s="28"/>
       <c r="H143" s="28"/>
       <c r="I143" s="28"/>
-      <c r="J143" s="54"/>
+      <c r="J143" s="55"/>
       <c r="K143" s="23"/>
       <c r="L143" s="24"/>
       <c r="M143" s="22"/>
@@ -9127,7 +9137,7 @@
       <c r="G144" s="28"/>
       <c r="H144" s="28"/>
       <c r="I144" s="28"/>
-      <c r="J144" s="54"/>
+      <c r="J144" s="55"/>
       <c r="K144" s="23"/>
       <c r="L144" s="24"/>
       <c r="M144" s="22"/>
@@ -9144,7 +9154,7 @@
       <c r="G145" s="28"/>
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
-      <c r="J145" s="54"/>
+      <c r="J145" s="55"/>
       <c r="K145" s="23"/>
       <c r="L145" s="24"/>
       <c r="M145" s="22"/>
@@ -9161,7 +9171,7 @@
       <c r="G146" s="28"/>
       <c r="H146" s="28"/>
       <c r="I146" s="28"/>
-      <c r="J146" s="54"/>
+      <c r="J146" s="55"/>
       <c r="K146" s="23"/>
       <c r="L146" s="24"/>
       <c r="M146" s="22"/>
@@ -9178,7 +9188,7 @@
       <c r="G147" s="28"/>
       <c r="H147" s="28"/>
       <c r="I147" s="28"/>
-      <c r="J147" s="54"/>
+      <c r="J147" s="55"/>
       <c r="K147" s="23"/>
       <c r="L147" s="24"/>
       <c r="M147" s="22"/>
@@ -9195,7 +9205,7 @@
       <c r="G148" s="28"/>
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
-      <c r="J148" s="54"/>
+      <c r="J148" s="55"/>
       <c r="K148" s="23"/>
       <c r="L148" s="24"/>
       <c r="M148" s="22"/>
@@ -9212,7 +9222,7 @@
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
-      <c r="J149" s="54"/>
+      <c r="J149" s="55"/>
       <c r="K149" s="23"/>
       <c r="L149" s="24"/>
       <c r="M149" s="22"/>
@@ -9229,7 +9239,7 @@
       <c r="G150" s="28"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
-      <c r="J150" s="54"/>
+      <c r="J150" s="55"/>
       <c r="K150" s="23"/>
       <c r="L150" s="24"/>
       <c r="M150" s="22"/>
@@ -9246,7 +9256,7 @@
       <c r="G151" s="28"/>
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
-      <c r="J151" s="54"/>
+      <c r="J151" s="55"/>
       <c r="K151" s="23"/>
       <c r="L151" s="24"/>
       <c r="M151" s="22"/>
@@ -9263,7 +9273,7 @@
       <c r="G152" s="28"/>
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
-      <c r="J152" s="54"/>
+      <c r="J152" s="55"/>
       <c r="K152" s="23"/>
       <c r="L152" s="24"/>
       <c r="M152" s="22"/>
@@ -9280,7 +9290,7 @@
       <c r="G153" s="28"/>
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
-      <c r="J153" s="54"/>
+      <c r="J153" s="55"/>
       <c r="K153" s="23"/>
       <c r="L153" s="24"/>
       <c r="M153" s="22"/>
@@ -9297,7 +9307,7 @@
       <c r="G154" s="28"/>
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
-      <c r="J154" s="54"/>
+      <c r="J154" s="55"/>
       <c r="K154" s="23"/>
       <c r="L154" s="24"/>
       <c r="M154" s="22"/>
@@ -9314,7 +9324,7 @@
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
-      <c r="J155" s="54"/>
+      <c r="J155" s="55"/>
       <c r="K155" s="23"/>
       <c r="L155" s="24"/>
       <c r="M155" s="22"/>
@@ -9331,7 +9341,7 @@
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
-      <c r="J156" s="54"/>
+      <c r="J156" s="55"/>
       <c r="K156" s="23"/>
       <c r="L156" s="24"/>
       <c r="M156" s="22"/>
@@ -9348,7 +9358,7 @@
       <c r="G157" s="28"/>
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
-      <c r="J157" s="54"/>
+      <c r="J157" s="55"/>
       <c r="K157" s="23"/>
       <c r="L157" s="24"/>
       <c r="M157" s="22"/>
@@ -9365,7 +9375,7 @@
       <c r="G158" s="28"/>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
-      <c r="J158" s="54"/>
+      <c r="J158" s="55"/>
       <c r="K158" s="23"/>
       <c r="L158" s="24"/>
       <c r="M158" s="22"/>
@@ -9382,7 +9392,7 @@
       <c r="G159" s="28"/>
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
-      <c r="J159" s="54"/>
+      <c r="J159" s="55"/>
       <c r="K159" s="23"/>
       <c r="L159" s="24"/>
       <c r="M159" s="22"/>
@@ -9399,7 +9409,7 @@
       <c r="G160" s="28"/>
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
-      <c r="J160" s="54"/>
+      <c r="J160" s="55"/>
       <c r="K160" s="23"/>
       <c r="L160" s="24"/>
       <c r="M160" s="22"/>
@@ -9416,7 +9426,7 @@
       <c r="G161" s="28"/>
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
-      <c r="J161" s="54"/>
+      <c r="J161" s="55"/>
       <c r="K161" s="23"/>
       <c r="L161" s="24"/>
       <c r="M161" s="22"/>
@@ -9433,7 +9443,7 @@
       <c r="G162" s="28"/>
       <c r="H162" s="28"/>
       <c r="I162" s="28"/>
-      <c r="J162" s="54"/>
+      <c r="J162" s="55"/>
       <c r="K162" s="23"/>
       <c r="L162" s="24"/>
       <c r="M162" s="22"/>
@@ -9450,7 +9460,7 @@
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
       <c r="I163" s="28"/>
-      <c r="J163" s="54"/>
+      <c r="J163" s="55"/>
       <c r="K163" s="23"/>
       <c r="L163" s="24"/>
       <c r="M163" s="22"/>
@@ -9467,7 +9477,7 @@
       <c r="G164" s="28"/>
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
-      <c r="J164" s="54"/>
+      <c r="J164" s="55"/>
       <c r="K164" s="23"/>
       <c r="L164" s="24"/>
       <c r="M164" s="22"/>
@@ -9484,7 +9494,7 @@
       <c r="G165" s="28"/>
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
-      <c r="J165" s="54"/>
+      <c r="J165" s="55"/>
       <c r="K165" s="23"/>
       <c r="L165" s="24"/>
       <c r="M165" s="22"/>
@@ -9501,7 +9511,7 @@
       <c r="G166" s="28"/>
       <c r="H166" s="28"/>
       <c r="I166" s="28"/>
-      <c r="J166" s="54"/>
+      <c r="J166" s="55"/>
       <c r="K166" s="23"/>
       <c r="L166" s="24"/>
       <c r="M166" s="22"/>
@@ -9518,7 +9528,7 @@
       <c r="G167" s="28"/>
       <c r="H167" s="28"/>
       <c r="I167" s="28"/>
-      <c r="J167" s="54"/>
+      <c r="J167" s="55"/>
       <c r="K167" s="23"/>
       <c r="L167" s="24"/>
       <c r="M167" s="22"/>
@@ -9535,7 +9545,7 @@
       <c r="G168" s="28"/>
       <c r="H168" s="28"/>
       <c r="I168" s="28"/>
-      <c r="J168" s="54"/>
+      <c r="J168" s="55"/>
       <c r="K168" s="23"/>
       <c r="L168" s="24"/>
       <c r="M168" s="22"/>
@@ -9552,7 +9562,7 @@
       <c r="G169" s="28"/>
       <c r="H169" s="28"/>
       <c r="I169" s="28"/>
-      <c r="J169" s="54"/>
+      <c r="J169" s="55"/>
       <c r="K169" s="23"/>
       <c r="L169" s="24"/>
       <c r="M169" s="22"/>
@@ -9569,7 +9579,7 @@
       <c r="G170" s="28"/>
       <c r="H170" s="28"/>
       <c r="I170" s="28"/>
-      <c r="J170" s="54"/>
+      <c r="J170" s="55"/>
       <c r="K170" s="23"/>
       <c r="L170" s="24"/>
       <c r="M170" s="22"/>
@@ -9586,7 +9596,7 @@
       <c r="G171" s="28"/>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
-      <c r="J171" s="54"/>
+      <c r="J171" s="55"/>
       <c r="K171" s="23"/>
       <c r="L171" s="24"/>
       <c r="M171" s="22"/>
@@ -9603,7 +9613,7 @@
       <c r="G172" s="28"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
-      <c r="J172" s="54"/>
+      <c r="J172" s="55"/>
       <c r="K172" s="23"/>
       <c r="L172" s="24"/>
       <c r="M172" s="22"/>
@@ -9620,7 +9630,7 @@
       <c r="G173" s="28"/>
       <c r="H173" s="28"/>
       <c r="I173" s="28"/>
-      <c r="J173" s="54"/>
+      <c r="J173" s="55"/>
       <c r="K173" s="23"/>
       <c r="L173" s="24"/>
       <c r="M173" s="22"/>
@@ -9637,7 +9647,7 @@
       <c r="G174" s="28"/>
       <c r="H174" s="28"/>
       <c r="I174" s="28"/>
-      <c r="J174" s="54"/>
+      <c r="J174" s="55"/>
       <c r="K174" s="23"/>
       <c r="L174" s="24"/>
       <c r="M174" s="22"/>
@@ -9654,7 +9664,7 @@
       <c r="G175" s="28"/>
       <c r="H175" s="28"/>
       <c r="I175" s="28"/>
-      <c r="J175" s="54"/>
+      <c r="J175" s="55"/>
       <c r="K175" s="23"/>
       <c r="L175" s="24"/>
       <c r="M175" s="22"/>
@@ -9671,7 +9681,7 @@
       <c r="G176" s="28"/>
       <c r="H176" s="28"/>
       <c r="I176" s="28"/>
-      <c r="J176" s="54"/>
+      <c r="J176" s="55"/>
       <c r="K176" s="23"/>
       <c r="L176" s="24"/>
       <c r="M176" s="22"/>
@@ -9688,7 +9698,7 @@
       <c r="G177" s="28"/>
       <c r="H177" s="28"/>
       <c r="I177" s="28"/>
-      <c r="J177" s="54"/>
+      <c r="J177" s="55"/>
       <c r="K177" s="23"/>
       <c r="L177" s="24"/>
       <c r="M177" s="22"/>
@@ -9705,7 +9715,7 @@
       <c r="G178" s="28"/>
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
-      <c r="J178" s="54"/>
+      <c r="J178" s="55"/>
       <c r="K178" s="23"/>
       <c r="L178" s="24"/>
       <c r="M178" s="22"/>
@@ -9722,7 +9732,7 @@
       <c r="G179" s="28"/>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
-      <c r="J179" s="54"/>
+      <c r="J179" s="55"/>
       <c r="K179" s="23"/>
       <c r="L179" s="24"/>
       <c r="M179" s="22"/>
@@ -9739,7 +9749,7 @@
       <c r="G180" s="28"/>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
-      <c r="J180" s="54"/>
+      <c r="J180" s="55"/>
       <c r="K180" s="23"/>
       <c r="L180" s="24"/>
       <c r="M180" s="22"/>
@@ -9756,7 +9766,7 @@
       <c r="G181" s="28"/>
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
-      <c r="J181" s="54"/>
+      <c r="J181" s="55"/>
       <c r="K181" s="23"/>
       <c r="L181" s="24"/>
       <c r="M181" s="22"/>
@@ -9773,7 +9783,7 @@
       <c r="G182" s="28"/>
       <c r="H182" s="28"/>
       <c r="I182" s="28"/>
-      <c r="J182" s="54"/>
+      <c r="J182" s="55"/>
       <c r="K182" s="23"/>
       <c r="L182" s="24"/>
       <c r="M182" s="22"/>
@@ -9790,7 +9800,7 @@
       <c r="G183" s="28"/>
       <c r="H183" s="28"/>
       <c r="I183" s="28"/>
-      <c r="J183" s="54"/>
+      <c r="J183" s="55"/>
       <c r="K183" s="23"/>
       <c r="L183" s="24"/>
       <c r="M183" s="22"/>
@@ -9807,7 +9817,7 @@
       <c r="G184" s="28"/>
       <c r="H184" s="28"/>
       <c r="I184" s="28"/>
-      <c r="J184" s="54"/>
+      <c r="J184" s="55"/>
       <c r="K184" s="23"/>
       <c r="L184" s="24"/>
       <c r="M184" s="22"/>
@@ -9824,7 +9834,7 @@
       <c r="G185" s="28"/>
       <c r="H185" s="28"/>
       <c r="I185" s="28"/>
-      <c r="J185" s="54"/>
+      <c r="J185" s="55"/>
       <c r="K185" s="23"/>
       <c r="L185" s="24"/>
       <c r="M185" s="22"/>
@@ -9841,7 +9851,7 @@
       <c r="G186" s="28"/>
       <c r="H186" s="28"/>
       <c r="I186" s="28"/>
-      <c r="J186" s="54"/>
+      <c r="J186" s="55"/>
       <c r="K186" s="23"/>
       <c r="L186" s="24"/>
       <c r="M186" s="22"/>
@@ -9858,7 +9868,7 @@
       <c r="G187" s="28"/>
       <c r="H187" s="28"/>
       <c r="I187" s="28"/>
-      <c r="J187" s="54"/>
+      <c r="J187" s="55"/>
       <c r="K187" s="23"/>
       <c r="L187" s="24"/>
       <c r="M187" s="22"/>
@@ -9875,7 +9885,7 @@
       <c r="G188" s="28"/>
       <c r="H188" s="28"/>
       <c r="I188" s="28"/>
-      <c r="J188" s="54"/>
+      <c r="J188" s="55"/>
       <c r="K188" s="23"/>
       <c r="L188" s="24"/>
       <c r="M188" s="22"/>
@@ -9938,10 +9948,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O183"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9985,14 +9995,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="43"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="44"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -10006,12 +10016,12 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="43"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -10023,7 +10033,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="47"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -10058,10 +10068,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -10097,12 +10107,12 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="52"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="20"/>
@@ -10124,12 +10134,12 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="52"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="20"/>
@@ -10151,7 +10161,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
       <c r="M7" s="22"/>
@@ -10176,7 +10186,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
       <c r="M8" s="22"/>
@@ -10201,7 +10211,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
       <c r="M9" s="22"/>
@@ -10228,7 +10238,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
       <c r="M10" s="22"/>
@@ -10253,7 +10263,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="54"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
       <c r="M11" s="22"/>
@@ -10282,7 +10292,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
       <c r="M12" s="22"/>
@@ -10307,7 +10317,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="23"/>
       <c r="L13" s="24"/>
       <c r="M13" s="22"/>
@@ -10334,7 +10344,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
       <c r="M14" s="22"/>
@@ -10359,7 +10369,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="54"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
       <c r="M15" s="22"/>
@@ -10384,7 +10394,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="54"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
       <c r="M16" s="22"/>
@@ -10411,7 +10421,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="54"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
       <c r="M17" s="22"/>
@@ -10438,7 +10448,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="54"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="23"/>
       <c r="L18" s="24"/>
       <c r="M18" s="22"/>
@@ -10465,7 +10475,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="54"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="23"/>
       <c r="L19" s="24"/>
       <c r="M19" s="22"/>
@@ -10491,7 +10501,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="54"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="23"/>
       <c r="L20" s="24"/>
       <c r="M20" s="22"/>
@@ -10516,7 +10526,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="54"/>
+      <c r="J21" s="55"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
       <c r="M21" s="22"/>
@@ -10540,7 +10550,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="54"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
       <c r="M22" s="22"/>
@@ -10567,7 +10577,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="54"/>
+      <c r="J23" s="55"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24"/>
       <c r="M23" s="22"/>
@@ -10593,7 +10603,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="54"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="22"/>
@@ -10620,7 +10630,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="54"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="23"/>
       <c r="L25" s="24"/>
       <c r="M25" s="22"/>
@@ -10647,7 +10657,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="23"/>
       <c r="L26" s="24"/>
       <c r="M26" s="22"/>
@@ -10673,7 +10683,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="54"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
       <c r="M27" s="22"/>
@@ -10698,7 +10708,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="54"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="23"/>
       <c r="L28" s="24"/>
       <c r="M28" s="22"/>
@@ -10725,12 +10735,12 @@
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="57"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="38"/>
@@ -10741,68 +10751,66 @@
         <v>30</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>800</v>
+        <v>553</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>798</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="56"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="31" t="s">
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="57"/>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39" t="s">
         <v>808</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="23"/>
+      <c r="D31" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>800</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="57"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="39" t="s">
         <v>809</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>808</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>789</v>
+      <c r="D32" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>801</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="54"/>
+      <c r="J32" s="55"/>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
       <c r="M32" s="22"/>
@@ -10812,24 +10820,22 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="20"/>
       <c r="B33" s="31" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>797</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>810</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F33" s="29"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="54"/>
+      <c r="J33" s="55"/>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
       <c r="M33" s="22"/>
@@ -10837,24 +10843,26 @@
       <c r="O33" s="23"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A34" s="20"/>
+      <c r="A34" s="20" t="s">
+        <v>811</v>
+      </c>
       <c r="B34" s="31" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="F34" s="37"/>
+        <v>789</v>
+      </c>
+      <c r="F34" s="29"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="54"/>
+      <c r="J34" s="55"/>
       <c r="K34" s="23"/>
       <c r="L34" s="24"/>
       <c r="M34" s="22"/>
@@ -10864,7 +10872,7 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="20"/>
       <c r="B35" s="31" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>30</v>
@@ -10873,15 +10881,15 @@
         <v>707</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="54"/>
+      <c r="J35" s="55"/>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
       <c r="M35" s="22"/>
@@ -10891,7 +10899,7 @@
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="20"/>
       <c r="B36" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>30</v>
@@ -10900,13 +10908,13 @@
         <v>253</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>815</v>
-      </c>
-      <c r="F36" s="29"/>
+        <v>814</v>
+      </c>
+      <c r="F36" s="37"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="54"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
       <c r="M36" s="22"/>
@@ -10916,24 +10924,24 @@
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="20"/>
       <c r="B37" s="31" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="F37" s="29">
-        <v>3000</v>
+        <v>800</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>815</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="54"/>
+      <c r="J37" s="55"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
       <c r="M37" s="22"/>
@@ -10943,7 +10951,7 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="20"/>
       <c r="B38" s="31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>30</v>
@@ -10952,13 +10960,13 @@
         <v>253</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="54"/>
+      <c r="J38" s="55"/>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="22"/>
@@ -10966,26 +10974,26 @@
       <c r="O38" s="23"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="20" t="s">
-        <v>820</v>
-      </c>
+      <c r="A39" s="20"/>
       <c r="B39" s="31" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="F39" s="29"/>
+        <v>819</v>
+      </c>
+      <c r="F39" s="29">
+        <v>3000</v>
+      </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="54"/>
+      <c r="J39" s="55"/>
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
       <c r="M39" s="22"/>
@@ -10995,24 +11003,22 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="20"/>
       <c r="B40" s="31" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>797</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>798</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="F40" s="29"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="55"/>
       <c r="K40" s="23"/>
       <c r="L40" s="24"/>
       <c r="M40" s="22"/>
@@ -11020,26 +11026,26 @@
       <c r="O40" s="23"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A41" s="20"/>
+      <c r="A41" s="20" t="s">
+        <v>822</v>
+      </c>
       <c r="B41" s="31" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>800</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>801</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F41" s="29"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="54"/>
+      <c r="J41" s="55"/>
       <c r="K41" s="23"/>
       <c r="L41" s="24"/>
       <c r="M41" s="22"/>
@@ -11049,24 +11055,24 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
       <c r="B42" s="31" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="F42" s="29">
-        <v>3000</v>
+        <v>797</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>798</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="54"/>
+      <c r="J42" s="55"/>
       <c r="K42" s="23"/>
       <c r="L42" s="24"/>
       <c r="M42" s="22"/>
@@ -11076,29 +11082,31 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="20"/>
       <c r="B43" s="31" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="F43" s="29"/>
+        <v>800</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>801</v>
+      </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="54"/>
+      <c r="J43" s="55"/>
       <c r="K43" s="23"/>
       <c r="L43" s="24"/>
       <c r="M43" s="22"/>
       <c r="N43" s="24"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="20"/>
       <c r="B44" s="31" t="s">
         <v>823</v>
@@ -11107,174 +11115,172 @@
         <v>30</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>824</v>
-      </c>
-      <c r="F44" s="29"/>
+        <v>819</v>
+      </c>
+      <c r="F44" s="29">
+        <v>3000</v>
+      </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="54"/>
+      <c r="J44" s="55"/>
       <c r="K44" s="23"/>
       <c r="L44" s="24"/>
       <c r="M44" s="22"/>
       <c r="N44" s="24"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="20"/>
       <c r="B45" s="31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>483</v>
+        <v>253</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>772</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>773</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="F45" s="29"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="54"/>
+      <c r="J45" s="55"/>
       <c r="K45" s="23"/>
       <c r="L45" s="24"/>
       <c r="M45" s="22"/>
       <c r="N45" s="24"/>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="19" customHeight="1" spans="1:15">
+    <row r="46" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A46" s="20"/>
       <c r="B46" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>775</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>776</v>
-      </c>
+      <c r="F46" s="29"/>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="54"/>
+      <c r="J46" s="55"/>
       <c r="K46" s="23"/>
       <c r="L46" s="24"/>
       <c r="M46" s="22"/>
       <c r="N46" s="24"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="47" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A47" s="20"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>777</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>778</v>
+      <c r="B47" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>773</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="54"/>
+      <c r="J47" s="55"/>
       <c r="K47" s="23"/>
       <c r="L47" s="24"/>
       <c r="M47" s="22"/>
       <c r="N47" s="24"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="17" customHeight="1" spans="1:15">
+    <row r="48" s="1" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A48" s="20"/>
-      <c r="B48" s="31"/>
+      <c r="B48" s="31" t="s">
+        <v>828</v>
+      </c>
       <c r="C48" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>49</v>
+      <c r="D48" s="33" t="s">
+        <v>471</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>779</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>780</v>
+        <v>775</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>776</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="54"/>
+      <c r="J48" s="55"/>
       <c r="K48" s="23"/>
       <c r="L48" s="24"/>
       <c r="M48" s="22"/>
       <c r="N48" s="24"/>
       <c r="O48" s="23"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
+    <row r="49" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A49" s="20"/>
-      <c r="B49" s="31" t="s">
-        <v>781</v>
-      </c>
+      <c r="B49" s="31"/>
       <c r="C49" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>302</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>465</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="54"/>
+      <c r="J49" s="55"/>
       <c r="K49" s="23"/>
       <c r="L49" s="24"/>
       <c r="M49" s="22"/>
       <c r="N49" s="24"/>
       <c r="O49" s="23"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="16" customHeight="1" spans="1:15">
+    <row r="50" s="1" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A50" s="20"/>
-      <c r="B50" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>829</v>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>780</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="54"/>
+      <c r="J50" s="55"/>
       <c r="K50" s="23"/>
       <c r="L50" s="24"/>
       <c r="M50" s="22"/>
@@ -11284,58 +11290,78 @@
     <row r="51" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A51" s="20"/>
       <c r="B51" s="31" t="s">
-        <v>830</v>
+        <v>781</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>831</v>
+        <v>20</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>782</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="54"/>
+      <c r="J51" s="55"/>
       <c r="K51" s="23"/>
       <c r="L51" s="24"/>
       <c r="M51" s="22"/>
       <c r="N51" s="24"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="52" s="1" customFormat="1" ht="16" customHeight="1" spans="1:15">
       <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
+      <c r="B52" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>831</v>
+      </c>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="54"/>
+      <c r="J52" s="55"/>
       <c r="K52" s="23"/>
       <c r="L52" s="24"/>
       <c r="M52" s="22"/>
       <c r="N52" s="24"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="53" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
+      <c r="B53" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>833</v>
+      </c>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="54"/>
+      <c r="J53" s="55"/>
       <c r="K53" s="23"/>
       <c r="L53" s="24"/>
       <c r="M53" s="22"/>
@@ -11352,7 +11378,7 @@
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="23"/>
       <c r="L54" s="24"/>
       <c r="M54" s="22"/>
@@ -11369,7 +11395,7 @@
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="54"/>
+      <c r="J55" s="55"/>
       <c r="K55" s="23"/>
       <c r="L55" s="24"/>
       <c r="M55" s="22"/>
@@ -11386,7 +11412,7 @@
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="54"/>
+      <c r="J56" s="55"/>
       <c r="K56" s="23"/>
       <c r="L56" s="24"/>
       <c r="M56" s="22"/>
@@ -11403,7 +11429,7 @@
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="54"/>
+      <c r="J57" s="55"/>
       <c r="K57" s="23"/>
       <c r="L57" s="24"/>
       <c r="M57" s="22"/>
@@ -11420,7 +11446,7 @@
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="54"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="23"/>
       <c r="L58" s="24"/>
       <c r="M58" s="22"/>
@@ -11437,7 +11463,7 @@
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
-      <c r="J59" s="54"/>
+      <c r="J59" s="55"/>
       <c r="K59" s="23"/>
       <c r="L59" s="24"/>
       <c r="M59" s="22"/>
@@ -11454,7 +11480,7 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="54"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="23"/>
       <c r="L60" s="24"/>
       <c r="M60" s="22"/>
@@ -11471,7 +11497,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
-      <c r="J61" s="54"/>
+      <c r="J61" s="55"/>
       <c r="K61" s="23"/>
       <c r="L61" s="24"/>
       <c r="M61" s="22"/>
@@ -11488,7 +11514,7 @@
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
-      <c r="J62" s="54"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="23"/>
       <c r="L62" s="24"/>
       <c r="M62" s="22"/>
@@ -11505,7 +11531,7 @@
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
-      <c r="J63" s="54"/>
+      <c r="J63" s="55"/>
       <c r="K63" s="23"/>
       <c r="L63" s="24"/>
       <c r="M63" s="22"/>
@@ -11522,7 +11548,7 @@
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
-      <c r="J64" s="54"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="23"/>
       <c r="L64" s="24"/>
       <c r="M64" s="22"/>
@@ -11539,7 +11565,7 @@
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
-      <c r="J65" s="54"/>
+      <c r="J65" s="55"/>
       <c r="K65" s="23"/>
       <c r="L65" s="24"/>
       <c r="M65" s="22"/>
@@ -11556,7 +11582,7 @@
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
-      <c r="J66" s="54"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="23"/>
       <c r="L66" s="24"/>
       <c r="M66" s="22"/>
@@ -11573,7 +11599,7 @@
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
-      <c r="J67" s="54"/>
+      <c r="J67" s="55"/>
       <c r="K67" s="23"/>
       <c r="L67" s="24"/>
       <c r="M67" s="22"/>
@@ -11590,7 +11616,7 @@
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
-      <c r="J68" s="54"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="23"/>
       <c r="L68" s="24"/>
       <c r="M68" s="22"/>
@@ -11607,7 +11633,7 @@
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
-      <c r="J69" s="54"/>
+      <c r="J69" s="55"/>
       <c r="K69" s="23"/>
       <c r="L69" s="24"/>
       <c r="M69" s="22"/>
@@ -11624,7 +11650,7 @@
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
-      <c r="J70" s="54"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="23"/>
       <c r="L70" s="24"/>
       <c r="M70" s="22"/>
@@ -11641,7 +11667,7 @@
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
-      <c r="J71" s="54"/>
+      <c r="J71" s="55"/>
       <c r="K71" s="23"/>
       <c r="L71" s="24"/>
       <c r="M71" s="22"/>
@@ -11658,7 +11684,7 @@
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
-      <c r="J72" s="54"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="23"/>
       <c r="L72" s="24"/>
       <c r="M72" s="22"/>
@@ -11675,7 +11701,7 @@
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
-      <c r="J73" s="54"/>
+      <c r="J73" s="55"/>
       <c r="K73" s="23"/>
       <c r="L73" s="24"/>
       <c r="M73" s="22"/>
@@ -11692,7 +11718,7 @@
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
-      <c r="J74" s="54"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="23"/>
       <c r="L74" s="24"/>
       <c r="M74" s="22"/>
@@ -11709,7 +11735,7 @@
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
-      <c r="J75" s="54"/>
+      <c r="J75" s="55"/>
       <c r="K75" s="23"/>
       <c r="L75" s="24"/>
       <c r="M75" s="22"/>
@@ -11726,7 +11752,7 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
-      <c r="J76" s="54"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="23"/>
       <c r="L76" s="24"/>
       <c r="M76" s="22"/>
@@ -11743,7 +11769,7 @@
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
-      <c r="J77" s="54"/>
+      <c r="J77" s="55"/>
       <c r="K77" s="23"/>
       <c r="L77" s="24"/>
       <c r="M77" s="22"/>
@@ -11760,7 +11786,7 @@
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
-      <c r="J78" s="54"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="23"/>
       <c r="L78" s="24"/>
       <c r="M78" s="22"/>
@@ -11777,7 +11803,7 @@
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
-      <c r="J79" s="54"/>
+      <c r="J79" s="55"/>
       <c r="K79" s="23"/>
       <c r="L79" s="24"/>
       <c r="M79" s="22"/>
@@ -11794,7 +11820,7 @@
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
-      <c r="J80" s="54"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="23"/>
       <c r="L80" s="24"/>
       <c r="M80" s="22"/>
@@ -11811,7 +11837,7 @@
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
-      <c r="J81" s="54"/>
+      <c r="J81" s="55"/>
       <c r="K81" s="23"/>
       <c r="L81" s="24"/>
       <c r="M81" s="22"/>
@@ -11828,7 +11854,7 @@
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="54"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="23"/>
       <c r="L82" s="24"/>
       <c r="M82" s="22"/>
@@ -11845,7 +11871,7 @@
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
-      <c r="J83" s="54"/>
+      <c r="J83" s="55"/>
       <c r="K83" s="23"/>
       <c r="L83" s="24"/>
       <c r="M83" s="22"/>
@@ -11862,7 +11888,7 @@
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
-      <c r="J84" s="54"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="23"/>
       <c r="L84" s="24"/>
       <c r="M84" s="22"/>
@@ -11879,7 +11905,7 @@
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
-      <c r="J85" s="54"/>
+      <c r="J85" s="55"/>
       <c r="K85" s="23"/>
       <c r="L85" s="24"/>
       <c r="M85" s="22"/>
@@ -11896,7 +11922,7 @@
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
-      <c r="J86" s="54"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="23"/>
       <c r="L86" s="24"/>
       <c r="M86" s="22"/>
@@ -11913,7 +11939,7 @@
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
-      <c r="J87" s="54"/>
+      <c r="J87" s="55"/>
       <c r="K87" s="23"/>
       <c r="L87" s="24"/>
       <c r="M87" s="22"/>
@@ -11930,7 +11956,7 @@
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
-      <c r="J88" s="54"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="23"/>
       <c r="L88" s="24"/>
       <c r="M88" s="22"/>
@@ -11947,7 +11973,7 @@
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
-      <c r="J89" s="54"/>
+      <c r="J89" s="55"/>
       <c r="K89" s="23"/>
       <c r="L89" s="24"/>
       <c r="M89" s="22"/>
@@ -11964,7 +11990,7 @@
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
-      <c r="J90" s="54"/>
+      <c r="J90" s="55"/>
       <c r="K90" s="23"/>
       <c r="L90" s="24"/>
       <c r="M90" s="22"/>
@@ -11981,7 +12007,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
-      <c r="J91" s="54"/>
+      <c r="J91" s="55"/>
       <c r="K91" s="23"/>
       <c r="L91" s="24"/>
       <c r="M91" s="22"/>
@@ -11998,7 +12024,7 @@
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
-      <c r="J92" s="54"/>
+      <c r="J92" s="55"/>
       <c r="K92" s="23"/>
       <c r="L92" s="24"/>
       <c r="M92" s="22"/>
@@ -12015,7 +12041,7 @@
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
-      <c r="J93" s="54"/>
+      <c r="J93" s="55"/>
       <c r="K93" s="23"/>
       <c r="L93" s="24"/>
       <c r="M93" s="22"/>
@@ -12032,7 +12058,7 @@
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
-      <c r="J94" s="54"/>
+      <c r="J94" s="55"/>
       <c r="K94" s="23"/>
       <c r="L94" s="24"/>
       <c r="M94" s="22"/>
@@ -12049,7 +12075,7 @@
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
-      <c r="J95" s="54"/>
+      <c r="J95" s="55"/>
       <c r="K95" s="23"/>
       <c r="L95" s="24"/>
       <c r="M95" s="22"/>
@@ -12066,7 +12092,7 @@
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
-      <c r="J96" s="54"/>
+      <c r="J96" s="55"/>
       <c r="K96" s="23"/>
       <c r="L96" s="24"/>
       <c r="M96" s="22"/>
@@ -12083,7 +12109,7 @@
       <c r="G97" s="28"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
-      <c r="J97" s="54"/>
+      <c r="J97" s="55"/>
       <c r="K97" s="23"/>
       <c r="L97" s="24"/>
       <c r="M97" s="22"/>
@@ -12100,7 +12126,7 @@
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
-      <c r="J98" s="54"/>
+      <c r="J98" s="55"/>
       <c r="K98" s="23"/>
       <c r="L98" s="24"/>
       <c r="M98" s="22"/>
@@ -12117,7 +12143,7 @@
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
-      <c r="J99" s="54"/>
+      <c r="J99" s="55"/>
       <c r="K99" s="23"/>
       <c r="L99" s="24"/>
       <c r="M99" s="22"/>
@@ -12134,7 +12160,7 @@
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
-      <c r="J100" s="54"/>
+      <c r="J100" s="55"/>
       <c r="K100" s="23"/>
       <c r="L100" s="24"/>
       <c r="M100" s="22"/>
@@ -12151,7 +12177,7 @@
       <c r="G101" s="28"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
-      <c r="J101" s="54"/>
+      <c r="J101" s="55"/>
       <c r="K101" s="23"/>
       <c r="L101" s="24"/>
       <c r="M101" s="22"/>
@@ -12168,7 +12194,7 @@
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
-      <c r="J102" s="54"/>
+      <c r="J102" s="55"/>
       <c r="K102" s="23"/>
       <c r="L102" s="24"/>
       <c r="M102" s="22"/>
@@ -12185,7 +12211,7 @@
       <c r="G103" s="28"/>
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
-      <c r="J103" s="54"/>
+      <c r="J103" s="55"/>
       <c r="K103" s="23"/>
       <c r="L103" s="24"/>
       <c r="M103" s="22"/>
@@ -12202,7 +12228,7 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
-      <c r="J104" s="54"/>
+      <c r="J104" s="55"/>
       <c r="K104" s="23"/>
       <c r="L104" s="24"/>
       <c r="M104" s="22"/>
@@ -12219,7 +12245,7 @@
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
-      <c r="J105" s="54"/>
+      <c r="J105" s="55"/>
       <c r="K105" s="23"/>
       <c r="L105" s="24"/>
       <c r="M105" s="22"/>
@@ -12236,7 +12262,7 @@
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
-      <c r="J106" s="54"/>
+      <c r="J106" s="55"/>
       <c r="K106" s="23"/>
       <c r="L106" s="24"/>
       <c r="M106" s="22"/>
@@ -12253,7 +12279,7 @@
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
-      <c r="J107" s="54"/>
+      <c r="J107" s="55"/>
       <c r="K107" s="23"/>
       <c r="L107" s="24"/>
       <c r="M107" s="22"/>
@@ -12270,7 +12296,7 @@
       <c r="G108" s="28"/>
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
-      <c r="J108" s="54"/>
+      <c r="J108" s="55"/>
       <c r="K108" s="23"/>
       <c r="L108" s="24"/>
       <c r="M108" s="22"/>
@@ -12287,7 +12313,7 @@
       <c r="G109" s="28"/>
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
-      <c r="J109" s="54"/>
+      <c r="J109" s="55"/>
       <c r="K109" s="23"/>
       <c r="L109" s="24"/>
       <c r="M109" s="22"/>
@@ -12304,7 +12330,7 @@
       <c r="G110" s="28"/>
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
-      <c r="J110" s="54"/>
+      <c r="J110" s="55"/>
       <c r="K110" s="23"/>
       <c r="L110" s="24"/>
       <c r="M110" s="22"/>
@@ -12321,7 +12347,7 @@
       <c r="G111" s="28"/>
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
-      <c r="J111" s="54"/>
+      <c r="J111" s="55"/>
       <c r="K111" s="23"/>
       <c r="L111" s="24"/>
       <c r="M111" s="22"/>
@@ -12338,7 +12364,7 @@
       <c r="G112" s="28"/>
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
-      <c r="J112" s="54"/>
+      <c r="J112" s="55"/>
       <c r="K112" s="23"/>
       <c r="L112" s="24"/>
       <c r="M112" s="22"/>
@@ -12355,7 +12381,7 @@
       <c r="G113" s="28"/>
       <c r="H113" s="28"/>
       <c r="I113" s="28"/>
-      <c r="J113" s="54"/>
+      <c r="J113" s="55"/>
       <c r="K113" s="23"/>
       <c r="L113" s="24"/>
       <c r="M113" s="22"/>
@@ -12372,7 +12398,7 @@
       <c r="G114" s="28"/>
       <c r="H114" s="28"/>
       <c r="I114" s="28"/>
-      <c r="J114" s="54"/>
+      <c r="J114" s="55"/>
       <c r="K114" s="23"/>
       <c r="L114" s="24"/>
       <c r="M114" s="22"/>
@@ -12389,7 +12415,7 @@
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
-      <c r="J115" s="54"/>
+      <c r="J115" s="55"/>
       <c r="K115" s="23"/>
       <c r="L115" s="24"/>
       <c r="M115" s="22"/>
@@ -12406,7 +12432,7 @@
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
-      <c r="J116" s="54"/>
+      <c r="J116" s="55"/>
       <c r="K116" s="23"/>
       <c r="L116" s="24"/>
       <c r="M116" s="22"/>
@@ -12423,7 +12449,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
       <c r="I117" s="28"/>
-      <c r="J117" s="54"/>
+      <c r="J117" s="55"/>
       <c r="K117" s="23"/>
       <c r="L117" s="24"/>
       <c r="M117" s="22"/>
@@ -12440,7 +12466,7 @@
       <c r="G118" s="28"/>
       <c r="H118" s="28"/>
       <c r="I118" s="28"/>
-      <c r="J118" s="54"/>
+      <c r="J118" s="55"/>
       <c r="K118" s="23"/>
       <c r="L118" s="24"/>
       <c r="M118" s="22"/>
@@ -12457,7 +12483,7 @@
       <c r="G119" s="28"/>
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
-      <c r="J119" s="54"/>
+      <c r="J119" s="55"/>
       <c r="K119" s="23"/>
       <c r="L119" s="24"/>
       <c r="M119" s="22"/>
@@ -12474,7 +12500,7 @@
       <c r="G120" s="28"/>
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
-      <c r="J120" s="54"/>
+      <c r="J120" s="55"/>
       <c r="K120" s="23"/>
       <c r="L120" s="24"/>
       <c r="M120" s="22"/>
@@ -12491,7 +12517,7 @@
       <c r="G121" s="28"/>
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
-      <c r="J121" s="54"/>
+      <c r="J121" s="55"/>
       <c r="K121" s="23"/>
       <c r="L121" s="24"/>
       <c r="M121" s="22"/>
@@ -12508,7 +12534,7 @@
       <c r="G122" s="28"/>
       <c r="H122" s="28"/>
       <c r="I122" s="28"/>
-      <c r="J122" s="54"/>
+      <c r="J122" s="55"/>
       <c r="K122" s="23"/>
       <c r="L122" s="24"/>
       <c r="M122" s="22"/>
@@ -12525,7 +12551,7 @@
       <c r="G123" s="28"/>
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
-      <c r="J123" s="54"/>
+      <c r="J123" s="55"/>
       <c r="K123" s="23"/>
       <c r="L123" s="24"/>
       <c r="M123" s="22"/>
@@ -12542,7 +12568,7 @@
       <c r="G124" s="28"/>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
-      <c r="J124" s="54"/>
+      <c r="J124" s="55"/>
       <c r="K124" s="23"/>
       <c r="L124" s="24"/>
       <c r="M124" s="22"/>
@@ -12559,7 +12585,7 @@
       <c r="G125" s="28"/>
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
-      <c r="J125" s="54"/>
+      <c r="J125" s="55"/>
       <c r="K125" s="23"/>
       <c r="L125" s="24"/>
       <c r="M125" s="22"/>
@@ -12576,7 +12602,7 @@
       <c r="G126" s="28"/>
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
-      <c r="J126" s="54"/>
+      <c r="J126" s="55"/>
       <c r="K126" s="23"/>
       <c r="L126" s="24"/>
       <c r="M126" s="22"/>
@@ -12593,7 +12619,7 @@
       <c r="G127" s="28"/>
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
-      <c r="J127" s="54"/>
+      <c r="J127" s="55"/>
       <c r="K127" s="23"/>
       <c r="L127" s="24"/>
       <c r="M127" s="22"/>
@@ -12610,7 +12636,7 @@
       <c r="G128" s="28"/>
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
-      <c r="J128" s="54"/>
+      <c r="J128" s="55"/>
       <c r="K128" s="23"/>
       <c r="L128" s="24"/>
       <c r="M128" s="22"/>
@@ -12627,7 +12653,7 @@
       <c r="G129" s="28"/>
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
-      <c r="J129" s="54"/>
+      <c r="J129" s="55"/>
       <c r="K129" s="23"/>
       <c r="L129" s="24"/>
       <c r="M129" s="22"/>
@@ -12644,7 +12670,7 @@
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
       <c r="I130" s="28"/>
-      <c r="J130" s="54"/>
+      <c r="J130" s="55"/>
       <c r="K130" s="23"/>
       <c r="L130" s="24"/>
       <c r="M130" s="22"/>
@@ -12661,7 +12687,7 @@
       <c r="G131" s="28"/>
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
-      <c r="J131" s="54"/>
+      <c r="J131" s="55"/>
       <c r="K131" s="23"/>
       <c r="L131" s="24"/>
       <c r="M131" s="22"/>
@@ -12678,7 +12704,7 @@
       <c r="G132" s="28"/>
       <c r="H132" s="28"/>
       <c r="I132" s="28"/>
-      <c r="J132" s="54"/>
+      <c r="J132" s="55"/>
       <c r="K132" s="23"/>
       <c r="L132" s="24"/>
       <c r="M132" s="22"/>
@@ -12695,7 +12721,7 @@
       <c r="G133" s="28"/>
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
-      <c r="J133" s="54"/>
+      <c r="J133" s="55"/>
       <c r="K133" s="23"/>
       <c r="L133" s="24"/>
       <c r="M133" s="22"/>
@@ -12712,7 +12738,7 @@
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
       <c r="I134" s="28"/>
-      <c r="J134" s="54"/>
+      <c r="J134" s="55"/>
       <c r="K134" s="23"/>
       <c r="L134" s="24"/>
       <c r="M134" s="22"/>
@@ -12729,7 +12755,7 @@
       <c r="G135" s="28"/>
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
-      <c r="J135" s="54"/>
+      <c r="J135" s="55"/>
       <c r="K135" s="23"/>
       <c r="L135" s="24"/>
       <c r="M135" s="22"/>
@@ -12746,7 +12772,7 @@
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
-      <c r="J136" s="54"/>
+      <c r="J136" s="55"/>
       <c r="K136" s="23"/>
       <c r="L136" s="24"/>
       <c r="M136" s="22"/>
@@ -12763,7 +12789,7 @@
       <c r="G137" s="28"/>
       <c r="H137" s="28"/>
       <c r="I137" s="28"/>
-      <c r="J137" s="54"/>
+      <c r="J137" s="55"/>
       <c r="K137" s="23"/>
       <c r="L137" s="24"/>
       <c r="M137" s="22"/>
@@ -12780,7 +12806,7 @@
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
       <c r="I138" s="28"/>
-      <c r="J138" s="54"/>
+      <c r="J138" s="55"/>
       <c r="K138" s="23"/>
       <c r="L138" s="24"/>
       <c r="M138" s="22"/>
@@ -12797,7 +12823,7 @@
       <c r="G139" s="28"/>
       <c r="H139" s="28"/>
       <c r="I139" s="28"/>
-      <c r="J139" s="54"/>
+      <c r="J139" s="55"/>
       <c r="K139" s="23"/>
       <c r="L139" s="24"/>
       <c r="M139" s="22"/>
@@ -12814,7 +12840,7 @@
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
       <c r="I140" s="28"/>
-      <c r="J140" s="54"/>
+      <c r="J140" s="55"/>
       <c r="K140" s="23"/>
       <c r="L140" s="24"/>
       <c r="M140" s="22"/>
@@ -12831,7 +12857,7 @@
       <c r="G141" s="28"/>
       <c r="H141" s="28"/>
       <c r="I141" s="28"/>
-      <c r="J141" s="54"/>
+      <c r="J141" s="55"/>
       <c r="K141" s="23"/>
       <c r="L141" s="24"/>
       <c r="M141" s="22"/>
@@ -12848,7 +12874,7 @@
       <c r="G142" s="28"/>
       <c r="H142" s="28"/>
       <c r="I142" s="28"/>
-      <c r="J142" s="54"/>
+      <c r="J142" s="55"/>
       <c r="K142" s="23"/>
       <c r="L142" s="24"/>
       <c r="M142" s="22"/>
@@ -12865,7 +12891,7 @@
       <c r="G143" s="28"/>
       <c r="H143" s="28"/>
       <c r="I143" s="28"/>
-      <c r="J143" s="54"/>
+      <c r="J143" s="55"/>
       <c r="K143" s="23"/>
       <c r="L143" s="24"/>
       <c r="M143" s="22"/>
@@ -12882,7 +12908,7 @@
       <c r="G144" s="28"/>
       <c r="H144" s="28"/>
       <c r="I144" s="28"/>
-      <c r="J144" s="54"/>
+      <c r="J144" s="55"/>
       <c r="K144" s="23"/>
       <c r="L144" s="24"/>
       <c r="M144" s="22"/>
@@ -12899,7 +12925,7 @@
       <c r="G145" s="28"/>
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
-      <c r="J145" s="54"/>
+      <c r="J145" s="55"/>
       <c r="K145" s="23"/>
       <c r="L145" s="24"/>
       <c r="M145" s="22"/>
@@ -12916,7 +12942,7 @@
       <c r="G146" s="28"/>
       <c r="H146" s="28"/>
       <c r="I146" s="28"/>
-      <c r="J146" s="54"/>
+      <c r="J146" s="55"/>
       <c r="K146" s="23"/>
       <c r="L146" s="24"/>
       <c r="M146" s="22"/>
@@ -12933,7 +12959,7 @@
       <c r="G147" s="28"/>
       <c r="H147" s="28"/>
       <c r="I147" s="28"/>
-      <c r="J147" s="54"/>
+      <c r="J147" s="55"/>
       <c r="K147" s="23"/>
       <c r="L147" s="24"/>
       <c r="M147" s="22"/>
@@ -12950,7 +12976,7 @@
       <c r="G148" s="28"/>
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
-      <c r="J148" s="54"/>
+      <c r="J148" s="55"/>
       <c r="K148" s="23"/>
       <c r="L148" s="24"/>
       <c r="M148" s="22"/>
@@ -12967,7 +12993,7 @@
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
-      <c r="J149" s="54"/>
+      <c r="J149" s="55"/>
       <c r="K149" s="23"/>
       <c r="L149" s="24"/>
       <c r="M149" s="22"/>
@@ -12984,7 +13010,7 @@
       <c r="G150" s="28"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
-      <c r="J150" s="54"/>
+      <c r="J150" s="55"/>
       <c r="K150" s="23"/>
       <c r="L150" s="24"/>
       <c r="M150" s="22"/>
@@ -13001,7 +13027,7 @@
       <c r="G151" s="28"/>
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
-      <c r="J151" s="54"/>
+      <c r="J151" s="55"/>
       <c r="K151" s="23"/>
       <c r="L151" s="24"/>
       <c r="M151" s="22"/>
@@ -13018,7 +13044,7 @@
       <c r="G152" s="28"/>
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
-      <c r="J152" s="54"/>
+      <c r="J152" s="55"/>
       <c r="K152" s="23"/>
       <c r="L152" s="24"/>
       <c r="M152" s="22"/>
@@ -13035,7 +13061,7 @@
       <c r="G153" s="28"/>
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
-      <c r="J153" s="54"/>
+      <c r="J153" s="55"/>
       <c r="K153" s="23"/>
       <c r="L153" s="24"/>
       <c r="M153" s="22"/>
@@ -13052,7 +13078,7 @@
       <c r="G154" s="28"/>
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
-      <c r="J154" s="54"/>
+      <c r="J154" s="55"/>
       <c r="K154" s="23"/>
       <c r="L154" s="24"/>
       <c r="M154" s="22"/>
@@ -13069,7 +13095,7 @@
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
-      <c r="J155" s="54"/>
+      <c r="J155" s="55"/>
       <c r="K155" s="23"/>
       <c r="L155" s="24"/>
       <c r="M155" s="22"/>
@@ -13086,7 +13112,7 @@
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
-      <c r="J156" s="54"/>
+      <c r="J156" s="55"/>
       <c r="K156" s="23"/>
       <c r="L156" s="24"/>
       <c r="M156" s="22"/>
@@ -13103,7 +13129,7 @@
       <c r="G157" s="28"/>
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
-      <c r="J157" s="54"/>
+      <c r="J157" s="55"/>
       <c r="K157" s="23"/>
       <c r="L157" s="24"/>
       <c r="M157" s="22"/>
@@ -13120,7 +13146,7 @@
       <c r="G158" s="28"/>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
-      <c r="J158" s="54"/>
+      <c r="J158" s="55"/>
       <c r="K158" s="23"/>
       <c r="L158" s="24"/>
       <c r="M158" s="22"/>
@@ -13137,7 +13163,7 @@
       <c r="G159" s="28"/>
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
-      <c r="J159" s="54"/>
+      <c r="J159" s="55"/>
       <c r="K159" s="23"/>
       <c r="L159" s="24"/>
       <c r="M159" s="22"/>
@@ -13154,7 +13180,7 @@
       <c r="G160" s="28"/>
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
-      <c r="J160" s="54"/>
+      <c r="J160" s="55"/>
       <c r="K160" s="23"/>
       <c r="L160" s="24"/>
       <c r="M160" s="22"/>
@@ -13171,7 +13197,7 @@
       <c r="G161" s="28"/>
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
-      <c r="J161" s="54"/>
+      <c r="J161" s="55"/>
       <c r="K161" s="23"/>
       <c r="L161" s="24"/>
       <c r="M161" s="22"/>
@@ -13188,7 +13214,7 @@
       <c r="G162" s="28"/>
       <c r="H162" s="28"/>
       <c r="I162" s="28"/>
-      <c r="J162" s="54"/>
+      <c r="J162" s="55"/>
       <c r="K162" s="23"/>
       <c r="L162" s="24"/>
       <c r="M162" s="22"/>
@@ -13205,7 +13231,7 @@
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
       <c r="I163" s="28"/>
-      <c r="J163" s="54"/>
+      <c r="J163" s="55"/>
       <c r="K163" s="23"/>
       <c r="L163" s="24"/>
       <c r="M163" s="22"/>
@@ -13222,7 +13248,7 @@
       <c r="G164" s="28"/>
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
-      <c r="J164" s="54"/>
+      <c r="J164" s="55"/>
       <c r="K164" s="23"/>
       <c r="L164" s="24"/>
       <c r="M164" s="22"/>
@@ -13239,7 +13265,7 @@
       <c r="G165" s="28"/>
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
-      <c r="J165" s="54"/>
+      <c r="J165" s="55"/>
       <c r="K165" s="23"/>
       <c r="L165" s="24"/>
       <c r="M165" s="22"/>
@@ -13256,7 +13282,7 @@
       <c r="G166" s="28"/>
       <c r="H166" s="28"/>
       <c r="I166" s="28"/>
-      <c r="J166" s="54"/>
+      <c r="J166" s="55"/>
       <c r="K166" s="23"/>
       <c r="L166" s="24"/>
       <c r="M166" s="22"/>
@@ -13273,7 +13299,7 @@
       <c r="G167" s="28"/>
       <c r="H167" s="28"/>
       <c r="I167" s="28"/>
-      <c r="J167" s="54"/>
+      <c r="J167" s="55"/>
       <c r="K167" s="23"/>
       <c r="L167" s="24"/>
       <c r="M167" s="22"/>
@@ -13290,7 +13316,7 @@
       <c r="G168" s="28"/>
       <c r="H168" s="28"/>
       <c r="I168" s="28"/>
-      <c r="J168" s="54"/>
+      <c r="J168" s="55"/>
       <c r="K168" s="23"/>
       <c r="L168" s="24"/>
       <c r="M168" s="22"/>
@@ -13307,7 +13333,7 @@
       <c r="G169" s="28"/>
       <c r="H169" s="28"/>
       <c r="I169" s="28"/>
-      <c r="J169" s="54"/>
+      <c r="J169" s="55"/>
       <c r="K169" s="23"/>
       <c r="L169" s="24"/>
       <c r="M169" s="22"/>
@@ -13324,7 +13350,7 @@
       <c r="G170" s="28"/>
       <c r="H170" s="28"/>
       <c r="I170" s="28"/>
-      <c r="J170" s="54"/>
+      <c r="J170" s="55"/>
       <c r="K170" s="23"/>
       <c r="L170" s="24"/>
       <c r="M170" s="22"/>
@@ -13341,7 +13367,7 @@
       <c r="G171" s="28"/>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
-      <c r="J171" s="54"/>
+      <c r="J171" s="55"/>
       <c r="K171" s="23"/>
       <c r="L171" s="24"/>
       <c r="M171" s="22"/>
@@ -13358,7 +13384,7 @@
       <c r="G172" s="28"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
-      <c r="J172" s="54"/>
+      <c r="J172" s="55"/>
       <c r="K172" s="23"/>
       <c r="L172" s="24"/>
       <c r="M172" s="22"/>
@@ -13375,7 +13401,7 @@
       <c r="G173" s="28"/>
       <c r="H173" s="28"/>
       <c r="I173" s="28"/>
-      <c r="J173" s="54"/>
+      <c r="J173" s="55"/>
       <c r="K173" s="23"/>
       <c r="L173" s="24"/>
       <c r="M173" s="22"/>
@@ -13392,7 +13418,7 @@
       <c r="G174" s="28"/>
       <c r="H174" s="28"/>
       <c r="I174" s="28"/>
-      <c r="J174" s="54"/>
+      <c r="J174" s="55"/>
       <c r="K174" s="23"/>
       <c r="L174" s="24"/>
       <c r="M174" s="22"/>
@@ -13409,7 +13435,7 @@
       <c r="G175" s="28"/>
       <c r="H175" s="28"/>
       <c r="I175" s="28"/>
-      <c r="J175" s="54"/>
+      <c r="J175" s="55"/>
       <c r="K175" s="23"/>
       <c r="L175" s="24"/>
       <c r="M175" s="22"/>
@@ -13426,7 +13452,7 @@
       <c r="G176" s="28"/>
       <c r="H176" s="28"/>
       <c r="I176" s="28"/>
-      <c r="J176" s="54"/>
+      <c r="J176" s="55"/>
       <c r="K176" s="23"/>
       <c r="L176" s="24"/>
       <c r="M176" s="22"/>
@@ -13443,7 +13469,7 @@
       <c r="G177" s="28"/>
       <c r="H177" s="28"/>
       <c r="I177" s="28"/>
-      <c r="J177" s="54"/>
+      <c r="J177" s="55"/>
       <c r="K177" s="23"/>
       <c r="L177" s="24"/>
       <c r="M177" s="22"/>
@@ -13460,7 +13486,7 @@
       <c r="G178" s="28"/>
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
-      <c r="J178" s="54"/>
+      <c r="J178" s="55"/>
       <c r="K178" s="23"/>
       <c r="L178" s="24"/>
       <c r="M178" s="22"/>
@@ -13477,7 +13503,7 @@
       <c r="G179" s="28"/>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
-      <c r="J179" s="54"/>
+      <c r="J179" s="55"/>
       <c r="K179" s="23"/>
       <c r="L179" s="24"/>
       <c r="M179" s="22"/>
@@ -13494,7 +13520,7 @@
       <c r="G180" s="28"/>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
-      <c r="J180" s="54"/>
+      <c r="J180" s="55"/>
       <c r="K180" s="23"/>
       <c r="L180" s="24"/>
       <c r="M180" s="22"/>
@@ -13511,7 +13537,7 @@
       <c r="G181" s="28"/>
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
-      <c r="J181" s="54"/>
+      <c r="J181" s="55"/>
       <c r="K181" s="23"/>
       <c r="L181" s="24"/>
       <c r="M181" s="22"/>
@@ -13528,7 +13554,7 @@
       <c r="G182" s="28"/>
       <c r="H182" s="28"/>
       <c r="I182" s="28"/>
-      <c r="J182" s="54"/>
+      <c r="J182" s="55"/>
       <c r="K182" s="23"/>
       <c r="L182" s="24"/>
       <c r="M182" s="22"/>
@@ -13545,12 +13571,46 @@
       <c r="G183" s="28"/>
       <c r="H183" s="28"/>
       <c r="I183" s="28"/>
-      <c r="J183" s="54"/>
+      <c r="J183" s="55"/>
       <c r="K183" s="23"/>
       <c r="L183" s="24"/>
       <c r="M183" s="22"/>
       <c r="N183" s="24"/>
       <c r="O183" s="23"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A184" s="20"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="55"/>
+      <c r="K184" s="23"/>
+      <c r="L184" s="24"/>
+      <c r="M184" s="22"/>
+      <c r="N184" s="24"/>
+      <c r="O184" s="23"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A185" s="20"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="55"/>
+      <c r="K185" s="23"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="22"/>
+      <c r="N185" s="24"/>
+      <c r="O185" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13559,18 +13619,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N84:N183">
+  <conditionalFormatting sqref="N86:N185">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N83">
+  <conditionalFormatting sqref="N1 N3:N85">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13582,10 +13642,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C43 C44 C45 C46 C49 C50 C51 C7:C8 C15:C16 C25:C26 C29:C30 C40:C42 C47:C48 C52:C183">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C45 C46 C47 C48 C51 C52 C53 C7:C8 C15:C16 C25:C26 C42:C44 C49:C50 C54:C185">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D31 D32 D33 D34 D35 D36 D37 D38 D39 D43 D44 D45 D46 D49 D50 D51 D7:D8 D15:D16 D29:D30 D40:D42 D47:D48 D52:D183">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D45 D46 D47 D48 D51 D52 D53 D7:D8 D15:D16 D42:D44 D49:D50 D54:D185">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="834">
   <si>
     <t>target</t>
   </si>
@@ -9950,8 +9950,8 @@
   <sheetPr/>
   <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10751,12 +10751,14 @@
         <v>30</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="E30" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>797</v>
+      </c>
+      <c r="F30" s="43" t="s">
         <v>798</v>
       </c>
-      <c r="F30" s="42"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
@@ -10801,12 +10803,14 @@
         <v>30</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="E32" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>800</v>
+      </c>
+      <c r="F32" s="43" t="s">
         <v>801</v>
       </c>
-      <c r="F32" s="29"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -9951,7 +9951,7 @@
   <dimension ref="A1:O185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A38"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="831">
   <si>
     <t>target</t>
   </si>
@@ -2480,16 +2480,7 @@
     <t>Again click on filter to see the Entered date</t>
   </si>
   <si>
-    <t>How this will identify as the fields are empty?</t>
-  </si>
-  <si>
-    <t>Verify already Entered From date</t>
-  </si>
-  <si>
     <t>Verify the value is not presenting in From date</t>
-  </si>
-  <si>
-    <t>Verify already Entered To date</t>
   </si>
   <si>
     <t>Verify the value is not presenting in To date</t>
@@ -2577,7 +2568,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2655,8 +2646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2676,6 +2666,12 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -3192,14 +3188,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3208,119 +3201,122 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3451,23 +3447,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3521,15 +3513,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3540,7 +3532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -6662,14 +6654,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="44"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="45"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -6683,12 +6675,12 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="44"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -6700,7 +6692,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="48"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -6735,10 +6727,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -6753,7 +6745,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -6768,69 +6760,69 @@
       <c r="E5" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="60" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="52"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="65"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="52"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="52"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="52"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="20"/>
@@ -6842,7 +6834,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
       <c r="M9" s="22"/>
@@ -6859,7 +6851,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
       <c r="M10" s="22"/>
@@ -6876,7 +6868,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
       <c r="M11" s="22"/>
@@ -6893,7 +6885,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
       <c r="M12" s="22"/>
@@ -6910,7 +6902,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="55"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="23"/>
       <c r="L13" s="24"/>
       <c r="M13" s="22"/>
@@ -6927,7 +6919,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
       <c r="M14" s="22"/>
@@ -6944,7 +6936,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="55"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
       <c r="M15" s="22"/>
@@ -6953,7 +6945,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="20"/>
-      <c r="B16" s="71"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -6961,7 +6953,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
       <c r="M16" s="22"/>
@@ -6978,7 +6970,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
       <c r="M17" s="22"/>
@@ -6995,7 +6987,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="23"/>
       <c r="L18" s="24"/>
       <c r="M18" s="22"/>
@@ -7012,7 +7004,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="23"/>
       <c r="L19" s="24"/>
       <c r="M19" s="22"/>
@@ -7029,7 +7021,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="23"/>
       <c r="L20" s="24"/>
       <c r="M20" s="22"/>
@@ -7046,7 +7038,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
       <c r="M21" s="22"/>
@@ -7063,7 +7055,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
       <c r="M22" s="22"/>
@@ -7080,7 +7072,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="55"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24"/>
       <c r="M23" s="22"/>
@@ -7097,7 +7089,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="55"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="22"/>
@@ -7114,7 +7106,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="23"/>
       <c r="L25" s="24"/>
       <c r="M25" s="22"/>
@@ -7131,7 +7123,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="55"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="23"/>
       <c r="L26" s="24"/>
       <c r="M26" s="22"/>
@@ -7148,7 +7140,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="55"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
       <c r="M27" s="22"/>
@@ -7165,7 +7157,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="55"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="23"/>
       <c r="L28" s="24"/>
       <c r="M28" s="22"/>
@@ -7182,7 +7174,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="55"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="23"/>
       <c r="L29" s="24"/>
       <c r="M29" s="22"/>
@@ -7199,7 +7191,7 @@
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="55"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
       <c r="M30" s="22"/>
@@ -7216,7 +7208,7 @@
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="55"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
       <c r="M31" s="22"/>
@@ -7233,7 +7225,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="55"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
       <c r="M32" s="22"/>
@@ -7250,7 +7242,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="55"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
       <c r="M33" s="22"/>
@@ -7267,7 +7259,7 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="55"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="23"/>
       <c r="L34" s="24"/>
       <c r="M34" s="22"/>
@@ -7284,7 +7276,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="55"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
       <c r="M35" s="22"/>
@@ -7301,7 +7293,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="55"/>
+      <c r="J36" s="54"/>
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
       <c r="M36" s="22"/>
@@ -7318,7 +7310,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="55"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
       <c r="M37" s="22"/>
@@ -7335,7 +7327,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="55"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="22"/>
@@ -7352,7 +7344,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="55"/>
+      <c r="J39" s="54"/>
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
       <c r="M39" s="22"/>
@@ -7369,7 +7361,7 @@
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="55"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="23"/>
       <c r="L40" s="24"/>
       <c r="M40" s="22"/>
@@ -7386,7 +7378,7 @@
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="55"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="23"/>
       <c r="L41" s="24"/>
       <c r="M41" s="22"/>
@@ -7403,7 +7395,7 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="55"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="23"/>
       <c r="L42" s="24"/>
       <c r="M42" s="22"/>
@@ -7420,7 +7412,7 @@
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="55"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="23"/>
       <c r="L43" s="24"/>
       <c r="M43" s="22"/>
@@ -7437,7 +7429,7 @@
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="55"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="23"/>
       <c r="L44" s="24"/>
       <c r="M44" s="22"/>
@@ -7454,7 +7446,7 @@
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="55"/>
+      <c r="J45" s="54"/>
       <c r="K45" s="23"/>
       <c r="L45" s="24"/>
       <c r="M45" s="22"/>
@@ -7471,7 +7463,7 @@
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="55"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="23"/>
       <c r="L46" s="24"/>
       <c r="M46" s="22"/>
@@ -7488,7 +7480,7 @@
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="55"/>
+      <c r="J47" s="54"/>
       <c r="K47" s="23"/>
       <c r="L47" s="24"/>
       <c r="M47" s="22"/>
@@ -7505,7 +7497,7 @@
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="55"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="23"/>
       <c r="L48" s="24"/>
       <c r="M48" s="22"/>
@@ -7522,7 +7514,7 @@
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="23"/>
       <c r="L49" s="24"/>
       <c r="M49" s="22"/>
@@ -7539,7 +7531,7 @@
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="55"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="23"/>
       <c r="L50" s="24"/>
       <c r="M50" s="22"/>
@@ -7556,7 +7548,7 @@
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="55"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="23"/>
       <c r="L51" s="24"/>
       <c r="M51" s="22"/>
@@ -7573,7 +7565,7 @@
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="55"/>
+      <c r="J52" s="54"/>
       <c r="K52" s="23"/>
       <c r="L52" s="24"/>
       <c r="M52" s="22"/>
@@ -7590,7 +7582,7 @@
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="55"/>
+      <c r="J53" s="54"/>
       <c r="K53" s="23"/>
       <c r="L53" s="24"/>
       <c r="M53" s="22"/>
@@ -7607,7 +7599,7 @@
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="55"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="23"/>
       <c r="L54" s="24"/>
       <c r="M54" s="22"/>
@@ -7624,7 +7616,7 @@
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="54"/>
       <c r="K55" s="23"/>
       <c r="L55" s="24"/>
       <c r="M55" s="22"/>
@@ -7641,7 +7633,7 @@
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="55"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="23"/>
       <c r="L56" s="24"/>
       <c r="M56" s="22"/>
@@ -7658,7 +7650,7 @@
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="55"/>
+      <c r="J57" s="54"/>
       <c r="K57" s="23"/>
       <c r="L57" s="24"/>
       <c r="M57" s="22"/>
@@ -7675,7 +7667,7 @@
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="55"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="23"/>
       <c r="L58" s="24"/>
       <c r="M58" s="22"/>
@@ -7692,7 +7684,7 @@
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
-      <c r="J59" s="55"/>
+      <c r="J59" s="54"/>
       <c r="K59" s="23"/>
       <c r="L59" s="24"/>
       <c r="M59" s="22"/>
@@ -7709,7 +7701,7 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="55"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="23"/>
       <c r="L60" s="24"/>
       <c r="M60" s="22"/>
@@ -7726,7 +7718,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
-      <c r="J61" s="55"/>
+      <c r="J61" s="54"/>
       <c r="K61" s="23"/>
       <c r="L61" s="24"/>
       <c r="M61" s="22"/>
@@ -7743,7 +7735,7 @@
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
-      <c r="J62" s="55"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="23"/>
       <c r="L62" s="24"/>
       <c r="M62" s="22"/>
@@ -7760,7 +7752,7 @@
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
-      <c r="J63" s="55"/>
+      <c r="J63" s="54"/>
       <c r="K63" s="23"/>
       <c r="L63" s="24"/>
       <c r="M63" s="22"/>
@@ -7777,7 +7769,7 @@
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
-      <c r="J64" s="55"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="23"/>
       <c r="L64" s="24"/>
       <c r="M64" s="22"/>
@@ -7794,7 +7786,7 @@
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
-      <c r="J65" s="55"/>
+      <c r="J65" s="54"/>
       <c r="K65" s="23"/>
       <c r="L65" s="24"/>
       <c r="M65" s="22"/>
@@ -7811,7 +7803,7 @@
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
-      <c r="J66" s="55"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="23"/>
       <c r="L66" s="24"/>
       <c r="M66" s="22"/>
@@ -7828,7 +7820,7 @@
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
-      <c r="J67" s="55"/>
+      <c r="J67" s="54"/>
       <c r="K67" s="23"/>
       <c r="L67" s="24"/>
       <c r="M67" s="22"/>
@@ -7845,7 +7837,7 @@
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
-      <c r="J68" s="55"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="23"/>
       <c r="L68" s="24"/>
       <c r="M68" s="22"/>
@@ -7862,7 +7854,7 @@
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
-      <c r="J69" s="55"/>
+      <c r="J69" s="54"/>
       <c r="K69" s="23"/>
       <c r="L69" s="24"/>
       <c r="M69" s="22"/>
@@ -7879,7 +7871,7 @@
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
-      <c r="J70" s="55"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="23"/>
       <c r="L70" s="24"/>
       <c r="M70" s="22"/>
@@ -7896,7 +7888,7 @@
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
-      <c r="J71" s="55"/>
+      <c r="J71" s="54"/>
       <c r="K71" s="23"/>
       <c r="L71" s="24"/>
       <c r="M71" s="22"/>
@@ -7913,7 +7905,7 @@
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
-      <c r="J72" s="55"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="23"/>
       <c r="L72" s="24"/>
       <c r="M72" s="22"/>
@@ -7930,7 +7922,7 @@
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
-      <c r="J73" s="55"/>
+      <c r="J73" s="54"/>
       <c r="K73" s="23"/>
       <c r="L73" s="24"/>
       <c r="M73" s="22"/>
@@ -7947,7 +7939,7 @@
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
-      <c r="J74" s="55"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="23"/>
       <c r="L74" s="24"/>
       <c r="M74" s="22"/>
@@ -7964,7 +7956,7 @@
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
-      <c r="J75" s="55"/>
+      <c r="J75" s="54"/>
       <c r="K75" s="23"/>
       <c r="L75" s="24"/>
       <c r="M75" s="22"/>
@@ -7981,7 +7973,7 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
-      <c r="J76" s="55"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="23"/>
       <c r="L76" s="24"/>
       <c r="M76" s="22"/>
@@ -7998,7 +7990,7 @@
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
-      <c r="J77" s="55"/>
+      <c r="J77" s="54"/>
       <c r="K77" s="23"/>
       <c r="L77" s="24"/>
       <c r="M77" s="22"/>
@@ -8015,7 +8007,7 @@
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
-      <c r="J78" s="55"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="23"/>
       <c r="L78" s="24"/>
       <c r="M78" s="22"/>
@@ -8032,7 +8024,7 @@
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
-      <c r="J79" s="55"/>
+      <c r="J79" s="54"/>
       <c r="K79" s="23"/>
       <c r="L79" s="24"/>
       <c r="M79" s="22"/>
@@ -8049,7 +8041,7 @@
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
-      <c r="J80" s="55"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="23"/>
       <c r="L80" s="24"/>
       <c r="M80" s="22"/>
@@ -8066,7 +8058,7 @@
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
-      <c r="J81" s="55"/>
+      <c r="J81" s="54"/>
       <c r="K81" s="23"/>
       <c r="L81" s="24"/>
       <c r="M81" s="22"/>
@@ -8083,7 +8075,7 @@
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="55"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="23"/>
       <c r="L82" s="24"/>
       <c r="M82" s="22"/>
@@ -8100,7 +8092,7 @@
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
-      <c r="J83" s="55"/>
+      <c r="J83" s="54"/>
       <c r="K83" s="23"/>
       <c r="L83" s="24"/>
       <c r="M83" s="22"/>
@@ -8117,7 +8109,7 @@
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
-      <c r="J84" s="55"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="23"/>
       <c r="L84" s="24"/>
       <c r="M84" s="22"/>
@@ -8134,7 +8126,7 @@
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
-      <c r="J85" s="55"/>
+      <c r="J85" s="54"/>
       <c r="K85" s="23"/>
       <c r="L85" s="24"/>
       <c r="M85" s="22"/>
@@ -8151,7 +8143,7 @@
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
-      <c r="J86" s="55"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="23"/>
       <c r="L86" s="24"/>
       <c r="M86" s="22"/>
@@ -8168,7 +8160,7 @@
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
-      <c r="J87" s="55"/>
+      <c r="J87" s="54"/>
       <c r="K87" s="23"/>
       <c r="L87" s="24"/>
       <c r="M87" s="22"/>
@@ -8185,7 +8177,7 @@
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
-      <c r="J88" s="55"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="23"/>
       <c r="L88" s="24"/>
       <c r="M88" s="22"/>
@@ -8202,7 +8194,7 @@
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
-      <c r="J89" s="55"/>
+      <c r="J89" s="54"/>
       <c r="K89" s="23"/>
       <c r="L89" s="24"/>
       <c r="M89" s="22"/>
@@ -8219,7 +8211,7 @@
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
-      <c r="J90" s="55"/>
+      <c r="J90" s="54"/>
       <c r="K90" s="23"/>
       <c r="L90" s="24"/>
       <c r="M90" s="22"/>
@@ -8236,7 +8228,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
-      <c r="J91" s="55"/>
+      <c r="J91" s="54"/>
       <c r="K91" s="23"/>
       <c r="L91" s="24"/>
       <c r="M91" s="22"/>
@@ -8253,7 +8245,7 @@
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
-      <c r="J92" s="55"/>
+      <c r="J92" s="54"/>
       <c r="K92" s="23"/>
       <c r="L92" s="24"/>
       <c r="M92" s="22"/>
@@ -8270,7 +8262,7 @@
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
-      <c r="J93" s="55"/>
+      <c r="J93" s="54"/>
       <c r="K93" s="23"/>
       <c r="L93" s="24"/>
       <c r="M93" s="22"/>
@@ -8287,7 +8279,7 @@
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
-      <c r="J94" s="55"/>
+      <c r="J94" s="54"/>
       <c r="K94" s="23"/>
       <c r="L94" s="24"/>
       <c r="M94" s="22"/>
@@ -8304,7 +8296,7 @@
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
-      <c r="J95" s="55"/>
+      <c r="J95" s="54"/>
       <c r="K95" s="23"/>
       <c r="L95" s="24"/>
       <c r="M95" s="22"/>
@@ -8321,7 +8313,7 @@
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
-      <c r="J96" s="55"/>
+      <c r="J96" s="54"/>
       <c r="K96" s="23"/>
       <c r="L96" s="24"/>
       <c r="M96" s="22"/>
@@ -8338,7 +8330,7 @@
       <c r="G97" s="28"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
-      <c r="J97" s="55"/>
+      <c r="J97" s="54"/>
       <c r="K97" s="23"/>
       <c r="L97" s="24"/>
       <c r="M97" s="22"/>
@@ -8355,7 +8347,7 @@
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
-      <c r="J98" s="55"/>
+      <c r="J98" s="54"/>
       <c r="K98" s="23"/>
       <c r="L98" s="24"/>
       <c r="M98" s="22"/>
@@ -8372,7 +8364,7 @@
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
-      <c r="J99" s="55"/>
+      <c r="J99" s="54"/>
       <c r="K99" s="23"/>
       <c r="L99" s="24"/>
       <c r="M99" s="22"/>
@@ -8389,7 +8381,7 @@
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
-      <c r="J100" s="55"/>
+      <c r="J100" s="54"/>
       <c r="K100" s="23"/>
       <c r="L100" s="24"/>
       <c r="M100" s="22"/>
@@ -8406,7 +8398,7 @@
       <c r="G101" s="28"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
-      <c r="J101" s="55"/>
+      <c r="J101" s="54"/>
       <c r="K101" s="23"/>
       <c r="L101" s="24"/>
       <c r="M101" s="22"/>
@@ -8423,7 +8415,7 @@
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
-      <c r="J102" s="55"/>
+      <c r="J102" s="54"/>
       <c r="K102" s="23"/>
       <c r="L102" s="24"/>
       <c r="M102" s="22"/>
@@ -8440,7 +8432,7 @@
       <c r="G103" s="28"/>
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
-      <c r="J103" s="55"/>
+      <c r="J103" s="54"/>
       <c r="K103" s="23"/>
       <c r="L103" s="24"/>
       <c r="M103" s="22"/>
@@ -8457,7 +8449,7 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
-      <c r="J104" s="55"/>
+      <c r="J104" s="54"/>
       <c r="K104" s="23"/>
       <c r="L104" s="24"/>
       <c r="M104" s="22"/>
@@ -8474,7 +8466,7 @@
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
-      <c r="J105" s="55"/>
+      <c r="J105" s="54"/>
       <c r="K105" s="23"/>
       <c r="L105" s="24"/>
       <c r="M105" s="22"/>
@@ -8491,7 +8483,7 @@
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
-      <c r="J106" s="55"/>
+      <c r="J106" s="54"/>
       <c r="K106" s="23"/>
       <c r="L106" s="24"/>
       <c r="M106" s="22"/>
@@ -8508,7 +8500,7 @@
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
-      <c r="J107" s="55"/>
+      <c r="J107" s="54"/>
       <c r="K107" s="23"/>
       <c r="L107" s="24"/>
       <c r="M107" s="22"/>
@@ -8525,7 +8517,7 @@
       <c r="G108" s="28"/>
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
-      <c r="J108" s="55"/>
+      <c r="J108" s="54"/>
       <c r="K108" s="23"/>
       <c r="L108" s="24"/>
       <c r="M108" s="22"/>
@@ -8542,7 +8534,7 @@
       <c r="G109" s="28"/>
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
-      <c r="J109" s="55"/>
+      <c r="J109" s="54"/>
       <c r="K109" s="23"/>
       <c r="L109" s="24"/>
       <c r="M109" s="22"/>
@@ -8559,7 +8551,7 @@
       <c r="G110" s="28"/>
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
-      <c r="J110" s="55"/>
+      <c r="J110" s="54"/>
       <c r="K110" s="23"/>
       <c r="L110" s="24"/>
       <c r="M110" s="22"/>
@@ -8576,7 +8568,7 @@
       <c r="G111" s="28"/>
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
-      <c r="J111" s="55"/>
+      <c r="J111" s="54"/>
       <c r="K111" s="23"/>
       <c r="L111" s="24"/>
       <c r="M111" s="22"/>
@@ -8593,7 +8585,7 @@
       <c r="G112" s="28"/>
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
-      <c r="J112" s="55"/>
+      <c r="J112" s="54"/>
       <c r="K112" s="23"/>
       <c r="L112" s="24"/>
       <c r="M112" s="22"/>
@@ -8610,7 +8602,7 @@
       <c r="G113" s="28"/>
       <c r="H113" s="28"/>
       <c r="I113" s="28"/>
-      <c r="J113" s="55"/>
+      <c r="J113" s="54"/>
       <c r="K113" s="23"/>
       <c r="L113" s="24"/>
       <c r="M113" s="22"/>
@@ -8627,7 +8619,7 @@
       <c r="G114" s="28"/>
       <c r="H114" s="28"/>
       <c r="I114" s="28"/>
-      <c r="J114" s="55"/>
+      <c r="J114" s="54"/>
       <c r="K114" s="23"/>
       <c r="L114" s="24"/>
       <c r="M114" s="22"/>
@@ -8644,7 +8636,7 @@
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
-      <c r="J115" s="55"/>
+      <c r="J115" s="54"/>
       <c r="K115" s="23"/>
       <c r="L115" s="24"/>
       <c r="M115" s="22"/>
@@ -8661,7 +8653,7 @@
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
-      <c r="J116" s="55"/>
+      <c r="J116" s="54"/>
       <c r="K116" s="23"/>
       <c r="L116" s="24"/>
       <c r="M116" s="22"/>
@@ -8678,7 +8670,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
       <c r="I117" s="28"/>
-      <c r="J117" s="55"/>
+      <c r="J117" s="54"/>
       <c r="K117" s="23"/>
       <c r="L117" s="24"/>
       <c r="M117" s="22"/>
@@ -8695,7 +8687,7 @@
       <c r="G118" s="28"/>
       <c r="H118" s="28"/>
       <c r="I118" s="28"/>
-      <c r="J118" s="55"/>
+      <c r="J118" s="54"/>
       <c r="K118" s="23"/>
       <c r="L118" s="24"/>
       <c r="M118" s="22"/>
@@ -8712,7 +8704,7 @@
       <c r="G119" s="28"/>
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
-      <c r="J119" s="55"/>
+      <c r="J119" s="54"/>
       <c r="K119" s="23"/>
       <c r="L119" s="24"/>
       <c r="M119" s="22"/>
@@ -8729,7 +8721,7 @@
       <c r="G120" s="28"/>
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
-      <c r="J120" s="55"/>
+      <c r="J120" s="54"/>
       <c r="K120" s="23"/>
       <c r="L120" s="24"/>
       <c r="M120" s="22"/>
@@ -8746,7 +8738,7 @@
       <c r="G121" s="28"/>
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
-      <c r="J121" s="55"/>
+      <c r="J121" s="54"/>
       <c r="K121" s="23"/>
       <c r="L121" s="24"/>
       <c r="M121" s="22"/>
@@ -8763,7 +8755,7 @@
       <c r="G122" s="28"/>
       <c r="H122" s="28"/>
       <c r="I122" s="28"/>
-      <c r="J122" s="55"/>
+      <c r="J122" s="54"/>
       <c r="K122" s="23"/>
       <c r="L122" s="24"/>
       <c r="M122" s="22"/>
@@ -8780,7 +8772,7 @@
       <c r="G123" s="28"/>
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
-      <c r="J123" s="55"/>
+      <c r="J123" s="54"/>
       <c r="K123" s="23"/>
       <c r="L123" s="24"/>
       <c r="M123" s="22"/>
@@ -8797,7 +8789,7 @@
       <c r="G124" s="28"/>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
-      <c r="J124" s="55"/>
+      <c r="J124" s="54"/>
       <c r="K124" s="23"/>
       <c r="L124" s="24"/>
       <c r="M124" s="22"/>
@@ -8814,7 +8806,7 @@
       <c r="G125" s="28"/>
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
-      <c r="J125" s="55"/>
+      <c r="J125" s="54"/>
       <c r="K125" s="23"/>
       <c r="L125" s="24"/>
       <c r="M125" s="22"/>
@@ -8831,7 +8823,7 @@
       <c r="G126" s="28"/>
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
-      <c r="J126" s="55"/>
+      <c r="J126" s="54"/>
       <c r="K126" s="23"/>
       <c r="L126" s="24"/>
       <c r="M126" s="22"/>
@@ -8848,7 +8840,7 @@
       <c r="G127" s="28"/>
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
-      <c r="J127" s="55"/>
+      <c r="J127" s="54"/>
       <c r="K127" s="23"/>
       <c r="L127" s="24"/>
       <c r="M127" s="22"/>
@@ -8865,7 +8857,7 @@
       <c r="G128" s="28"/>
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
-      <c r="J128" s="55"/>
+      <c r="J128" s="54"/>
       <c r="K128" s="23"/>
       <c r="L128" s="24"/>
       <c r="M128" s="22"/>
@@ -8882,7 +8874,7 @@
       <c r="G129" s="28"/>
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
-      <c r="J129" s="55"/>
+      <c r="J129" s="54"/>
       <c r="K129" s="23"/>
       <c r="L129" s="24"/>
       <c r="M129" s="22"/>
@@ -8899,7 +8891,7 @@
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
       <c r="I130" s="28"/>
-      <c r="J130" s="55"/>
+      <c r="J130" s="54"/>
       <c r="K130" s="23"/>
       <c r="L130" s="24"/>
       <c r="M130" s="22"/>
@@ -8916,7 +8908,7 @@
       <c r="G131" s="28"/>
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
-      <c r="J131" s="55"/>
+      <c r="J131" s="54"/>
       <c r="K131" s="23"/>
       <c r="L131" s="24"/>
       <c r="M131" s="22"/>
@@ -8933,7 +8925,7 @@
       <c r="G132" s="28"/>
       <c r="H132" s="28"/>
       <c r="I132" s="28"/>
-      <c r="J132" s="55"/>
+      <c r="J132" s="54"/>
       <c r="K132" s="23"/>
       <c r="L132" s="24"/>
       <c r="M132" s="22"/>
@@ -8950,7 +8942,7 @@
       <c r="G133" s="28"/>
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
-      <c r="J133" s="55"/>
+      <c r="J133" s="54"/>
       <c r="K133" s="23"/>
       <c r="L133" s="24"/>
       <c r="M133" s="22"/>
@@ -8967,7 +8959,7 @@
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
       <c r="I134" s="28"/>
-      <c r="J134" s="55"/>
+      <c r="J134" s="54"/>
       <c r="K134" s="23"/>
       <c r="L134" s="24"/>
       <c r="M134" s="22"/>
@@ -8984,7 +8976,7 @@
       <c r="G135" s="28"/>
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
-      <c r="J135" s="55"/>
+      <c r="J135" s="54"/>
       <c r="K135" s="23"/>
       <c r="L135" s="24"/>
       <c r="M135" s="22"/>
@@ -9001,7 +8993,7 @@
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
-      <c r="J136" s="55"/>
+      <c r="J136" s="54"/>
       <c r="K136" s="23"/>
       <c r="L136" s="24"/>
       <c r="M136" s="22"/>
@@ -9018,7 +9010,7 @@
       <c r="G137" s="28"/>
       <c r="H137" s="28"/>
       <c r="I137" s="28"/>
-      <c r="J137" s="55"/>
+      <c r="J137" s="54"/>
       <c r="K137" s="23"/>
       <c r="L137" s="24"/>
       <c r="M137" s="22"/>
@@ -9035,7 +9027,7 @@
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
       <c r="I138" s="28"/>
-      <c r="J138" s="55"/>
+      <c r="J138" s="54"/>
       <c r="K138" s="23"/>
       <c r="L138" s="24"/>
       <c r="M138" s="22"/>
@@ -9052,7 +9044,7 @@
       <c r="G139" s="28"/>
       <c r="H139" s="28"/>
       <c r="I139" s="28"/>
-      <c r="J139" s="55"/>
+      <c r="J139" s="54"/>
       <c r="K139" s="23"/>
       <c r="L139" s="24"/>
       <c r="M139" s="22"/>
@@ -9069,7 +9061,7 @@
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
       <c r="I140" s="28"/>
-      <c r="J140" s="55"/>
+      <c r="J140" s="54"/>
       <c r="K140" s="23"/>
       <c r="L140" s="24"/>
       <c r="M140" s="22"/>
@@ -9086,7 +9078,7 @@
       <c r="G141" s="28"/>
       <c r="H141" s="28"/>
       <c r="I141" s="28"/>
-      <c r="J141" s="55"/>
+      <c r="J141" s="54"/>
       <c r="K141" s="23"/>
       <c r="L141" s="24"/>
       <c r="M141" s="22"/>
@@ -9103,7 +9095,7 @@
       <c r="G142" s="28"/>
       <c r="H142" s="28"/>
       <c r="I142" s="28"/>
-      <c r="J142" s="55"/>
+      <c r="J142" s="54"/>
       <c r="K142" s="23"/>
       <c r="L142" s="24"/>
       <c r="M142" s="22"/>
@@ -9120,7 +9112,7 @@
       <c r="G143" s="28"/>
       <c r="H143" s="28"/>
       <c r="I143" s="28"/>
-      <c r="J143" s="55"/>
+      <c r="J143" s="54"/>
       <c r="K143" s="23"/>
       <c r="L143" s="24"/>
       <c r="M143" s="22"/>
@@ -9137,7 +9129,7 @@
       <c r="G144" s="28"/>
       <c r="H144" s="28"/>
       <c r="I144" s="28"/>
-      <c r="J144" s="55"/>
+      <c r="J144" s="54"/>
       <c r="K144" s="23"/>
       <c r="L144" s="24"/>
       <c r="M144" s="22"/>
@@ -9154,7 +9146,7 @@
       <c r="G145" s="28"/>
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
-      <c r="J145" s="55"/>
+      <c r="J145" s="54"/>
       <c r="K145" s="23"/>
       <c r="L145" s="24"/>
       <c r="M145" s="22"/>
@@ -9171,7 +9163,7 @@
       <c r="G146" s="28"/>
       <c r="H146" s="28"/>
       <c r="I146" s="28"/>
-      <c r="J146" s="55"/>
+      <c r="J146" s="54"/>
       <c r="K146" s="23"/>
       <c r="L146" s="24"/>
       <c r="M146" s="22"/>
@@ -9188,7 +9180,7 @@
       <c r="G147" s="28"/>
       <c r="H147" s="28"/>
       <c r="I147" s="28"/>
-      <c r="J147" s="55"/>
+      <c r="J147" s="54"/>
       <c r="K147" s="23"/>
       <c r="L147" s="24"/>
       <c r="M147" s="22"/>
@@ -9205,7 +9197,7 @@
       <c r="G148" s="28"/>
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
-      <c r="J148" s="55"/>
+      <c r="J148" s="54"/>
       <c r="K148" s="23"/>
       <c r="L148" s="24"/>
       <c r="M148" s="22"/>
@@ -9222,7 +9214,7 @@
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
-      <c r="J149" s="55"/>
+      <c r="J149" s="54"/>
       <c r="K149" s="23"/>
       <c r="L149" s="24"/>
       <c r="M149" s="22"/>
@@ -9239,7 +9231,7 @@
       <c r="G150" s="28"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
-      <c r="J150" s="55"/>
+      <c r="J150" s="54"/>
       <c r="K150" s="23"/>
       <c r="L150" s="24"/>
       <c r="M150" s="22"/>
@@ -9256,7 +9248,7 @@
       <c r="G151" s="28"/>
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
-      <c r="J151" s="55"/>
+      <c r="J151" s="54"/>
       <c r="K151" s="23"/>
       <c r="L151" s="24"/>
       <c r="M151" s="22"/>
@@ -9273,7 +9265,7 @@
       <c r="G152" s="28"/>
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
-      <c r="J152" s="55"/>
+      <c r="J152" s="54"/>
       <c r="K152" s="23"/>
       <c r="L152" s="24"/>
       <c r="M152" s="22"/>
@@ -9290,7 +9282,7 @@
       <c r="G153" s="28"/>
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
-      <c r="J153" s="55"/>
+      <c r="J153" s="54"/>
       <c r="K153" s="23"/>
       <c r="L153" s="24"/>
       <c r="M153" s="22"/>
@@ -9307,7 +9299,7 @@
       <c r="G154" s="28"/>
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
-      <c r="J154" s="55"/>
+      <c r="J154" s="54"/>
       <c r="K154" s="23"/>
       <c r="L154" s="24"/>
       <c r="M154" s="22"/>
@@ -9324,7 +9316,7 @@
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
-      <c r="J155" s="55"/>
+      <c r="J155" s="54"/>
       <c r="K155" s="23"/>
       <c r="L155" s="24"/>
       <c r="M155" s="22"/>
@@ -9341,7 +9333,7 @@
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
-      <c r="J156" s="55"/>
+      <c r="J156" s="54"/>
       <c r="K156" s="23"/>
       <c r="L156" s="24"/>
       <c r="M156" s="22"/>
@@ -9358,7 +9350,7 @@
       <c r="G157" s="28"/>
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
-      <c r="J157" s="55"/>
+      <c r="J157" s="54"/>
       <c r="K157" s="23"/>
       <c r="L157" s="24"/>
       <c r="M157" s="22"/>
@@ -9375,7 +9367,7 @@
       <c r="G158" s="28"/>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
-      <c r="J158" s="55"/>
+      <c r="J158" s="54"/>
       <c r="K158" s="23"/>
       <c r="L158" s="24"/>
       <c r="M158" s="22"/>
@@ -9392,7 +9384,7 @@
       <c r="G159" s="28"/>
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
-      <c r="J159" s="55"/>
+      <c r="J159" s="54"/>
       <c r="K159" s="23"/>
       <c r="L159" s="24"/>
       <c r="M159" s="22"/>
@@ -9409,7 +9401,7 @@
       <c r="G160" s="28"/>
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
-      <c r="J160" s="55"/>
+      <c r="J160" s="54"/>
       <c r="K160" s="23"/>
       <c r="L160" s="24"/>
       <c r="M160" s="22"/>
@@ -9426,7 +9418,7 @@
       <c r="G161" s="28"/>
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
-      <c r="J161" s="55"/>
+      <c r="J161" s="54"/>
       <c r="K161" s="23"/>
       <c r="L161" s="24"/>
       <c r="M161" s="22"/>
@@ -9443,7 +9435,7 @@
       <c r="G162" s="28"/>
       <c r="H162" s="28"/>
       <c r="I162" s="28"/>
-      <c r="J162" s="55"/>
+      <c r="J162" s="54"/>
       <c r="K162" s="23"/>
       <c r="L162" s="24"/>
       <c r="M162" s="22"/>
@@ -9460,7 +9452,7 @@
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
       <c r="I163" s="28"/>
-      <c r="J163" s="55"/>
+      <c r="J163" s="54"/>
       <c r="K163" s="23"/>
       <c r="L163" s="24"/>
       <c r="M163" s="22"/>
@@ -9477,7 +9469,7 @@
       <c r="G164" s="28"/>
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
-      <c r="J164" s="55"/>
+      <c r="J164" s="54"/>
       <c r="K164" s="23"/>
       <c r="L164" s="24"/>
       <c r="M164" s="22"/>
@@ -9494,7 +9486,7 @@
       <c r="G165" s="28"/>
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
-      <c r="J165" s="55"/>
+      <c r="J165" s="54"/>
       <c r="K165" s="23"/>
       <c r="L165" s="24"/>
       <c r="M165" s="22"/>
@@ -9511,7 +9503,7 @@
       <c r="G166" s="28"/>
       <c r="H166" s="28"/>
       <c r="I166" s="28"/>
-      <c r="J166" s="55"/>
+      <c r="J166" s="54"/>
       <c r="K166" s="23"/>
       <c r="L166" s="24"/>
       <c r="M166" s="22"/>
@@ -9528,7 +9520,7 @@
       <c r="G167" s="28"/>
       <c r="H167" s="28"/>
       <c r="I167" s="28"/>
-      <c r="J167" s="55"/>
+      <c r="J167" s="54"/>
       <c r="K167" s="23"/>
       <c r="L167" s="24"/>
       <c r="M167" s="22"/>
@@ -9545,7 +9537,7 @@
       <c r="G168" s="28"/>
       <c r="H168" s="28"/>
       <c r="I168" s="28"/>
-      <c r="J168" s="55"/>
+      <c r="J168" s="54"/>
       <c r="K168" s="23"/>
       <c r="L168" s="24"/>
       <c r="M168" s="22"/>
@@ -9562,7 +9554,7 @@
       <c r="G169" s="28"/>
       <c r="H169" s="28"/>
       <c r="I169" s="28"/>
-      <c r="J169" s="55"/>
+      <c r="J169" s="54"/>
       <c r="K169" s="23"/>
       <c r="L169" s="24"/>
       <c r="M169" s="22"/>
@@ -9579,7 +9571,7 @@
       <c r="G170" s="28"/>
       <c r="H170" s="28"/>
       <c r="I170" s="28"/>
-      <c r="J170" s="55"/>
+      <c r="J170" s="54"/>
       <c r="K170" s="23"/>
       <c r="L170" s="24"/>
       <c r="M170" s="22"/>
@@ -9596,7 +9588,7 @@
       <c r="G171" s="28"/>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
-      <c r="J171" s="55"/>
+      <c r="J171" s="54"/>
       <c r="K171" s="23"/>
       <c r="L171" s="24"/>
       <c r="M171" s="22"/>
@@ -9613,7 +9605,7 @@
       <c r="G172" s="28"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
-      <c r="J172" s="55"/>
+      <c r="J172" s="54"/>
       <c r="K172" s="23"/>
       <c r="L172" s="24"/>
       <c r="M172" s="22"/>
@@ -9630,7 +9622,7 @@
       <c r="G173" s="28"/>
       <c r="H173" s="28"/>
       <c r="I173" s="28"/>
-      <c r="J173" s="55"/>
+      <c r="J173" s="54"/>
       <c r="K173" s="23"/>
       <c r="L173" s="24"/>
       <c r="M173" s="22"/>
@@ -9647,7 +9639,7 @@
       <c r="G174" s="28"/>
       <c r="H174" s="28"/>
       <c r="I174" s="28"/>
-      <c r="J174" s="55"/>
+      <c r="J174" s="54"/>
       <c r="K174" s="23"/>
       <c r="L174" s="24"/>
       <c r="M174" s="22"/>
@@ -9664,7 +9656,7 @@
       <c r="G175" s="28"/>
       <c r="H175" s="28"/>
       <c r="I175" s="28"/>
-      <c r="J175" s="55"/>
+      <c r="J175" s="54"/>
       <c r="K175" s="23"/>
       <c r="L175" s="24"/>
       <c r="M175" s="22"/>
@@ -9681,7 +9673,7 @@
       <c r="G176" s="28"/>
       <c r="H176" s="28"/>
       <c r="I176" s="28"/>
-      <c r="J176" s="55"/>
+      <c r="J176" s="54"/>
       <c r="K176" s="23"/>
       <c r="L176" s="24"/>
       <c r="M176" s="22"/>
@@ -9698,7 +9690,7 @@
       <c r="G177" s="28"/>
       <c r="H177" s="28"/>
       <c r="I177" s="28"/>
-      <c r="J177" s="55"/>
+      <c r="J177" s="54"/>
       <c r="K177" s="23"/>
       <c r="L177" s="24"/>
       <c r="M177" s="22"/>
@@ -9715,7 +9707,7 @@
       <c r="G178" s="28"/>
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
-      <c r="J178" s="55"/>
+      <c r="J178" s="54"/>
       <c r="K178" s="23"/>
       <c r="L178" s="24"/>
       <c r="M178" s="22"/>
@@ -9732,7 +9724,7 @@
       <c r="G179" s="28"/>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
-      <c r="J179" s="55"/>
+      <c r="J179" s="54"/>
       <c r="K179" s="23"/>
       <c r="L179" s="24"/>
       <c r="M179" s="22"/>
@@ -9749,7 +9741,7 @@
       <c r="G180" s="28"/>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
-      <c r="J180" s="55"/>
+      <c r="J180" s="54"/>
       <c r="K180" s="23"/>
       <c r="L180" s="24"/>
       <c r="M180" s="22"/>
@@ -9766,7 +9758,7 @@
       <c r="G181" s="28"/>
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
-      <c r="J181" s="55"/>
+      <c r="J181" s="54"/>
       <c r="K181" s="23"/>
       <c r="L181" s="24"/>
       <c r="M181" s="22"/>
@@ -9783,7 +9775,7 @@
       <c r="G182" s="28"/>
       <c r="H182" s="28"/>
       <c r="I182" s="28"/>
-      <c r="J182" s="55"/>
+      <c r="J182" s="54"/>
       <c r="K182" s="23"/>
       <c r="L182" s="24"/>
       <c r="M182" s="22"/>
@@ -9800,7 +9792,7 @@
       <c r="G183" s="28"/>
       <c r="H183" s="28"/>
       <c r="I183" s="28"/>
-      <c r="J183" s="55"/>
+      <c r="J183" s="54"/>
       <c r="K183" s="23"/>
       <c r="L183" s="24"/>
       <c r="M183" s="22"/>
@@ -9817,7 +9809,7 @@
       <c r="G184" s="28"/>
       <c r="H184" s="28"/>
       <c r="I184" s="28"/>
-      <c r="J184" s="55"/>
+      <c r="J184" s="54"/>
       <c r="K184" s="23"/>
       <c r="L184" s="24"/>
       <c r="M184" s="22"/>
@@ -9834,7 +9826,7 @@
       <c r="G185" s="28"/>
       <c r="H185" s="28"/>
       <c r="I185" s="28"/>
-      <c r="J185" s="55"/>
+      <c r="J185" s="54"/>
       <c r="K185" s="23"/>
       <c r="L185" s="24"/>
       <c r="M185" s="22"/>
@@ -9851,7 +9843,7 @@
       <c r="G186" s="28"/>
       <c r="H186" s="28"/>
       <c r="I186" s="28"/>
-      <c r="J186" s="55"/>
+      <c r="J186" s="54"/>
       <c r="K186" s="23"/>
       <c r="L186" s="24"/>
       <c r="M186" s="22"/>
@@ -9868,7 +9860,7 @@
       <c r="G187" s="28"/>
       <c r="H187" s="28"/>
       <c r="I187" s="28"/>
-      <c r="J187" s="55"/>
+      <c r="J187" s="54"/>
       <c r="K187" s="23"/>
       <c r="L187" s="24"/>
       <c r="M187" s="22"/>
@@ -9885,7 +9877,7 @@
       <c r="G188" s="28"/>
       <c r="H188" s="28"/>
       <c r="I188" s="28"/>
-      <c r="J188" s="55"/>
+      <c r="J188" s="54"/>
       <c r="K188" s="23"/>
       <c r="L188" s="24"/>
       <c r="M188" s="22"/>
@@ -9948,10 +9940,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O185"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9995,14 +9987,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="44"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="45"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -10016,12 +10008,12 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="44"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -10033,7 +10025,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="48"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -10068,10 +10060,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -10107,12 +10099,12 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="52"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="20"/>
@@ -10134,12 +10126,12 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="52"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="20"/>
@@ -10161,7 +10153,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="55"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
       <c r="M7" s="22"/>
@@ -10186,7 +10178,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="55"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
       <c r="M8" s="22"/>
@@ -10211,7 +10203,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
       <c r="M9" s="22"/>
@@ -10238,7 +10230,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
       <c r="M10" s="22"/>
@@ -10263,7 +10255,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
       <c r="M11" s="22"/>
@@ -10292,7 +10284,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
       <c r="M12" s="22"/>
@@ -10317,7 +10309,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="55"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="23"/>
       <c r="L13" s="24"/>
       <c r="M13" s="22"/>
@@ -10344,7 +10336,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
       <c r="M14" s="22"/>
@@ -10369,7 +10361,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="55"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
       <c r="M15" s="22"/>
@@ -10394,7 +10386,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
       <c r="M16" s="22"/>
@@ -10421,7 +10413,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
       <c r="M17" s="22"/>
@@ -10448,7 +10440,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="23"/>
       <c r="L18" s="24"/>
       <c r="M18" s="22"/>
@@ -10475,7 +10467,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="23"/>
       <c r="L19" s="24"/>
       <c r="M19" s="22"/>
@@ -10501,7 +10493,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="23"/>
       <c r="L20" s="24"/>
       <c r="M20" s="22"/>
@@ -10526,7 +10518,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
       <c r="M21" s="22"/>
@@ -10550,7 +10542,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
       <c r="M22" s="22"/>
@@ -10577,7 +10569,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="55"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24"/>
       <c r="M23" s="22"/>
@@ -10603,7 +10595,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="55"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="22"/>
@@ -10630,7 +10622,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="23"/>
       <c r="L25" s="24"/>
       <c r="M25" s="22"/>
@@ -10657,7 +10649,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="55"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="23"/>
       <c r="L26" s="24"/>
       <c r="M26" s="22"/>
@@ -10683,7 +10675,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="55"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
       <c r="M27" s="22"/>
@@ -10708,7 +10700,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="55"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="23"/>
       <c r="L28" s="24"/>
       <c r="M28" s="22"/>
@@ -10716,105 +10708,105 @@
       <c r="O28" s="23"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="36" t="s">
         <v>805</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="C29" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>797</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>798</v>
+      </c>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="56"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="36" t="s">
         <v>806</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>797</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="57"/>
-    </row>
-    <row r="30" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39" t="s">
+      <c r="D30" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>801</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="31" t="s">
         <v>807</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>797</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>798</v>
-      </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="57"/>
-    </row>
-    <row r="31" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39" t="s">
+      <c r="D31" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A32" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="B32" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>800</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="57"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="39" t="s">
-        <v>809</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>800</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>801</v>
-      </c>
+      <c r="D32" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="F32" s="29"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="55"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
       <c r="M32" s="22"/>
@@ -10824,22 +10816,24 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="20"/>
       <c r="B33" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="F33" s="29"/>
+        <v>797</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>809</v>
+      </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="55"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
       <c r="M33" s="22"/>
@@ -10847,9 +10841,7 @@
       <c r="O33" s="23"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A34" s="20" t="s">
-        <v>811</v>
-      </c>
+      <c r="A34" s="20"/>
       <c r="B34" s="31" t="s">
         <v>810</v>
       </c>
@@ -10857,16 +10849,16 @@
         <v>30</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="F34" s="29"/>
+        <v>811</v>
+      </c>
+      <c r="F34" s="37"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="55"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="23"/>
       <c r="L34" s="24"/>
       <c r="M34" s="22"/>
@@ -10876,7 +10868,7 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="20"/>
       <c r="B35" s="31" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>30</v>
@@ -10885,7 +10877,7 @@
         <v>707</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F35" s="37" t="s">
         <v>812</v>
@@ -10893,7 +10885,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="55"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
       <c r="M35" s="22"/>
@@ -10914,11 +10906,11 @@
       <c r="E36" s="28" t="s">
         <v>814</v>
       </c>
-      <c r="F36" s="37"/>
+      <c r="F36" s="29"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="55"/>
+      <c r="J36" s="54"/>
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
       <c r="M36" s="22"/>
@@ -10928,24 +10920,24 @@
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="20"/>
       <c r="B37" s="31" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>800</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>815</v>
+        <v>816</v>
+      </c>
+      <c r="F37" s="29">
+        <v>3000</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="55"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
       <c r="M37" s="22"/>
@@ -10955,7 +10947,7 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="20"/>
       <c r="B38" s="31" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>30</v>
@@ -10964,13 +10956,13 @@
         <v>253</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="55"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="22"/>
@@ -10978,26 +10970,26 @@
       <c r="O38" s="23"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="20"/>
+      <c r="A39" s="20" t="s">
+        <v>819</v>
+      </c>
       <c r="B39" s="31" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>576</v>
+        <v>363</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>819</v>
-      </c>
-      <c r="F39" s="29">
-        <v>3000</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F39" s="29"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="55"/>
+      <c r="J39" s="54"/>
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
       <c r="M39" s="22"/>
@@ -11007,22 +10999,24 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="20"/>
       <c r="B40" s="31" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>821</v>
-      </c>
-      <c r="F40" s="29"/>
+        <v>797</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>798</v>
+      </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="55"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="23"/>
       <c r="L40" s="24"/>
       <c r="M40" s="22"/>
@@ -11030,26 +11024,26 @@
       <c r="O40" s="23"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A41" s="20" t="s">
-        <v>822</v>
-      </c>
+      <c r="A41" s="20"/>
       <c r="B41" s="31" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="F41" s="29"/>
+        <v>800</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>801</v>
+      </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="55"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="23"/>
       <c r="L41" s="24"/>
       <c r="M41" s="22"/>
@@ -11059,24 +11053,24 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
       <c r="B42" s="31" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>797</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>798</v>
+        <v>816</v>
+      </c>
+      <c r="F42" s="29">
+        <v>3000</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="55"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="23"/>
       <c r="L42" s="24"/>
       <c r="M42" s="22"/>
@@ -11086,58 +11080,54 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="20"/>
       <c r="B43" s="31" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>800</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>801</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="F43" s="29"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="55"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="23"/>
       <c r="L43" s="24"/>
       <c r="M43" s="22"/>
       <c r="N43" s="24"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="44" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A44" s="20"/>
       <c r="B44" s="31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>576</v>
+        <v>363</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>819</v>
-      </c>
-      <c r="F44" s="29">
-        <v>3000</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="F44" s="29"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="55"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="23"/>
       <c r="L44" s="24"/>
       <c r="M44" s="22"/>
       <c r="N44" s="24"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="45" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A45" s="20"/>
       <c r="B45" s="31" t="s">
         <v>824</v>
@@ -11146,145 +11136,149 @@
         <v>30</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="F45" s="29"/>
+        <v>772</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>773</v>
+      </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="55"/>
+      <c r="J45" s="54"/>
       <c r="K45" s="23"/>
       <c r="L45" s="24"/>
       <c r="M45" s="22"/>
       <c r="N45" s="24"/>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row r="46" s="1" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A46" s="20"/>
       <c r="B46" s="31" t="s">
         <v>825</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="F46" s="29"/>
+      <c r="C46" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>776</v>
+      </c>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="55"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="23"/>
       <c r="L46" s="24"/>
       <c r="M46" s="22"/>
       <c r="N46" s="24"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row r="47" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A47" s="20"/>
-      <c r="B47" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>772</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>773</v>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>778</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="55"/>
+      <c r="J47" s="54"/>
       <c r="K47" s="23"/>
       <c r="L47" s="24"/>
       <c r="M47" s="22"/>
       <c r="N47" s="24"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="19" customHeight="1" spans="1:15">
+    <row r="48" s="1" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A48" s="20"/>
-      <c r="B48" s="31" t="s">
-        <v>828</v>
-      </c>
+      <c r="B48" s="31"/>
       <c r="C48" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="33" t="s">
-        <v>471</v>
+      <c r="D48" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>775</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>776</v>
+        <v>779</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>780</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="55"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="23"/>
       <c r="L48" s="24"/>
       <c r="M48" s="22"/>
       <c r="N48" s="24"/>
       <c r="O48" s="23"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="49" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A49" s="20"/>
-      <c r="B49" s="31"/>
+      <c r="B49" s="31" t="s">
+        <v>781</v>
+      </c>
       <c r="C49" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>465</v>
+        <v>20</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>302</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="55"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="23"/>
       <c r="L49" s="24"/>
       <c r="M49" s="22"/>
       <c r="N49" s="24"/>
       <c r="O49" s="23"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="17" customHeight="1" spans="1:15">
+    <row r="50" s="1" customFormat="1" ht="16" customHeight="1" spans="1:15">
       <c r="A50" s="20"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>779</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>780</v>
+      <c r="B50" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>828</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="55"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="23"/>
       <c r="L50" s="24"/>
       <c r="M50" s="22"/>
@@ -11294,78 +11288,58 @@
     <row r="51" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A51" s="20"/>
       <c r="B51" s="31" t="s">
-        <v>781</v>
+        <v>829</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>775</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>782</v>
+        <v>30</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>830</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="55"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="23"/>
       <c r="L51" s="24"/>
       <c r="M51" s="22"/>
       <c r="N51" s="24"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="16" customHeight="1" spans="1:15">
+    <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="20"/>
-      <c r="B52" s="31" t="s">
-        <v>829</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>831</v>
-      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="55"/>
+      <c r="J52" s="54"/>
       <c r="K52" s="23"/>
       <c r="L52" s="24"/>
       <c r="M52" s="22"/>
       <c r="N52" s="24"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
+    <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="20"/>
-      <c r="B53" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>831</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>833</v>
-      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="55"/>
+      <c r="J53" s="54"/>
       <c r="K53" s="23"/>
       <c r="L53" s="24"/>
       <c r="M53" s="22"/>
@@ -11382,7 +11356,7 @@
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="55"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="23"/>
       <c r="L54" s="24"/>
       <c r="M54" s="22"/>
@@ -11399,7 +11373,7 @@
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="54"/>
       <c r="K55" s="23"/>
       <c r="L55" s="24"/>
       <c r="M55" s="22"/>
@@ -11416,7 +11390,7 @@
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="55"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="23"/>
       <c r="L56" s="24"/>
       <c r="M56" s="22"/>
@@ -11433,7 +11407,7 @@
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="55"/>
+      <c r="J57" s="54"/>
       <c r="K57" s="23"/>
       <c r="L57" s="24"/>
       <c r="M57" s="22"/>
@@ -11450,7 +11424,7 @@
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="55"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="23"/>
       <c r="L58" s="24"/>
       <c r="M58" s="22"/>
@@ -11467,7 +11441,7 @@
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
-      <c r="J59" s="55"/>
+      <c r="J59" s="54"/>
       <c r="K59" s="23"/>
       <c r="L59" s="24"/>
       <c r="M59" s="22"/>
@@ -11484,7 +11458,7 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="55"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="23"/>
       <c r="L60" s="24"/>
       <c r="M60" s="22"/>
@@ -11501,7 +11475,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
-      <c r="J61" s="55"/>
+      <c r="J61" s="54"/>
       <c r="K61" s="23"/>
       <c r="L61" s="24"/>
       <c r="M61" s="22"/>
@@ -11518,7 +11492,7 @@
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
-      <c r="J62" s="55"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="23"/>
       <c r="L62" s="24"/>
       <c r="M62" s="22"/>
@@ -11535,7 +11509,7 @@
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
-      <c r="J63" s="55"/>
+      <c r="J63" s="54"/>
       <c r="K63" s="23"/>
       <c r="L63" s="24"/>
       <c r="M63" s="22"/>
@@ -11552,7 +11526,7 @@
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
-      <c r="J64" s="55"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="23"/>
       <c r="L64" s="24"/>
       <c r="M64" s="22"/>
@@ -11569,7 +11543,7 @@
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
-      <c r="J65" s="55"/>
+      <c r="J65" s="54"/>
       <c r="K65" s="23"/>
       <c r="L65" s="24"/>
       <c r="M65" s="22"/>
@@ -11586,7 +11560,7 @@
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
-      <c r="J66" s="55"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="23"/>
       <c r="L66" s="24"/>
       <c r="M66" s="22"/>
@@ -11603,7 +11577,7 @@
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
-      <c r="J67" s="55"/>
+      <c r="J67" s="54"/>
       <c r="K67" s="23"/>
       <c r="L67" s="24"/>
       <c r="M67" s="22"/>
@@ -11620,7 +11594,7 @@
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
-      <c r="J68" s="55"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="23"/>
       <c r="L68" s="24"/>
       <c r="M68" s="22"/>
@@ -11637,7 +11611,7 @@
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
-      <c r="J69" s="55"/>
+      <c r="J69" s="54"/>
       <c r="K69" s="23"/>
       <c r="L69" s="24"/>
       <c r="M69" s="22"/>
@@ -11654,7 +11628,7 @@
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
-      <c r="J70" s="55"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="23"/>
       <c r="L70" s="24"/>
       <c r="M70" s="22"/>
@@ -11671,7 +11645,7 @@
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
-      <c r="J71" s="55"/>
+      <c r="J71" s="54"/>
       <c r="K71" s="23"/>
       <c r="L71" s="24"/>
       <c r="M71" s="22"/>
@@ -11688,7 +11662,7 @@
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
-      <c r="J72" s="55"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="23"/>
       <c r="L72" s="24"/>
       <c r="M72" s="22"/>
@@ -11705,7 +11679,7 @@
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
-      <c r="J73" s="55"/>
+      <c r="J73" s="54"/>
       <c r="K73" s="23"/>
       <c r="L73" s="24"/>
       <c r="M73" s="22"/>
@@ -11722,7 +11696,7 @@
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
-      <c r="J74" s="55"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="23"/>
       <c r="L74" s="24"/>
       <c r="M74" s="22"/>
@@ -11739,7 +11713,7 @@
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
-      <c r="J75" s="55"/>
+      <c r="J75" s="54"/>
       <c r="K75" s="23"/>
       <c r="L75" s="24"/>
       <c r="M75" s="22"/>
@@ -11756,7 +11730,7 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
-      <c r="J76" s="55"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="23"/>
       <c r="L76" s="24"/>
       <c r="M76" s="22"/>
@@ -11773,7 +11747,7 @@
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
-      <c r="J77" s="55"/>
+      <c r="J77" s="54"/>
       <c r="K77" s="23"/>
       <c r="L77" s="24"/>
       <c r="M77" s="22"/>
@@ -11790,7 +11764,7 @@
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
-      <c r="J78" s="55"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="23"/>
       <c r="L78" s="24"/>
       <c r="M78" s="22"/>
@@ -11807,7 +11781,7 @@
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
-      <c r="J79" s="55"/>
+      <c r="J79" s="54"/>
       <c r="K79" s="23"/>
       <c r="L79" s="24"/>
       <c r="M79" s="22"/>
@@ -11824,7 +11798,7 @@
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
-      <c r="J80" s="55"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="23"/>
       <c r="L80" s="24"/>
       <c r="M80" s="22"/>
@@ -11841,7 +11815,7 @@
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
-      <c r="J81" s="55"/>
+      <c r="J81" s="54"/>
       <c r="K81" s="23"/>
       <c r="L81" s="24"/>
       <c r="M81" s="22"/>
@@ -11858,7 +11832,7 @@
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="55"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="23"/>
       <c r="L82" s="24"/>
       <c r="M82" s="22"/>
@@ -11875,7 +11849,7 @@
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
-      <c r="J83" s="55"/>
+      <c r="J83" s="54"/>
       <c r="K83" s="23"/>
       <c r="L83" s="24"/>
       <c r="M83" s="22"/>
@@ -11892,7 +11866,7 @@
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
-      <c r="J84" s="55"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="23"/>
       <c r="L84" s="24"/>
       <c r="M84" s="22"/>
@@ -11909,7 +11883,7 @@
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
-      <c r="J85" s="55"/>
+      <c r="J85" s="54"/>
       <c r="K85" s="23"/>
       <c r="L85" s="24"/>
       <c r="M85" s="22"/>
@@ -11926,7 +11900,7 @@
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
-      <c r="J86" s="55"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="23"/>
       <c r="L86" s="24"/>
       <c r="M86" s="22"/>
@@ -11943,7 +11917,7 @@
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
-      <c r="J87" s="55"/>
+      <c r="J87" s="54"/>
       <c r="K87" s="23"/>
       <c r="L87" s="24"/>
       <c r="M87" s="22"/>
@@ -11960,7 +11934,7 @@
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
-      <c r="J88" s="55"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="23"/>
       <c r="L88" s="24"/>
       <c r="M88" s="22"/>
@@ -11977,7 +11951,7 @@
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
-      <c r="J89" s="55"/>
+      <c r="J89" s="54"/>
       <c r="K89" s="23"/>
       <c r="L89" s="24"/>
       <c r="M89" s="22"/>
@@ -11994,7 +11968,7 @@
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
-      <c r="J90" s="55"/>
+      <c r="J90" s="54"/>
       <c r="K90" s="23"/>
       <c r="L90" s="24"/>
       <c r="M90" s="22"/>
@@ -12011,7 +11985,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
-      <c r="J91" s="55"/>
+      <c r="J91" s="54"/>
       <c r="K91" s="23"/>
       <c r="L91" s="24"/>
       <c r="M91" s="22"/>
@@ -12028,7 +12002,7 @@
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
-      <c r="J92" s="55"/>
+      <c r="J92" s="54"/>
       <c r="K92" s="23"/>
       <c r="L92" s="24"/>
       <c r="M92" s="22"/>
@@ -12045,7 +12019,7 @@
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
-      <c r="J93" s="55"/>
+      <c r="J93" s="54"/>
       <c r="K93" s="23"/>
       <c r="L93" s="24"/>
       <c r="M93" s="22"/>
@@ -12062,7 +12036,7 @@
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
-      <c r="J94" s="55"/>
+      <c r="J94" s="54"/>
       <c r="K94" s="23"/>
       <c r="L94" s="24"/>
       <c r="M94" s="22"/>
@@ -12079,7 +12053,7 @@
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
-      <c r="J95" s="55"/>
+      <c r="J95" s="54"/>
       <c r="K95" s="23"/>
       <c r="L95" s="24"/>
       <c r="M95" s="22"/>
@@ -12096,7 +12070,7 @@
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
-      <c r="J96" s="55"/>
+      <c r="J96" s="54"/>
       <c r="K96" s="23"/>
       <c r="L96" s="24"/>
       <c r="M96" s="22"/>
@@ -12113,7 +12087,7 @@
       <c r="G97" s="28"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
-      <c r="J97" s="55"/>
+      <c r="J97" s="54"/>
       <c r="K97" s="23"/>
       <c r="L97" s="24"/>
       <c r="M97" s="22"/>
@@ -12130,7 +12104,7 @@
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
-      <c r="J98" s="55"/>
+      <c r="J98" s="54"/>
       <c r="K98" s="23"/>
       <c r="L98" s="24"/>
       <c r="M98" s="22"/>
@@ -12147,7 +12121,7 @@
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
-      <c r="J99" s="55"/>
+      <c r="J99" s="54"/>
       <c r="K99" s="23"/>
       <c r="L99" s="24"/>
       <c r="M99" s="22"/>
@@ -12164,7 +12138,7 @@
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
-      <c r="J100" s="55"/>
+      <c r="J100" s="54"/>
       <c r="K100" s="23"/>
       <c r="L100" s="24"/>
       <c r="M100" s="22"/>
@@ -12181,7 +12155,7 @@
       <c r="G101" s="28"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
-      <c r="J101" s="55"/>
+      <c r="J101" s="54"/>
       <c r="K101" s="23"/>
       <c r="L101" s="24"/>
       <c r="M101" s="22"/>
@@ -12198,7 +12172,7 @@
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
-      <c r="J102" s="55"/>
+      <c r="J102" s="54"/>
       <c r="K102" s="23"/>
       <c r="L102" s="24"/>
       <c r="M102" s="22"/>
@@ -12215,7 +12189,7 @@
       <c r="G103" s="28"/>
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
-      <c r="J103" s="55"/>
+      <c r="J103" s="54"/>
       <c r="K103" s="23"/>
       <c r="L103" s="24"/>
       <c r="M103" s="22"/>
@@ -12232,7 +12206,7 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
-      <c r="J104" s="55"/>
+      <c r="J104" s="54"/>
       <c r="K104" s="23"/>
       <c r="L104" s="24"/>
       <c r="M104" s="22"/>
@@ -12249,7 +12223,7 @@
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
-      <c r="J105" s="55"/>
+      <c r="J105" s="54"/>
       <c r="K105" s="23"/>
       <c r="L105" s="24"/>
       <c r="M105" s="22"/>
@@ -12266,7 +12240,7 @@
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
-      <c r="J106" s="55"/>
+      <c r="J106" s="54"/>
       <c r="K106" s="23"/>
       <c r="L106" s="24"/>
       <c r="M106" s="22"/>
@@ -12283,7 +12257,7 @@
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
-      <c r="J107" s="55"/>
+      <c r="J107" s="54"/>
       <c r="K107" s="23"/>
       <c r="L107" s="24"/>
       <c r="M107" s="22"/>
@@ -12300,7 +12274,7 @@
       <c r="G108" s="28"/>
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
-      <c r="J108" s="55"/>
+      <c r="J108" s="54"/>
       <c r="K108" s="23"/>
       <c r="L108" s="24"/>
       <c r="M108" s="22"/>
@@ -12317,7 +12291,7 @@
       <c r="G109" s="28"/>
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
-      <c r="J109" s="55"/>
+      <c r="J109" s="54"/>
       <c r="K109" s="23"/>
       <c r="L109" s="24"/>
       <c r="M109" s="22"/>
@@ -12334,7 +12308,7 @@
       <c r="G110" s="28"/>
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
-      <c r="J110" s="55"/>
+      <c r="J110" s="54"/>
       <c r="K110" s="23"/>
       <c r="L110" s="24"/>
       <c r="M110" s="22"/>
@@ -12351,7 +12325,7 @@
       <c r="G111" s="28"/>
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
-      <c r="J111" s="55"/>
+      <c r="J111" s="54"/>
       <c r="K111" s="23"/>
       <c r="L111" s="24"/>
       <c r="M111" s="22"/>
@@ -12368,7 +12342,7 @@
       <c r="G112" s="28"/>
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
-      <c r="J112" s="55"/>
+      <c r="J112" s="54"/>
       <c r="K112" s="23"/>
       <c r="L112" s="24"/>
       <c r="M112" s="22"/>
@@ -12385,7 +12359,7 @@
       <c r="G113" s="28"/>
       <c r="H113" s="28"/>
       <c r="I113" s="28"/>
-      <c r="J113" s="55"/>
+      <c r="J113" s="54"/>
       <c r="K113" s="23"/>
       <c r="L113" s="24"/>
       <c r="M113" s="22"/>
@@ -12402,7 +12376,7 @@
       <c r="G114" s="28"/>
       <c r="H114" s="28"/>
       <c r="I114" s="28"/>
-      <c r="J114" s="55"/>
+      <c r="J114" s="54"/>
       <c r="K114" s="23"/>
       <c r="L114" s="24"/>
       <c r="M114" s="22"/>
@@ -12419,7 +12393,7 @@
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
-      <c r="J115" s="55"/>
+      <c r="J115" s="54"/>
       <c r="K115" s="23"/>
       <c r="L115" s="24"/>
       <c r="M115" s="22"/>
@@ -12436,7 +12410,7 @@
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
-      <c r="J116" s="55"/>
+      <c r="J116" s="54"/>
       <c r="K116" s="23"/>
       <c r="L116" s="24"/>
       <c r="M116" s="22"/>
@@ -12453,7 +12427,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
       <c r="I117" s="28"/>
-      <c r="J117" s="55"/>
+      <c r="J117" s="54"/>
       <c r="K117" s="23"/>
       <c r="L117" s="24"/>
       <c r="M117" s="22"/>
@@ -12470,7 +12444,7 @@
       <c r="G118" s="28"/>
       <c r="H118" s="28"/>
       <c r="I118" s="28"/>
-      <c r="J118" s="55"/>
+      <c r="J118" s="54"/>
       <c r="K118" s="23"/>
       <c r="L118" s="24"/>
       <c r="M118" s="22"/>
@@ -12487,7 +12461,7 @@
       <c r="G119" s="28"/>
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
-      <c r="J119" s="55"/>
+      <c r="J119" s="54"/>
       <c r="K119" s="23"/>
       <c r="L119" s="24"/>
       <c r="M119" s="22"/>
@@ -12504,7 +12478,7 @@
       <c r="G120" s="28"/>
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
-      <c r="J120" s="55"/>
+      <c r="J120" s="54"/>
       <c r="K120" s="23"/>
       <c r="L120" s="24"/>
       <c r="M120" s="22"/>
@@ -12521,7 +12495,7 @@
       <c r="G121" s="28"/>
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
-      <c r="J121" s="55"/>
+      <c r="J121" s="54"/>
       <c r="K121" s="23"/>
       <c r="L121" s="24"/>
       <c r="M121" s="22"/>
@@ -12538,7 +12512,7 @@
       <c r="G122" s="28"/>
       <c r="H122" s="28"/>
       <c r="I122" s="28"/>
-      <c r="J122" s="55"/>
+      <c r="J122" s="54"/>
       <c r="K122" s="23"/>
       <c r="L122" s="24"/>
       <c r="M122" s="22"/>
@@ -12555,7 +12529,7 @@
       <c r="G123" s="28"/>
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
-      <c r="J123" s="55"/>
+      <c r="J123" s="54"/>
       <c r="K123" s="23"/>
       <c r="L123" s="24"/>
       <c r="M123" s="22"/>
@@ -12572,7 +12546,7 @@
       <c r="G124" s="28"/>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
-      <c r="J124" s="55"/>
+      <c r="J124" s="54"/>
       <c r="K124" s="23"/>
       <c r="L124" s="24"/>
       <c r="M124" s="22"/>
@@ -12589,7 +12563,7 @@
       <c r="G125" s="28"/>
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
-      <c r="J125" s="55"/>
+      <c r="J125" s="54"/>
       <c r="K125" s="23"/>
       <c r="L125" s="24"/>
       <c r="M125" s="22"/>
@@ -12606,7 +12580,7 @@
       <c r="G126" s="28"/>
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
-      <c r="J126" s="55"/>
+      <c r="J126" s="54"/>
       <c r="K126" s="23"/>
       <c r="L126" s="24"/>
       <c r="M126" s="22"/>
@@ -12623,7 +12597,7 @@
       <c r="G127" s="28"/>
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
-      <c r="J127" s="55"/>
+      <c r="J127" s="54"/>
       <c r="K127" s="23"/>
       <c r="L127" s="24"/>
       <c r="M127" s="22"/>
@@ -12640,7 +12614,7 @@
       <c r="G128" s="28"/>
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
-      <c r="J128" s="55"/>
+      <c r="J128" s="54"/>
       <c r="K128" s="23"/>
       <c r="L128" s="24"/>
       <c r="M128" s="22"/>
@@ -12657,7 +12631,7 @@
       <c r="G129" s="28"/>
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
-      <c r="J129" s="55"/>
+      <c r="J129" s="54"/>
       <c r="K129" s="23"/>
       <c r="L129" s="24"/>
       <c r="M129" s="22"/>
@@ -12674,7 +12648,7 @@
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
       <c r="I130" s="28"/>
-      <c r="J130" s="55"/>
+      <c r="J130" s="54"/>
       <c r="K130" s="23"/>
       <c r="L130" s="24"/>
       <c r="M130" s="22"/>
@@ -12691,7 +12665,7 @@
       <c r="G131" s="28"/>
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
-      <c r="J131" s="55"/>
+      <c r="J131" s="54"/>
       <c r="K131" s="23"/>
       <c r="L131" s="24"/>
       <c r="M131" s="22"/>
@@ -12708,7 +12682,7 @@
       <c r="G132" s="28"/>
       <c r="H132" s="28"/>
       <c r="I132" s="28"/>
-      <c r="J132" s="55"/>
+      <c r="J132" s="54"/>
       <c r="K132" s="23"/>
       <c r="L132" s="24"/>
       <c r="M132" s="22"/>
@@ -12725,7 +12699,7 @@
       <c r="G133" s="28"/>
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
-      <c r="J133" s="55"/>
+      <c r="J133" s="54"/>
       <c r="K133" s="23"/>
       <c r="L133" s="24"/>
       <c r="M133" s="22"/>
@@ -12742,7 +12716,7 @@
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
       <c r="I134" s="28"/>
-      <c r="J134" s="55"/>
+      <c r="J134" s="54"/>
       <c r="K134" s="23"/>
       <c r="L134" s="24"/>
       <c r="M134" s="22"/>
@@ -12759,7 +12733,7 @@
       <c r="G135" s="28"/>
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
-      <c r="J135" s="55"/>
+      <c r="J135" s="54"/>
       <c r="K135" s="23"/>
       <c r="L135" s="24"/>
       <c r="M135" s="22"/>
@@ -12776,7 +12750,7 @@
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
-      <c r="J136" s="55"/>
+      <c r="J136" s="54"/>
       <c r="K136" s="23"/>
       <c r="L136" s="24"/>
       <c r="M136" s="22"/>
@@ -12793,7 +12767,7 @@
       <c r="G137" s="28"/>
       <c r="H137" s="28"/>
       <c r="I137" s="28"/>
-      <c r="J137" s="55"/>
+      <c r="J137" s="54"/>
       <c r="K137" s="23"/>
       <c r="L137" s="24"/>
       <c r="M137" s="22"/>
@@ -12810,7 +12784,7 @@
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
       <c r="I138" s="28"/>
-      <c r="J138" s="55"/>
+      <c r="J138" s="54"/>
       <c r="K138" s="23"/>
       <c r="L138" s="24"/>
       <c r="M138" s="22"/>
@@ -12827,7 +12801,7 @@
       <c r="G139" s="28"/>
       <c r="H139" s="28"/>
       <c r="I139" s="28"/>
-      <c r="J139" s="55"/>
+      <c r="J139" s="54"/>
       <c r="K139" s="23"/>
       <c r="L139" s="24"/>
       <c r="M139" s="22"/>
@@ -12844,7 +12818,7 @@
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
       <c r="I140" s="28"/>
-      <c r="J140" s="55"/>
+      <c r="J140" s="54"/>
       <c r="K140" s="23"/>
       <c r="L140" s="24"/>
       <c r="M140" s="22"/>
@@ -12861,7 +12835,7 @@
       <c r="G141" s="28"/>
       <c r="H141" s="28"/>
       <c r="I141" s="28"/>
-      <c r="J141" s="55"/>
+      <c r="J141" s="54"/>
       <c r="K141" s="23"/>
       <c r="L141" s="24"/>
       <c r="M141" s="22"/>
@@ -12878,7 +12852,7 @@
       <c r="G142" s="28"/>
       <c r="H142" s="28"/>
       <c r="I142" s="28"/>
-      <c r="J142" s="55"/>
+      <c r="J142" s="54"/>
       <c r="K142" s="23"/>
       <c r="L142" s="24"/>
       <c r="M142" s="22"/>
@@ -12895,7 +12869,7 @@
       <c r="G143" s="28"/>
       <c r="H143" s="28"/>
       <c r="I143" s="28"/>
-      <c r="J143" s="55"/>
+      <c r="J143" s="54"/>
       <c r="K143" s="23"/>
       <c r="L143" s="24"/>
       <c r="M143" s="22"/>
@@ -12912,7 +12886,7 @@
       <c r="G144" s="28"/>
       <c r="H144" s="28"/>
       <c r="I144" s="28"/>
-      <c r="J144" s="55"/>
+      <c r="J144" s="54"/>
       <c r="K144" s="23"/>
       <c r="L144" s="24"/>
       <c r="M144" s="22"/>
@@ -12929,7 +12903,7 @@
       <c r="G145" s="28"/>
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
-      <c r="J145" s="55"/>
+      <c r="J145" s="54"/>
       <c r="K145" s="23"/>
       <c r="L145" s="24"/>
       <c r="M145" s="22"/>
@@ -12946,7 +12920,7 @@
       <c r="G146" s="28"/>
       <c r="H146" s="28"/>
       <c r="I146" s="28"/>
-      <c r="J146" s="55"/>
+      <c r="J146" s="54"/>
       <c r="K146" s="23"/>
       <c r="L146" s="24"/>
       <c r="M146" s="22"/>
@@ -12963,7 +12937,7 @@
       <c r="G147" s="28"/>
       <c r="H147" s="28"/>
       <c r="I147" s="28"/>
-      <c r="J147" s="55"/>
+      <c r="J147" s="54"/>
       <c r="K147" s="23"/>
       <c r="L147" s="24"/>
       <c r="M147" s="22"/>
@@ -12980,7 +12954,7 @@
       <c r="G148" s="28"/>
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
-      <c r="J148" s="55"/>
+      <c r="J148" s="54"/>
       <c r="K148" s="23"/>
       <c r="L148" s="24"/>
       <c r="M148" s="22"/>
@@ -12997,7 +12971,7 @@
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
-      <c r="J149" s="55"/>
+      <c r="J149" s="54"/>
       <c r="K149" s="23"/>
       <c r="L149" s="24"/>
       <c r="M149" s="22"/>
@@ -13014,7 +12988,7 @@
       <c r="G150" s="28"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
-      <c r="J150" s="55"/>
+      <c r="J150" s="54"/>
       <c r="K150" s="23"/>
       <c r="L150" s="24"/>
       <c r="M150" s="22"/>
@@ -13031,7 +13005,7 @@
       <c r="G151" s="28"/>
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
-      <c r="J151" s="55"/>
+      <c r="J151" s="54"/>
       <c r="K151" s="23"/>
       <c r="L151" s="24"/>
       <c r="M151" s="22"/>
@@ -13048,7 +13022,7 @@
       <c r="G152" s="28"/>
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
-      <c r="J152" s="55"/>
+      <c r="J152" s="54"/>
       <c r="K152" s="23"/>
       <c r="L152" s="24"/>
       <c r="M152" s="22"/>
@@ -13065,7 +13039,7 @@
       <c r="G153" s="28"/>
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
-      <c r="J153" s="55"/>
+      <c r="J153" s="54"/>
       <c r="K153" s="23"/>
       <c r="L153" s="24"/>
       <c r="M153" s="22"/>
@@ -13082,7 +13056,7 @@
       <c r="G154" s="28"/>
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
-      <c r="J154" s="55"/>
+      <c r="J154" s="54"/>
       <c r="K154" s="23"/>
       <c r="L154" s="24"/>
       <c r="M154" s="22"/>
@@ -13099,7 +13073,7 @@
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
-      <c r="J155" s="55"/>
+      <c r="J155" s="54"/>
       <c r="K155" s="23"/>
       <c r="L155" s="24"/>
       <c r="M155" s="22"/>
@@ -13116,7 +13090,7 @@
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
-      <c r="J156" s="55"/>
+      <c r="J156" s="54"/>
       <c r="K156" s="23"/>
       <c r="L156" s="24"/>
       <c r="M156" s="22"/>
@@ -13133,7 +13107,7 @@
       <c r="G157" s="28"/>
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
-      <c r="J157" s="55"/>
+      <c r="J157" s="54"/>
       <c r="K157" s="23"/>
       <c r="L157" s="24"/>
       <c r="M157" s="22"/>
@@ -13150,7 +13124,7 @@
       <c r="G158" s="28"/>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
-      <c r="J158" s="55"/>
+      <c r="J158" s="54"/>
       <c r="K158" s="23"/>
       <c r="L158" s="24"/>
       <c r="M158" s="22"/>
@@ -13167,7 +13141,7 @@
       <c r="G159" s="28"/>
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
-      <c r="J159" s="55"/>
+      <c r="J159" s="54"/>
       <c r="K159" s="23"/>
       <c r="L159" s="24"/>
       <c r="M159" s="22"/>
@@ -13184,7 +13158,7 @@
       <c r="G160" s="28"/>
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
-      <c r="J160" s="55"/>
+      <c r="J160" s="54"/>
       <c r="K160" s="23"/>
       <c r="L160" s="24"/>
       <c r="M160" s="22"/>
@@ -13201,7 +13175,7 @@
       <c r="G161" s="28"/>
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
-      <c r="J161" s="55"/>
+      <c r="J161" s="54"/>
       <c r="K161" s="23"/>
       <c r="L161" s="24"/>
       <c r="M161" s="22"/>
@@ -13218,7 +13192,7 @@
       <c r="G162" s="28"/>
       <c r="H162" s="28"/>
       <c r="I162" s="28"/>
-      <c r="J162" s="55"/>
+      <c r="J162" s="54"/>
       <c r="K162" s="23"/>
       <c r="L162" s="24"/>
       <c r="M162" s="22"/>
@@ -13235,7 +13209,7 @@
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
       <c r="I163" s="28"/>
-      <c r="J163" s="55"/>
+      <c r="J163" s="54"/>
       <c r="K163" s="23"/>
       <c r="L163" s="24"/>
       <c r="M163" s="22"/>
@@ -13252,7 +13226,7 @@
       <c r="G164" s="28"/>
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
-      <c r="J164" s="55"/>
+      <c r="J164" s="54"/>
       <c r="K164" s="23"/>
       <c r="L164" s="24"/>
       <c r="M164" s="22"/>
@@ -13269,7 +13243,7 @@
       <c r="G165" s="28"/>
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
-      <c r="J165" s="55"/>
+      <c r="J165" s="54"/>
       <c r="K165" s="23"/>
       <c r="L165" s="24"/>
       <c r="M165" s="22"/>
@@ -13286,7 +13260,7 @@
       <c r="G166" s="28"/>
       <c r="H166" s="28"/>
       <c r="I166" s="28"/>
-      <c r="J166" s="55"/>
+      <c r="J166" s="54"/>
       <c r="K166" s="23"/>
       <c r="L166" s="24"/>
       <c r="M166" s="22"/>
@@ -13303,7 +13277,7 @@
       <c r="G167" s="28"/>
       <c r="H167" s="28"/>
       <c r="I167" s="28"/>
-      <c r="J167" s="55"/>
+      <c r="J167" s="54"/>
       <c r="K167" s="23"/>
       <c r="L167" s="24"/>
       <c r="M167" s="22"/>
@@ -13320,7 +13294,7 @@
       <c r="G168" s="28"/>
       <c r="H168" s="28"/>
       <c r="I168" s="28"/>
-      <c r="J168" s="55"/>
+      <c r="J168" s="54"/>
       <c r="K168" s="23"/>
       <c r="L168" s="24"/>
       <c r="M168" s="22"/>
@@ -13337,7 +13311,7 @@
       <c r="G169" s="28"/>
       <c r="H169" s="28"/>
       <c r="I169" s="28"/>
-      <c r="J169" s="55"/>
+      <c r="J169" s="54"/>
       <c r="K169" s="23"/>
       <c r="L169" s="24"/>
       <c r="M169" s="22"/>
@@ -13354,7 +13328,7 @@
       <c r="G170" s="28"/>
       <c r="H170" s="28"/>
       <c r="I170" s="28"/>
-      <c r="J170" s="55"/>
+      <c r="J170" s="54"/>
       <c r="K170" s="23"/>
       <c r="L170" s="24"/>
       <c r="M170" s="22"/>
@@ -13371,7 +13345,7 @@
       <c r="G171" s="28"/>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
-      <c r="J171" s="55"/>
+      <c r="J171" s="54"/>
       <c r="K171" s="23"/>
       <c r="L171" s="24"/>
       <c r="M171" s="22"/>
@@ -13388,7 +13362,7 @@
       <c r="G172" s="28"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
-      <c r="J172" s="55"/>
+      <c r="J172" s="54"/>
       <c r="K172" s="23"/>
       <c r="L172" s="24"/>
       <c r="M172" s="22"/>
@@ -13405,7 +13379,7 @@
       <c r="G173" s="28"/>
       <c r="H173" s="28"/>
       <c r="I173" s="28"/>
-      <c r="J173" s="55"/>
+      <c r="J173" s="54"/>
       <c r="K173" s="23"/>
       <c r="L173" s="24"/>
       <c r="M173" s="22"/>
@@ -13422,7 +13396,7 @@
       <c r="G174" s="28"/>
       <c r="H174" s="28"/>
       <c r="I174" s="28"/>
-      <c r="J174" s="55"/>
+      <c r="J174" s="54"/>
       <c r="K174" s="23"/>
       <c r="L174" s="24"/>
       <c r="M174" s="22"/>
@@ -13439,7 +13413,7 @@
       <c r="G175" s="28"/>
       <c r="H175" s="28"/>
       <c r="I175" s="28"/>
-      <c r="J175" s="55"/>
+      <c r="J175" s="54"/>
       <c r="K175" s="23"/>
       <c r="L175" s="24"/>
       <c r="M175" s="22"/>
@@ -13456,7 +13430,7 @@
       <c r="G176" s="28"/>
       <c r="H176" s="28"/>
       <c r="I176" s="28"/>
-      <c r="J176" s="55"/>
+      <c r="J176" s="54"/>
       <c r="K176" s="23"/>
       <c r="L176" s="24"/>
       <c r="M176" s="22"/>
@@ -13473,7 +13447,7 @@
       <c r="G177" s="28"/>
       <c r="H177" s="28"/>
       <c r="I177" s="28"/>
-      <c r="J177" s="55"/>
+      <c r="J177" s="54"/>
       <c r="K177" s="23"/>
       <c r="L177" s="24"/>
       <c r="M177" s="22"/>
@@ -13490,7 +13464,7 @@
       <c r="G178" s="28"/>
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
-      <c r="J178" s="55"/>
+      <c r="J178" s="54"/>
       <c r="K178" s="23"/>
       <c r="L178" s="24"/>
       <c r="M178" s="22"/>
@@ -13507,7 +13481,7 @@
       <c r="G179" s="28"/>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
-      <c r="J179" s="55"/>
+      <c r="J179" s="54"/>
       <c r="K179" s="23"/>
       <c r="L179" s="24"/>
       <c r="M179" s="22"/>
@@ -13524,7 +13498,7 @@
       <c r="G180" s="28"/>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
-      <c r="J180" s="55"/>
+      <c r="J180" s="54"/>
       <c r="K180" s="23"/>
       <c r="L180" s="24"/>
       <c r="M180" s="22"/>
@@ -13541,7 +13515,7 @@
       <c r="G181" s="28"/>
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
-      <c r="J181" s="55"/>
+      <c r="J181" s="54"/>
       <c r="K181" s="23"/>
       <c r="L181" s="24"/>
       <c r="M181" s="22"/>
@@ -13558,7 +13532,7 @@
       <c r="G182" s="28"/>
       <c r="H182" s="28"/>
       <c r="I182" s="28"/>
-      <c r="J182" s="55"/>
+      <c r="J182" s="54"/>
       <c r="K182" s="23"/>
       <c r="L182" s="24"/>
       <c r="M182" s="22"/>
@@ -13575,46 +13549,12 @@
       <c r="G183" s="28"/>
       <c r="H183" s="28"/>
       <c r="I183" s="28"/>
-      <c r="J183" s="55"/>
+      <c r="J183" s="54"/>
       <c r="K183" s="23"/>
       <c r="L183" s="24"/>
       <c r="M183" s="22"/>
       <c r="N183" s="24"/>
       <c r="O183" s="23"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="20"/>
-      <c r="B184" s="21"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="28"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="55"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
-      <c r="M184" s="22"/>
-      <c r="N184" s="24"/>
-      <c r="O184" s="23"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="20"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="27"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
-      <c r="H185" s="28"/>
-      <c r="I185" s="28"/>
-      <c r="J185" s="55"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
-      <c r="M185" s="22"/>
-      <c r="N185" s="24"/>
-      <c r="O185" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13623,18 +13563,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N86:N185">
+  <conditionalFormatting sqref="N84:N183">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N85">
+  <conditionalFormatting sqref="N1 N3:N83">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13646,10 +13586,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C45 C46 C47 C48 C51 C52 C53 C7:C8 C15:C16 C25:C26 C42:C44 C49:C50 C54:C185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C43 C44 C45 C46 C49 C50 C51 C7:C8 C15:C16 C25:C26 C40:C42 C47:C48 C52:C183">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D45 D46 D47 D48 D51 D52 D53 D7:D8 D15:D16 D42:D44 D49:D50 D54:D185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D43 D44 D45 D46 D49 D50 D51 D7:D8 D15:D16 D40:D42 D47:D48 D52:D183">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AuditLogs.xlsx
+++ b/tests/artifact/script/UI-AuditLogs.xlsx
@@ -9943,7 +9943,7 @@
   <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
